--- a/Task/2015-06-04siebel上线后会员数据整合/历史会员销售修复记录.xlsx
+++ b/Task/2015-06-04siebel上线后会员数据整合/历史会员销售修复记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="5">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
   </si>
   <si>
     <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,8 +382,8 @@
   <dimension ref="A1:D822"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D355" sqref="D355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -472,6 +468,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150731000);</v>
       </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
@@ -485,6 +484,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150730000);</v>
       </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
@@ -498,6 +500,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150729000);</v>
       </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
@@ -511,6 +516,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150728000);</v>
       </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
@@ -524,6 +532,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150727000);</v>
       </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
@@ -538,7 +549,7 @@
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150726000);</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -553,6 +564,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150725000);</v>
       </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
@@ -567,7 +581,7 @@
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150724000);</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -582,6 +596,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150723000);</v>
       </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
@@ -595,6 +612,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150722000);</v>
       </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
@@ -608,6 +628,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150721000);</v>
       </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
@@ -621,6 +644,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150720000);</v>
       </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
@@ -635,7 +661,7 @@
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150719000);</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -650,6 +676,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150718000);</v>
       </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
@@ -663,6 +692,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150717000);</v>
       </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
@@ -676,6 +708,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150716000);</v>
       </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
@@ -689,6 +724,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150715000);</v>
       </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
@@ -702,6 +740,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150714000);</v>
       </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
@@ -715,6 +756,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150713000);</v>
       </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
@@ -728,6 +772,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150712000);</v>
       </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
@@ -741,6 +788,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150711000);</v>
       </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
@@ -754,6 +804,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150710000);</v>
       </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
@@ -767,6 +820,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150709000);</v>
       </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
@@ -780,6 +836,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150708000);</v>
       </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
@@ -793,6 +852,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150707000);</v>
       </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
@@ -806,6 +868,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150706000);</v>
       </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
@@ -819,6 +884,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150705000);</v>
       </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
@@ -832,6 +900,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150704000);</v>
       </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
@@ -845,6 +916,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150703000);</v>
       </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
@@ -858,6 +932,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150702000);</v>
       </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
@@ -871,6 +948,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150701000);</v>
       </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
@@ -884,6 +964,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150630000);</v>
       </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
@@ -897,6 +980,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150629000);</v>
       </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
@@ -910,6 +996,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150628000);</v>
       </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
@@ -923,6 +1012,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150627000);</v>
       </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
@@ -936,6 +1028,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150626000);</v>
       </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
@@ -949,6 +1044,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150625000);</v>
       </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
@@ -962,6 +1060,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150624000);</v>
       </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
@@ -975,6 +1076,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150623000);</v>
       </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
@@ -988,6 +1092,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150622000);</v>
       </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
@@ -1001,6 +1108,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150621000);</v>
       </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
@@ -1015,7 +1125,7 @@
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150620000);</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
@@ -1030,6 +1140,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150619000);</v>
       </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
@@ -1043,6 +1156,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150618000);</v>
       </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
@@ -1056,6 +1172,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150617000);</v>
       </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
@@ -1069,6 +1188,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150616000);</v>
       </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
@@ -1082,6 +1204,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150615000);</v>
       </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
@@ -1095,6 +1220,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150614000);</v>
       </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
@@ -1108,6 +1236,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150613000);</v>
       </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
@@ -1121,6 +1252,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150612000);</v>
       </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
@@ -1134,6 +1268,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150611000);</v>
       </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
@@ -1147,6 +1284,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150610000);</v>
       </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
@@ -1161,7 +1301,7 @@
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150609000);</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
@@ -1176,6 +1316,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150608000);</v>
       </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
@@ -1189,6 +1332,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150607000);</v>
       </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
@@ -1202,6 +1348,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150606000);</v>
       </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
@@ -1215,6 +1364,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150605000);</v>
       </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
@@ -1228,6 +1380,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150604000);</v>
       </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
@@ -1241,6 +1396,9 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150603000);</v>
       </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
@@ -1254,8 +1412,11 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150602000);</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>42156</v>
       </c>
@@ -1267,8 +1428,11 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150601000);</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>42155</v>
       </c>
@@ -1280,8 +1444,11 @@
         <f t="shared" si="1"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150531000);</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>42154</v>
       </c>
@@ -1293,8 +1460,11 @@
         <f t="shared" ref="C67:C130" si="3">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_AGG_PROC(1",B67,"000);")</f>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150530000);</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>42153</v>
       </c>
@@ -1306,8 +1476,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150529000);</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>42152</v>
       </c>
@@ -1319,8 +1492,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150528000);</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>42151</v>
       </c>
@@ -1332,8 +1508,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150527000);</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>42150</v>
       </c>
@@ -1345,8 +1524,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150526000);</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>42149</v>
       </c>
@@ -1358,8 +1540,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150525000);</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>42148</v>
       </c>
@@ -1371,8 +1556,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150524000);</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>42147</v>
       </c>
@@ -1384,8 +1572,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150523000);</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>42146</v>
       </c>
@@ -1397,8 +1588,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150522000);</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>42145</v>
       </c>
@@ -1410,8 +1604,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150521000);</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>42144</v>
       </c>
@@ -1423,8 +1620,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150520000);</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>42143</v>
       </c>
@@ -1436,8 +1636,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150519000);</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>42142</v>
       </c>
@@ -1449,8 +1652,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150518000);</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>42141</v>
       </c>
@@ -1462,8 +1668,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150517000);</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>42140</v>
       </c>
@@ -1475,8 +1684,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150516000);</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>42139</v>
       </c>
@@ -1488,8 +1700,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150515000);</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>42138</v>
       </c>
@@ -1501,8 +1716,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150514000);</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>42137</v>
       </c>
@@ -1514,8 +1732,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150513000);</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>42136</v>
       </c>
@@ -1527,8 +1748,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150512000);</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>42135</v>
       </c>
@@ -1540,8 +1764,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150511000);</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>42134</v>
       </c>
@@ -1553,8 +1780,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150510000);</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>42133</v>
       </c>
@@ -1566,8 +1796,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150509000);</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>42132</v>
       </c>
@@ -1579,8 +1812,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150508000);</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>42131</v>
       </c>
@@ -1592,8 +1828,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150507000);</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>42130</v>
       </c>
@@ -1605,8 +1844,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150506000);</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>42129</v>
       </c>
@@ -1618,8 +1860,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150505000);</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>42128</v>
       </c>
@@ -1631,8 +1876,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150504000);</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>42127</v>
       </c>
@@ -1644,8 +1892,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150503000);</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>42126</v>
       </c>
@@ -1657,8 +1908,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150502000);</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>42125</v>
       </c>
@@ -1670,8 +1924,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150501000);</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>42124</v>
       </c>
@@ -1683,8 +1940,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150430000);</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>42123</v>
       </c>
@@ -1696,8 +1956,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150429000);</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>42122</v>
       </c>
@@ -1709,8 +1972,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150428000);</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>42121</v>
       </c>
@@ -1722,8 +1988,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150427000);</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>42120</v>
       </c>
@@ -1735,8 +2004,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150426000);</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>42119</v>
       </c>
@@ -1748,8 +2020,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150425000);</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>42118</v>
       </c>
@@ -1761,8 +2036,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150424000);</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>42117</v>
       </c>
@@ -1774,8 +2052,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150423000);</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>42116</v>
       </c>
@@ -1787,8 +2068,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150422000);</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>42115</v>
       </c>
@@ -1800,8 +2084,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150421000);</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>42114</v>
       </c>
@@ -1813,8 +2100,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150420000);</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>42113</v>
       </c>
@@ -1826,8 +2116,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150419000);</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>42112</v>
       </c>
@@ -1839,8 +2132,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150418000);</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>42111</v>
       </c>
@@ -1852,8 +2148,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150417000);</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>42110</v>
       </c>
@@ -1865,8 +2164,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150416000);</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>42109</v>
       </c>
@@ -1878,8 +2180,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150415000);</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>42108</v>
       </c>
@@ -1891,8 +2196,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150414000);</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>42107</v>
       </c>
@@ -1904,8 +2212,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150413000);</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>42106</v>
       </c>
@@ -1917,8 +2228,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150412000);</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>42105</v>
       </c>
@@ -1930,8 +2244,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150411000);</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>42104</v>
       </c>
@@ -1943,8 +2260,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150410000);</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>42103</v>
       </c>
@@ -1956,8 +2276,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150409000);</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>42102</v>
       </c>
@@ -1969,8 +2292,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150408000);</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>42101</v>
       </c>
@@ -1982,8 +2308,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150407000);</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>42100</v>
       </c>
@@ -1995,8 +2324,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150406000);</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>42099</v>
       </c>
@@ -2008,8 +2340,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150405000);</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>42098</v>
       </c>
@@ -2021,8 +2356,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150404000);</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>42097</v>
       </c>
@@ -2034,8 +2372,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150403000);</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>42096</v>
       </c>
@@ -2047,8 +2388,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150402000);</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>42095</v>
       </c>
@@ -2060,8 +2404,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150401000);</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>42094</v>
       </c>
@@ -2073,8 +2420,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150331000);</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>42093</v>
       </c>
@@ -2086,8 +2436,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150330000);</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D128" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>42092</v>
       </c>
@@ -2099,8 +2452,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150329000);</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>42091</v>
       </c>
@@ -2112,8 +2468,11 @@
         <f t="shared" si="3"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150328000);</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>42090</v>
       </c>
@@ -2125,8 +2484,11 @@
         <f t="shared" ref="C131:C194" si="5">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_AGG_PROC(1",B131,"000);")</f>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150327000);</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>42089</v>
       </c>
@@ -2138,8 +2500,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150326000);</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D132" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>42088</v>
       </c>
@@ -2151,8 +2516,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150325000);</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D133" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>42087</v>
       </c>
@@ -2164,8 +2532,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150324000);</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>42086</v>
       </c>
@@ -2177,8 +2548,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150323000);</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D135" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>42085</v>
       </c>
@@ -2190,8 +2564,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150322000);</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D136" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>42084</v>
       </c>
@@ -2203,8 +2580,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150321000);</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D137" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>42083</v>
       </c>
@@ -2216,8 +2596,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150320000);</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>42082</v>
       </c>
@@ -2229,8 +2612,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150319000);</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D139" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>42081</v>
       </c>
@@ -2242,8 +2628,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150318000);</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D140" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>42080</v>
       </c>
@@ -2255,8 +2644,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150317000);</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D141" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>42079</v>
       </c>
@@ -2268,8 +2660,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150316000);</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>42078</v>
       </c>
@@ -2281,8 +2676,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150315000);</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>42077</v>
       </c>
@@ -2294,8 +2692,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150314000);</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D144" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>42076</v>
       </c>
@@ -2307,8 +2708,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150313000);</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D145" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>42075</v>
       </c>
@@ -2320,8 +2724,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150312000);</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D146" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>42074</v>
       </c>
@@ -2333,8 +2740,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150311000);</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D147" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>42073</v>
       </c>
@@ -2346,8 +2756,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150310000);</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D148" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>42072</v>
       </c>
@@ -2359,8 +2772,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150309000);</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D149" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>42071</v>
       </c>
@@ -2372,8 +2788,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150308000);</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D150" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>42070</v>
       </c>
@@ -2385,8 +2804,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150307000);</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D151" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>42069</v>
       </c>
@@ -2398,8 +2820,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150306000);</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D152" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>42068</v>
       </c>
@@ -2411,8 +2836,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150305000);</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D153" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>42067</v>
       </c>
@@ -2424,8 +2852,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150304000);</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>42066</v>
       </c>
@@ -2437,8 +2868,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150303000);</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D155" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>42065</v>
       </c>
@@ -2450,8 +2884,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150302000);</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D156" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>42064</v>
       </c>
@@ -2463,8 +2900,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150301000);</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>42063</v>
       </c>
@@ -2476,8 +2916,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150228000);</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>42062</v>
       </c>
@@ -2489,8 +2932,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150227000);</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D159" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>42061</v>
       </c>
@@ -2502,8 +2948,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150226000);</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D160" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>42060</v>
       </c>
@@ -2515,8 +2964,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150225000);</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>42059</v>
       </c>
@@ -2528,8 +2980,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150224000);</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D162" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>42058</v>
       </c>
@@ -2541,8 +2996,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150223000);</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>42057</v>
       </c>
@@ -2554,8 +3012,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150222000);</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D164" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>42056</v>
       </c>
@@ -2567,8 +3028,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150221000);</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D165" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>42055</v>
       </c>
@@ -2580,8 +3044,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150220000);</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D166" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>42054</v>
       </c>
@@ -2593,8 +3060,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150219000);</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D167" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>42053</v>
       </c>
@@ -2606,8 +3076,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150218000);</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D168" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>42052</v>
       </c>
@@ -2619,8 +3092,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150217000);</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D169" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>42051</v>
       </c>
@@ -2632,8 +3108,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150216000);</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D170" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>42050</v>
       </c>
@@ -2645,8 +3124,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150215000);</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D171" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>42049</v>
       </c>
@@ -2658,8 +3140,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150214000);</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D172" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>42048</v>
       </c>
@@ -2671,8 +3156,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150213000);</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D173" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>42047</v>
       </c>
@@ -2684,8 +3172,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150212000);</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D174" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>42046</v>
       </c>
@@ -2697,8 +3188,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150211000);</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D175" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>42045</v>
       </c>
@@ -2710,8 +3204,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150210000);</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D176" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>42044</v>
       </c>
@@ -2723,8 +3220,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150209000);</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D177" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>42043</v>
       </c>
@@ -2736,8 +3236,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150208000);</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D178" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>42042</v>
       </c>
@@ -2749,8 +3252,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150207000);</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D179" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>42041</v>
       </c>
@@ -2762,8 +3268,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150206000);</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D180" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>42040</v>
       </c>
@@ -2775,8 +3284,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150205000);</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D181" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>42039</v>
       </c>
@@ -2788,8 +3300,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150204000);</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D182" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>42038</v>
       </c>
@@ -2801,8 +3316,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150203000);</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D183" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>42037</v>
       </c>
@@ -2814,8 +3332,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150202000);</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D184" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>42036</v>
       </c>
@@ -2827,8 +3348,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150201000);</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D185" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>42035</v>
       </c>
@@ -2840,8 +3364,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150131000);</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D186" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>42034</v>
       </c>
@@ -2853,8 +3380,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150130000);</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D187" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>42033</v>
       </c>
@@ -2866,8 +3396,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150129000);</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D188" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>42032</v>
       </c>
@@ -2879,8 +3412,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150128000);</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D189" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>42031</v>
       </c>
@@ -2892,8 +3428,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150127000);</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D190" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>42030</v>
       </c>
@@ -2905,8 +3444,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150126000);</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D191" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>42029</v>
       </c>
@@ -2918,8 +3460,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150125000);</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D192" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>42028</v>
       </c>
@@ -2931,8 +3476,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150124000);</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D193" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>42027</v>
       </c>
@@ -2944,8 +3492,11 @@
         <f t="shared" si="5"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150123000);</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D194" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>42026</v>
       </c>
@@ -2957,8 +3508,11 @@
         <f t="shared" ref="C195:C258" si="7">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_AGG_PROC(1",B195,"000);")</f>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150122000);</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D195" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>42025</v>
       </c>
@@ -2970,8 +3524,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150121000);</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D196" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>42024</v>
       </c>
@@ -2983,8 +3540,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150120000);</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D197" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>42023</v>
       </c>
@@ -2996,8 +3556,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150119000);</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D198" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>42022</v>
       </c>
@@ -3009,8 +3572,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150118000);</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D199" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>42021</v>
       </c>
@@ -3022,8 +3588,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150117000);</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>42020</v>
       </c>
@@ -3035,8 +3604,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150116000);</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D201" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>42019</v>
       </c>
@@ -3048,8 +3620,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150115000);</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D202" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>42018</v>
       </c>
@@ -3061,8 +3636,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150114000);</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D203" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>42017</v>
       </c>
@@ -3074,8 +3652,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150113000);</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D204" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>42016</v>
       </c>
@@ -3087,8 +3668,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150112000);</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D205" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>42015</v>
       </c>
@@ -3100,8 +3684,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150111000);</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D206" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>42014</v>
       </c>
@@ -3113,8 +3700,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150110000);</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D207" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>42013</v>
       </c>
@@ -3126,8 +3716,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150109000);</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D208" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>42012</v>
       </c>
@@ -3139,8 +3732,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150108000);</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D209" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>42011</v>
       </c>
@@ -3152,8 +3748,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150107000);</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D210" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>42010</v>
       </c>
@@ -3165,8 +3764,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150106000);</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D211" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>42009</v>
       </c>
@@ -3178,8 +3780,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150105000);</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D212" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>42008</v>
       </c>
@@ -3191,8 +3796,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150104000);</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D213" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>42007</v>
       </c>
@@ -3204,8 +3812,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150103000);</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D214" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>42006</v>
       </c>
@@ -3217,8 +3828,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150102000);</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D215" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>42005</v>
       </c>
@@ -3230,8 +3844,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120150101000);</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D216" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>42004</v>
       </c>
@@ -3243,8 +3860,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141231000);</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D217" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>42003</v>
       </c>
@@ -3256,8 +3876,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141230000);</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D218" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>42002</v>
       </c>
@@ -3269,8 +3892,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141229000);</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D219" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>42001</v>
       </c>
@@ -3282,8 +3908,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141228000);</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D220" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>42000</v>
       </c>
@@ -3295,8 +3924,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141227000);</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D221" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>41999</v>
       </c>
@@ -3308,8 +3940,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141226000);</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D222" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>41998</v>
       </c>
@@ -3321,8 +3956,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141225000);</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D223" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>41997</v>
       </c>
@@ -3334,8 +3972,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141224000);</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D224" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>41996</v>
       </c>
@@ -3347,8 +3988,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141223000);</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D225" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>41995</v>
       </c>
@@ -3360,8 +4004,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141222000);</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D226" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>41994</v>
       </c>
@@ -3373,8 +4020,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141221000);</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D227" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>41993</v>
       </c>
@@ -3386,8 +4036,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141220000);</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D228" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>41992</v>
       </c>
@@ -3399,8 +4052,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141219000);</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D229" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>41991</v>
       </c>
@@ -3412,8 +4068,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141218000);</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D230" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>41990</v>
       </c>
@@ -3425,8 +4084,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141217000);</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D231" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>41989</v>
       </c>
@@ -3438,8 +4100,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141216000);</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D232" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>41988</v>
       </c>
@@ -3451,8 +4116,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141215000);</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D233" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>41987</v>
       </c>
@@ -3464,8 +4132,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141214000);</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D234" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>41986</v>
       </c>
@@ -3477,8 +4148,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141213000);</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D235" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>41985</v>
       </c>
@@ -3490,8 +4164,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141212000);</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D236" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>41984</v>
       </c>
@@ -3503,8 +4180,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141211000);</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D237" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>41983</v>
       </c>
@@ -3516,8 +4196,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141210000);</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D238" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>41982</v>
       </c>
@@ -3529,8 +4212,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141209000);</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D239" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>41981</v>
       </c>
@@ -3542,8 +4228,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141208000);</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D240" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>41980</v>
       </c>
@@ -3555,8 +4244,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141207000);</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D241" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>41979</v>
       </c>
@@ -3568,8 +4260,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141206000);</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D242" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>41978</v>
       </c>
@@ -3581,8 +4276,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141205000);</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D243" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>41977</v>
       </c>
@@ -3594,8 +4292,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141204000);</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D244" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>41976</v>
       </c>
@@ -3607,8 +4308,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141203000);</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D245" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>41975</v>
       </c>
@@ -3620,8 +4324,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141202000);</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D246" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>41974</v>
       </c>
@@ -3633,8 +4340,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141201000);</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D247" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>41973</v>
       </c>
@@ -3646,8 +4356,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141130000);</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D248" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>41972</v>
       </c>
@@ -3659,8 +4372,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141129000);</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D249" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>41971</v>
       </c>
@@ -3672,8 +4388,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141128000);</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D250" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>41970</v>
       </c>
@@ -3685,8 +4404,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141127000);</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D251" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
         <v>41969</v>
       </c>
@@ -3698,8 +4420,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141126000);</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D252" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>41968</v>
       </c>
@@ -3711,8 +4436,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141125000);</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D253" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>41967</v>
       </c>
@@ -3724,8 +4452,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141124000);</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D254" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>41966</v>
       </c>
@@ -3737,8 +4468,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141123000);</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D255" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>41965</v>
       </c>
@@ -3750,8 +4484,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141122000);</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D256" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
         <v>41964</v>
       </c>
@@ -3763,8 +4500,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141121000);</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D257" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
         <v>41963</v>
       </c>
@@ -3776,8 +4516,11 @@
         <f t="shared" si="7"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141120000);</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D258" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
         <v>41962</v>
       </c>
@@ -3789,8 +4532,11 @@
         <f t="shared" ref="C259:C322" si="9">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_AGG_PROC(1",B259,"000);")</f>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141119000);</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D259" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>41961</v>
       </c>
@@ -3802,8 +4548,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141118000);</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D260" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>41960</v>
       </c>
@@ -3815,8 +4564,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141117000);</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D261" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
         <v>41959</v>
       </c>
@@ -3828,8 +4580,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141116000);</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D262" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
         <v>41958</v>
       </c>
@@ -3841,8 +4596,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141115000);</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D263" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>41957</v>
       </c>
@@ -3854,8 +4612,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141114000);</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D264" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>41956</v>
       </c>
@@ -3867,8 +4628,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141113000);</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D265" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
         <v>41955</v>
       </c>
@@ -3880,8 +4644,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141112000);</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D266" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
         <v>41954</v>
       </c>
@@ -3893,8 +4660,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141111000);</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D267" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
         <v>41953</v>
       </c>
@@ -3906,8 +4676,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141110000);</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D268" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>41952</v>
       </c>
@@ -3919,8 +4692,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141109000);</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D269" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>41951</v>
       </c>
@@ -3932,8 +4708,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141108000);</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D270" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>41950</v>
       </c>
@@ -3945,8 +4724,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141107000);</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D271" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>41949</v>
       </c>
@@ -3958,8 +4740,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141106000);</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D272" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>41948</v>
       </c>
@@ -3971,8 +4756,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141105000);</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D273" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>41947</v>
       </c>
@@ -3984,8 +4772,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141104000);</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D274" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>41946</v>
       </c>
@@ -3997,8 +4788,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141103000);</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D275" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>41945</v>
       </c>
@@ -4010,8 +4804,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141102000);</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D276" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>41944</v>
       </c>
@@ -4023,8 +4820,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141101000);</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D277" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>41943</v>
       </c>
@@ -4036,8 +4836,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141031000);</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D278" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>41942</v>
       </c>
@@ -4049,8 +4852,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141030000);</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D279" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>41941</v>
       </c>
@@ -4062,8 +4868,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141029000);</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D280" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>41940</v>
       </c>
@@ -4075,8 +4884,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141028000);</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D281" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>41939</v>
       </c>
@@ -4088,8 +4900,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141027000);</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D282" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>41938</v>
       </c>
@@ -4101,8 +4916,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141026000);</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D283" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>41937</v>
       </c>
@@ -4114,8 +4932,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141025000);</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D284" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>41936</v>
       </c>
@@ -4127,8 +4948,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141024000);</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D285" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>41935</v>
       </c>
@@ -4140,8 +4964,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141023000);</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D286" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>41934</v>
       </c>
@@ -4153,8 +4980,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141022000);</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D287" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>41933</v>
       </c>
@@ -4166,8 +4996,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141021000);</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D288" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>41932</v>
       </c>
@@ -4179,8 +5012,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141020000);</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D289" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
         <v>41931</v>
       </c>
@@ -4192,8 +5028,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141019000);</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D290" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
         <v>41930</v>
       </c>
@@ -4205,8 +5044,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141018000);</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D291" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
         <v>41929</v>
       </c>
@@ -4218,8 +5060,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141017000);</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D292" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
         <v>41928</v>
       </c>
@@ -4231,8 +5076,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141016000);</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D293" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
         <v>41927</v>
       </c>
@@ -4244,8 +5092,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141015000);</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D294" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
         <v>41926</v>
       </c>
@@ -4258,7 +5109,7 @@
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141014000);</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
         <v>41925</v>
       </c>
@@ -4271,7 +5122,7 @@
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141013000);</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
         <v>41924</v>
       </c>
@@ -4284,7 +5135,7 @@
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141012000);</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
         <v>41923</v>
       </c>
@@ -4297,7 +5148,7 @@
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141011000);</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
         <v>41922</v>
       </c>
@@ -4310,7 +5161,7 @@
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141010000);</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
         <v>41921</v>
       </c>
@@ -4323,7 +5174,7 @@
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141009000);</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
         <v>41920</v>
       </c>
@@ -4336,7 +5187,7 @@
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141008000);</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
         <v>41919</v>
       </c>
@@ -4349,7 +5200,7 @@
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141007000);</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
         <v>41918</v>
       </c>
@@ -4362,7 +5213,7 @@
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141006000);</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
         <v>41917</v>
       </c>

--- a/Task/2015-06-04siebel上线后会员数据整合/历史会员销售修复记录.xlsx
+++ b/Task/2015-06-04siebel上线后会员数据整合/历史会员销售修复记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="8">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t>DONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -382,8 +394,8 @@
   <dimension ref="A1:D822"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D355" sqref="D355"/>
+      <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D522" sqref="D492:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5108,6 +5120,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141014000);</v>
       </c>
+      <c r="D295" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
@@ -5121,6 +5136,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141013000);</v>
       </c>
+      <c r="D296" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
@@ -5134,6 +5152,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141012000);</v>
       </c>
+      <c r="D297" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
@@ -5147,6 +5168,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141011000);</v>
       </c>
+      <c r="D298" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
@@ -5160,6 +5184,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141010000);</v>
       </c>
+      <c r="D299" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
@@ -5173,6 +5200,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141009000);</v>
       </c>
+      <c r="D300" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
@@ -5186,6 +5216,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141008000);</v>
       </c>
+      <c r="D301" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
@@ -5199,6 +5232,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141007000);</v>
       </c>
+      <c r="D302" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
@@ -5212,6 +5248,9 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141006000);</v>
       </c>
+      <c r="D303" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
@@ -5225,8 +5264,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141005000);</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D304" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" s="1">
         <v>41916</v>
       </c>
@@ -5238,8 +5280,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141004000);</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D305" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" s="1">
         <v>41915</v>
       </c>
@@ -5251,8 +5296,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141003000);</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D306" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
         <v>41914</v>
       </c>
@@ -5264,8 +5312,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141002000);</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D307" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" s="1">
         <v>41913</v>
       </c>
@@ -5277,8 +5328,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120141001000);</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D308" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
         <v>41912</v>
       </c>
@@ -5290,8 +5344,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140930000);</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D309" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310" s="1">
         <v>41911</v>
       </c>
@@ -5303,8 +5360,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140929000);</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D310" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
         <v>41910</v>
       </c>
@@ -5316,8 +5376,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140928000);</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D311" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" s="1">
         <v>41909</v>
       </c>
@@ -5329,8 +5392,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140927000);</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D312" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
         <v>41908</v>
       </c>
@@ -5342,8 +5408,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140926000);</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D313" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314" s="1">
         <v>41907</v>
       </c>
@@ -5355,8 +5424,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140925000);</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D314" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315" s="1">
         <v>41906</v>
       </c>
@@ -5368,8 +5440,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140924000);</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D315" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" s="1">
         <v>41905</v>
       </c>
@@ -5381,8 +5456,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140923000);</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D316" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
         <v>41904</v>
       </c>
@@ -5394,8 +5472,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140922000);</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D317" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" s="1">
         <v>41903</v>
       </c>
@@ -5407,8 +5488,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140921000);</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D318" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" s="1">
         <v>41902</v>
       </c>
@@ -5420,8 +5504,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140920000);</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D319" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
         <v>41901</v>
       </c>
@@ -5433,8 +5520,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140919000);</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D320" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" s="1">
         <v>41900</v>
       </c>
@@ -5446,8 +5536,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140918000);</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D321" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" s="1">
         <v>41899</v>
       </c>
@@ -5459,8 +5552,11 @@
         <f t="shared" si="9"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140917000);</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D322" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
         <v>41898</v>
       </c>
@@ -5472,8 +5568,11 @@
         <f t="shared" ref="C323:C386" si="11">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_AGG_PROC(1",B323,"000);")</f>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140916000);</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D323" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
         <v>41897</v>
       </c>
@@ -5485,8 +5584,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140915000);</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D324" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" s="1">
         <v>41896</v>
       </c>
@@ -5498,8 +5600,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140914000);</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D325" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326" s="1">
         <v>41895</v>
       </c>
@@ -5511,8 +5616,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140913000);</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D326" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
         <v>41894</v>
       </c>
@@ -5524,8 +5632,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140912000);</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D327" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
         <v>41893</v>
       </c>
@@ -5537,8 +5648,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140911000);</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D328" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" s="1">
         <v>41892</v>
       </c>
@@ -5550,8 +5664,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140910000);</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D329" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
         <v>41891</v>
       </c>
@@ -5563,8 +5680,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140909000);</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D330" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" s="1">
         <v>41890</v>
       </c>
@@ -5576,8 +5696,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140908000);</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D331" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
         <v>41889</v>
       </c>
@@ -5589,8 +5712,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140907000);</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D332" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
         <v>41888</v>
       </c>
@@ -5602,8 +5728,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140906000);</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D333" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" s="1">
         <v>41887</v>
       </c>
@@ -5615,8 +5744,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140905000);</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D334" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335" s="1">
         <v>41886</v>
       </c>
@@ -5628,8 +5760,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140904000);</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D335" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" s="1">
         <v>41885</v>
       </c>
@@ -5641,8 +5776,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140903000);</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D336" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
         <v>41884</v>
       </c>
@@ -5654,8 +5792,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140902000);</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D337" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" s="1">
         <v>41883</v>
       </c>
@@ -5667,8 +5808,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140901000);</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D338" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" s="1">
         <v>41882</v>
       </c>
@@ -5680,8 +5824,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140831000);</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D339" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
         <v>41881</v>
       </c>
@@ -5693,8 +5840,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140830000);</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D340" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341" s="1">
         <v>41880</v>
       </c>
@@ -5706,8 +5856,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140829000);</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D341" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
         <v>41879</v>
       </c>
@@ -5719,8 +5872,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140828000);</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D342" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
         <v>41878</v>
       </c>
@@ -5732,8 +5888,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140827000);</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D343" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
         <v>41877</v>
       </c>
@@ -5745,8 +5904,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140826000);</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D344" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
         <v>41876</v>
       </c>
@@ -5758,8 +5920,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140825000);</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D345" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
         <v>41875</v>
       </c>
@@ -5771,8 +5936,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140824000);</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D346" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347" s="1">
         <v>41874</v>
       </c>
@@ -5784,8 +5952,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140823000);</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D347" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
         <v>41873</v>
       </c>
@@ -5797,8 +5968,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140822000);</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D348" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349" s="1">
         <v>41872</v>
       </c>
@@ -5810,8 +5984,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140821000);</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D349" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
         <v>41871</v>
       </c>
@@ -5823,8 +6000,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140820000);</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D350" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351" s="1">
         <v>41870</v>
       </c>
@@ -5836,8 +6016,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140819000);</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D351" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352" s="1">
         <v>41869</v>
       </c>
@@ -5849,8 +6032,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140818000);</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D352" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
         <v>41868</v>
       </c>
@@ -5862,8 +6048,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140817000);</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D353" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
         <v>41867</v>
       </c>
@@ -5875,8 +6064,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140816000);</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D354" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355" s="1">
         <v>41866</v>
       </c>
@@ -5888,8 +6080,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140815000);</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D355" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356" s="1">
         <v>41865</v>
       </c>
@@ -5901,8 +6096,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140814000);</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D356" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357" s="1">
         <v>41864</v>
       </c>
@@ -5914,8 +6112,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140813000);</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D357" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A358" s="1">
         <v>41863</v>
       </c>
@@ -5927,8 +6128,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140812000);</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D358" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359" s="1">
         <v>41862</v>
       </c>
@@ -5940,8 +6144,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140811000);</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D359" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A360" s="1">
         <v>41861</v>
       </c>
@@ -5953,8 +6160,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140810000);</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D360" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361" s="1">
         <v>41860</v>
       </c>
@@ -5966,8 +6176,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140809000);</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D361" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362" s="1">
         <v>41859</v>
       </c>
@@ -5979,8 +6192,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140808000);</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D362" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A363" s="1">
         <v>41858</v>
       </c>
@@ -5992,8 +6208,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140807000);</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D363" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364" s="1">
         <v>41857</v>
       </c>
@@ -6005,8 +6224,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140806000);</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D364" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
         <v>41856</v>
       </c>
@@ -6018,8 +6240,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140805000);</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D365" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366" s="1">
         <v>41855</v>
       </c>
@@ -6031,8 +6256,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140804000);</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D366" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A367" s="1">
         <v>41854</v>
       </c>
@@ -6044,8 +6272,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140803000);</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D367" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A368" s="1">
         <v>41853</v>
       </c>
@@ -6057,8 +6288,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140802000);</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D368" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A369" s="1">
         <v>41852</v>
       </c>
@@ -6070,8 +6304,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140801000);</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D369" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A370" s="1">
         <v>41851</v>
       </c>
@@ -6083,8 +6320,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140731000);</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D370" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A371" s="1">
         <v>41850</v>
       </c>
@@ -6096,8 +6336,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140730000);</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D371" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A372" s="1">
         <v>41849</v>
       </c>
@@ -6109,8 +6352,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140729000);</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D372" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A373" s="1">
         <v>41848</v>
       </c>
@@ -6122,8 +6368,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140728000);</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D373" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A374" s="1">
         <v>41847</v>
       </c>
@@ -6135,8 +6384,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140727000);</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D374" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A375" s="1">
         <v>41846</v>
       </c>
@@ -6148,8 +6400,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140726000);</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D375" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A376" s="1">
         <v>41845</v>
       </c>
@@ -6161,8 +6416,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140725000);</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D376" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A377" s="1">
         <v>41844</v>
       </c>
@@ -6174,8 +6432,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140724000);</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D377" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A378" s="1">
         <v>41843</v>
       </c>
@@ -6187,8 +6448,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140723000);</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D378" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A379" s="1">
         <v>41842</v>
       </c>
@@ -6200,8 +6464,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140722000);</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D379" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A380" s="1">
         <v>41841</v>
       </c>
@@ -6213,8 +6480,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140721000);</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D380" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A381" s="1">
         <v>41840</v>
       </c>
@@ -6226,8 +6496,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140720000);</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D381" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A382" s="1">
         <v>41839</v>
       </c>
@@ -6239,8 +6512,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140719000);</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D382" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A383" s="1">
         <v>41838</v>
       </c>
@@ -6252,8 +6528,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140718000);</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D383" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A384" s="1">
         <v>41837</v>
       </c>
@@ -6265,8 +6544,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140717000);</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D384" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A385" s="1">
         <v>41836</v>
       </c>
@@ -6278,8 +6560,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140716000);</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D385" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A386" s="1">
         <v>41835</v>
       </c>
@@ -6291,8 +6576,11 @@
         <f t="shared" si="11"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140715000);</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D386" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A387" s="1">
         <v>41834</v>
       </c>
@@ -6304,8 +6592,11 @@
         <f t="shared" ref="C387:C450" si="13">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_AGG_PROC(1",B387,"000);")</f>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140714000);</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D387" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A388" s="1">
         <v>41833</v>
       </c>
@@ -6317,8 +6608,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140713000);</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D388" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A389" s="1">
         <v>41832</v>
       </c>
@@ -6330,8 +6624,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140712000);</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D389" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A390" s="1">
         <v>41831</v>
       </c>
@@ -6343,8 +6640,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140711000);</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D390" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A391" s="1">
         <v>41830</v>
       </c>
@@ -6356,8 +6656,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140710000);</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D391" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A392" s="1">
         <v>41829</v>
       </c>
@@ -6369,8 +6672,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140709000);</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D392" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A393" s="1">
         <v>41828</v>
       </c>
@@ -6382,8 +6688,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140708000);</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D393" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A394" s="1">
         <v>41827</v>
       </c>
@@ -6395,8 +6704,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140707000);</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D394" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A395" s="1">
         <v>41826</v>
       </c>
@@ -6408,8 +6720,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140706000);</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D395" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A396" s="1">
         <v>41825</v>
       </c>
@@ -6421,8 +6736,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140705000);</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D396" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A397" s="1">
         <v>41824</v>
       </c>
@@ -6434,8 +6752,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140704000);</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D397" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A398" s="1">
         <v>41823</v>
       </c>
@@ -6447,8 +6768,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140703000);</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D398" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A399" s="1">
         <v>41822</v>
       </c>
@@ -6460,8 +6784,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140702000);</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D399" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A400" s="1">
         <v>41821</v>
       </c>
@@ -6473,8 +6800,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140701000);</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D400" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A401" s="1">
         <v>41820</v>
       </c>
@@ -6486,8 +6816,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140630000);</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D401" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A402" s="1">
         <v>41819</v>
       </c>
@@ -6499,8 +6832,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140629000);</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D402" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A403" s="1">
         <v>41818</v>
       </c>
@@ -6512,8 +6848,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140628000);</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D403" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A404" s="1">
         <v>41817</v>
       </c>
@@ -6525,8 +6864,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140627000);</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D404" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A405" s="1">
         <v>41816</v>
       </c>
@@ -6538,8 +6880,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140626000);</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D405" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A406" s="1">
         <v>41815</v>
       </c>
@@ -6551,8 +6896,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140625000);</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D406" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A407" s="1">
         <v>41814</v>
       </c>
@@ -6564,8 +6912,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140624000);</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D407" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A408" s="1">
         <v>41813</v>
       </c>
@@ -6577,8 +6928,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140623000);</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D408" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A409" s="1">
         <v>41812</v>
       </c>
@@ -6590,8 +6944,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140622000);</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D409" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A410" s="1">
         <v>41811</v>
       </c>
@@ -6603,8 +6960,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140621000);</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D410" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A411" s="1">
         <v>41810</v>
       </c>
@@ -6616,8 +6976,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140620000);</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D411" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A412" s="1">
         <v>41809</v>
       </c>
@@ -6629,8 +6992,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140619000);</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D412" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A413" s="1">
         <v>41808</v>
       </c>
@@ -6642,8 +7008,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140618000);</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D413" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A414" s="1">
         <v>41807</v>
       </c>
@@ -6655,8 +7024,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140617000);</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D414" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A415" s="1">
         <v>41806</v>
       </c>
@@ -6668,8 +7040,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140616000);</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D415" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A416" s="1">
         <v>41805</v>
       </c>
@@ -6681,8 +7056,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140615000);</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D416" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A417" s="1">
         <v>41804</v>
       </c>
@@ -6694,8 +7072,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140614000);</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D417" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A418" s="1">
         <v>41803</v>
       </c>
@@ -6707,8 +7088,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140613000);</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D418" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A419" s="1">
         <v>41802</v>
       </c>
@@ -6720,8 +7104,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140612000);</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D419" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A420" s="1">
         <v>41801</v>
       </c>
@@ -6733,8 +7120,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140611000);</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D420" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A421" s="1">
         <v>41800</v>
       </c>
@@ -6746,8 +7136,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140610000);</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D421" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A422" s="1">
         <v>41799</v>
       </c>
@@ -6759,8 +7152,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140609000);</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D422" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A423" s="1">
         <v>41798</v>
       </c>
@@ -6772,8 +7168,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140608000);</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D423" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A424" s="1">
         <v>41797</v>
       </c>
@@ -6785,8 +7184,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140607000);</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D424" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A425" s="1">
         <v>41796</v>
       </c>
@@ -6798,8 +7200,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140606000);</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D425" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A426" s="1">
         <v>41795</v>
       </c>
@@ -6811,8 +7216,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140605000);</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D426" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A427" s="1">
         <v>41794</v>
       </c>
@@ -6824,8 +7232,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140604000);</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D427" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A428" s="1">
         <v>41793</v>
       </c>
@@ -6837,8 +7248,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140603000);</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D428" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A429" s="1">
         <v>41792</v>
       </c>
@@ -6850,8 +7264,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140602000);</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D429" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A430" s="1">
         <v>41791</v>
       </c>
@@ -6863,8 +7280,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140601000);</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D430" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A431" s="1">
         <v>41790</v>
       </c>
@@ -6876,8 +7296,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140531000);</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D431" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A432" s="1">
         <v>41789</v>
       </c>
@@ -6889,8 +7312,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140530000);</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D432" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A433" s="1">
         <v>41788</v>
       </c>
@@ -6902,8 +7328,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140529000);</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D433" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A434" s="1">
         <v>41787</v>
       </c>
@@ -6915,8 +7344,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140528000);</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D434" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A435" s="1">
         <v>41786</v>
       </c>
@@ -6928,8 +7360,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140527000);</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D435" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A436" s="1">
         <v>41785</v>
       </c>
@@ -6941,8 +7376,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140526000);</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D436" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A437" s="1">
         <v>41784</v>
       </c>
@@ -6954,8 +7392,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140525000);</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D437" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A438" s="1">
         <v>41783</v>
       </c>
@@ -6967,8 +7408,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140524000);</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D438" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A439" s="1">
         <v>41782</v>
       </c>
@@ -6980,8 +7424,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140523000);</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D439" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A440" s="1">
         <v>41781</v>
       </c>
@@ -6993,8 +7440,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140522000);</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D440" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A441" s="1">
         <v>41780</v>
       </c>
@@ -7006,8 +7456,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140521000);</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D441" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A442" s="1">
         <v>41779</v>
       </c>
@@ -7019,8 +7472,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140520000);</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D442" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A443" s="1">
         <v>41778</v>
       </c>
@@ -7032,8 +7488,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140519000);</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D443" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A444" s="1">
         <v>41777</v>
       </c>
@@ -7045,8 +7504,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140518000);</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D444" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A445" s="1">
         <v>41776</v>
       </c>
@@ -7058,8 +7520,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140517000);</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D445" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A446" s="1">
         <v>41775</v>
       </c>
@@ -7071,8 +7536,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140516000);</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D446" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A447" s="1">
         <v>41774</v>
       </c>
@@ -7084,8 +7552,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140515000);</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D447" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A448" s="1">
         <v>41773</v>
       </c>
@@ -7097,8 +7568,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140514000);</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D448" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A449" s="1">
         <v>41772</v>
       </c>
@@ -7110,8 +7584,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140513000);</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D449" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A450" s="1">
         <v>41771</v>
       </c>
@@ -7123,8 +7600,11 @@
         <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140512000);</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D450" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A451" s="1">
         <v>41770</v>
       </c>
@@ -7136,8 +7616,11 @@
         <f t="shared" ref="C451:C514" si="15">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_AGG_PROC(1",B451,"000);")</f>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140511000);</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D451" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A452" s="1">
         <v>41769</v>
       </c>
@@ -7149,8 +7632,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140510000);</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D452" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A453" s="1">
         <v>41768</v>
       </c>
@@ -7162,8 +7648,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140509000);</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D453" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A454" s="1">
         <v>41767</v>
       </c>
@@ -7175,8 +7664,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140508000);</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D454" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A455" s="1">
         <v>41766</v>
       </c>
@@ -7188,8 +7680,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140507000);</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D455" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A456" s="1">
         <v>41765</v>
       </c>
@@ -7201,8 +7696,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140506000);</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D456" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A457" s="1">
         <v>41764</v>
       </c>
@@ -7214,8 +7712,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140505000);</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D457" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A458" s="1">
         <v>41763</v>
       </c>
@@ -7227,8 +7728,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140504000);</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D458" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A459" s="1">
         <v>41762</v>
       </c>
@@ -7240,8 +7744,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140503000);</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D459" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A460" s="1">
         <v>41761</v>
       </c>
@@ -7253,8 +7760,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140502000);</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D460" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A461" s="1">
         <v>41760</v>
       </c>
@@ -7266,8 +7776,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140501000);</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D461" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A462" s="1">
         <v>41759</v>
       </c>
@@ -7279,8 +7792,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140430000);</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D462" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A463" s="1">
         <v>41758</v>
       </c>
@@ -7292,8 +7808,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140429000);</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D463" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A464" s="1">
         <v>41757</v>
       </c>
@@ -7305,8 +7824,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140428000);</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D464" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A465" s="1">
         <v>41756</v>
       </c>
@@ -7318,8 +7840,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140427000);</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D465" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A466" s="1">
         <v>41755</v>
       </c>
@@ -7331,8 +7856,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140426000);</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D466" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A467" s="1">
         <v>41754</v>
       </c>
@@ -7344,8 +7872,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140425000);</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D467" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A468" s="1">
         <v>41753</v>
       </c>
@@ -7357,8 +7888,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140424000);</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D468" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A469" s="1">
         <v>41752</v>
       </c>
@@ -7370,8 +7904,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140423000);</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D469" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A470" s="1">
         <v>41751</v>
       </c>
@@ -7383,8 +7920,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140422000);</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D470" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A471" s="1">
         <v>41750</v>
       </c>
@@ -7396,8 +7936,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140421000);</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D471" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A472" s="1">
         <v>41749</v>
       </c>
@@ -7409,8 +7952,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140420000);</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D472" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A473" s="1">
         <v>41748</v>
       </c>
@@ -7422,8 +7968,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140419000);</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D473" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A474" s="1">
         <v>41747</v>
       </c>
@@ -7435,8 +7984,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140418000);</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D474" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A475" s="1">
         <v>41746</v>
       </c>
@@ -7448,8 +8000,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140417000);</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D475" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A476" s="1">
         <v>41745</v>
       </c>
@@ -7461,8 +8016,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140416000);</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D476" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A477" s="1">
         <v>41744</v>
       </c>
@@ -7474,8 +8032,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140415000);</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D477" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A478" s="1">
         <v>41743</v>
       </c>
@@ -7487,8 +8048,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140414000);</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D478" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A479" s="1">
         <v>41742</v>
       </c>
@@ -7500,8 +8064,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140413000);</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D479" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A480" s="1">
         <v>41741</v>
       </c>
@@ -7513,8 +8080,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140412000);</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D480" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A481" s="1">
         <v>41740</v>
       </c>
@@ -7526,8 +8096,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140411000);</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D481" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A482" s="1">
         <v>41739</v>
       </c>
@@ -7539,8 +8112,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140410000);</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D482" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A483" s="1">
         <v>41738</v>
       </c>
@@ -7552,8 +8128,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140409000);</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D483" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A484" s="1">
         <v>41737</v>
       </c>
@@ -7565,8 +8144,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140408000);</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D484" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A485" s="1">
         <v>41736</v>
       </c>
@@ -7578,8 +8160,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140407000);</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D485" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A486" s="1">
         <v>41735</v>
       </c>
@@ -7591,8 +8176,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140406000);</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D486" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A487" s="1">
         <v>41734</v>
       </c>
@@ -7604,8 +8192,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140405000);</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D487" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A488" s="1">
         <v>41733</v>
       </c>
@@ -7617,8 +8208,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140404000);</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D488" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A489" s="1">
         <v>41732</v>
       </c>
@@ -7630,8 +8224,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140403000);</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D489" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A490" s="1">
         <v>41731</v>
       </c>
@@ -7643,8 +8240,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140402000);</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D490" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A491" s="1">
         <v>41730</v>
       </c>
@@ -7656,8 +8256,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140401000);</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D491" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A492" s="1">
         <v>41729</v>
       </c>
@@ -7669,8 +8272,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140331000);</v>
       </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D492" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A493" s="1">
         <v>41728</v>
       </c>
@@ -7682,8 +8288,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140330000);</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D493" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A494" s="1">
         <v>41727</v>
       </c>
@@ -7695,8 +8304,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140329000);</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D494" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A495" s="1">
         <v>41726</v>
       </c>
@@ -7708,8 +8320,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140328000);</v>
       </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D495" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A496" s="1">
         <v>41725</v>
       </c>
@@ -7721,8 +8336,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140327000);</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D496" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A497" s="1">
         <v>41724</v>
       </c>
@@ -7734,8 +8352,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140326000);</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D497" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A498" s="1">
         <v>41723</v>
       </c>
@@ -7747,8 +8368,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140325000);</v>
       </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D498" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A499" s="1">
         <v>41722</v>
       </c>
@@ -7760,8 +8384,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140324000);</v>
       </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D499" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A500" s="1">
         <v>41721</v>
       </c>
@@ -7773,8 +8400,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140323000);</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D500" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A501" s="1">
         <v>41720</v>
       </c>
@@ -7786,8 +8416,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140322000);</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D501" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A502" s="1">
         <v>41719</v>
       </c>
@@ -7799,8 +8432,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140321000);</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D502" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A503" s="1">
         <v>41718</v>
       </c>
@@ -7812,8 +8448,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140320000);</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D503" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A504" s="1">
         <v>41717</v>
       </c>
@@ -7825,8 +8464,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140319000);</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D504" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A505" s="1">
         <v>41716</v>
       </c>
@@ -7838,8 +8480,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140318000);</v>
       </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D505" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A506" s="1">
         <v>41715</v>
       </c>
@@ -7851,8 +8496,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140317000);</v>
       </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D506" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A507" s="1">
         <v>41714</v>
       </c>
@@ -7864,8 +8512,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140316000);</v>
       </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D507" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A508" s="1">
         <v>41713</v>
       </c>
@@ -7877,8 +8528,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140315000);</v>
       </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D508" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A509" s="1">
         <v>41712</v>
       </c>
@@ -7890,8 +8544,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140314000);</v>
       </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D509" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A510" s="1">
         <v>41711</v>
       </c>
@@ -7903,8 +8560,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140313000);</v>
       </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D510" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A511" s="1">
         <v>41710</v>
       </c>
@@ -7916,8 +8576,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140312000);</v>
       </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D511" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A512" s="1">
         <v>41709</v>
       </c>
@@ -7929,8 +8592,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140311000);</v>
       </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D512" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A513" s="1">
         <v>41708</v>
       </c>
@@ -7942,8 +8608,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140310000);</v>
       </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D513" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A514" s="1">
         <v>41707</v>
       </c>
@@ -7955,8 +8624,11 @@
         <f t="shared" si="15"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140309000);</v>
       </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D514" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A515" s="1">
         <v>41706</v>
       </c>
@@ -7968,8 +8640,11 @@
         <f t="shared" ref="C515:C578" si="17">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_AGG_PROC(1",B515,"000);")</f>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140308000);</v>
       </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D515" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A516" s="1">
         <v>41705</v>
       </c>
@@ -7981,8 +8656,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140307000);</v>
       </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D516" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A517" s="1">
         <v>41704</v>
       </c>
@@ -7994,8 +8672,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140306000);</v>
       </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D517" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A518" s="1">
         <v>41703</v>
       </c>
@@ -8007,8 +8688,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140305000);</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D518" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A519" s="1">
         <v>41702</v>
       </c>
@@ -8020,8 +8704,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140304000);</v>
       </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D519" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A520" s="1">
         <v>41701</v>
       </c>
@@ -8033,8 +8720,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140303000);</v>
       </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D520" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A521" s="1">
         <v>41700</v>
       </c>
@@ -8046,8 +8736,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140302000);</v>
       </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D521" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A522" s="1">
         <v>41699</v>
       </c>
@@ -8059,8 +8752,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140301000);</v>
       </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D522" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A523" s="1">
         <v>41698</v>
       </c>
@@ -8073,7 +8769,7 @@
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140228000);</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A524" s="1">
         <v>41697</v>
       </c>
@@ -8086,7 +8782,7 @@
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140227000);</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A525" s="1">
         <v>41696</v>
       </c>
@@ -8099,7 +8795,7 @@
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140226000);</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A526" s="1">
         <v>41695</v>
       </c>
@@ -8112,7 +8808,7 @@
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140225000);</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A527" s="1">
         <v>41694</v>
       </c>
@@ -8125,7 +8821,7 @@
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140224000);</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A528" s="1">
         <v>41693</v>
       </c>

--- a/Task/2015-06-04siebel上线后会员数据整合/历史会员销售修复记录.xlsx
+++ b/Task/2015-06-04siebel上线后会员数据整合/历史会员销售修复记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="8">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,8 +394,8 @@
   <dimension ref="A1:D822"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D522" sqref="D492:D522"/>
+      <pane ySplit="1" topLeftCell="A560" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D522" sqref="D522:D581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8768,6 +8768,9 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140228000);</v>
       </c>
+      <c r="D523" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A524" s="1">
@@ -8781,6 +8784,9 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140227000);</v>
       </c>
+      <c r="D524" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A525" s="1">
@@ -8794,6 +8800,9 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140226000);</v>
       </c>
+      <c r="D525" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A526" s="1">
@@ -8807,6 +8816,9 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140225000);</v>
       </c>
+      <c r="D526" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A527" s="1">
@@ -8820,6 +8832,9 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140224000);</v>
       </c>
+      <c r="D527" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A528" s="1">
@@ -8833,8 +8848,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140223000);</v>
       </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D528" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A529" s="1">
         <v>41692</v>
       </c>
@@ -8846,8 +8864,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140222000);</v>
       </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D529" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A530" s="1">
         <v>41691</v>
       </c>
@@ -8859,8 +8880,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140221000);</v>
       </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D530" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A531" s="1">
         <v>41690</v>
       </c>
@@ -8872,8 +8896,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140220000);</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D531" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A532" s="1">
         <v>41689</v>
       </c>
@@ -8885,8 +8912,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140219000);</v>
       </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D532" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A533" s="1">
         <v>41688</v>
       </c>
@@ -8898,8 +8928,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140218000);</v>
       </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D533" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A534" s="1">
         <v>41687</v>
       </c>
@@ -8911,8 +8944,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140217000);</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D534" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A535" s="1">
         <v>41686</v>
       </c>
@@ -8924,8 +8960,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140216000);</v>
       </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D535" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A536" s="1">
         <v>41685</v>
       </c>
@@ -8937,8 +8976,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140215000);</v>
       </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D536" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A537" s="1">
         <v>41684</v>
       </c>
@@ -8950,8 +8992,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140214000);</v>
       </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D537" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A538" s="1">
         <v>41683</v>
       </c>
@@ -8963,8 +9008,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140213000);</v>
       </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D538" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A539" s="1">
         <v>41682</v>
       </c>
@@ -8976,8 +9024,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140212000);</v>
       </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D539" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A540" s="1">
         <v>41681</v>
       </c>
@@ -8989,8 +9040,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140211000);</v>
       </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D540" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A541" s="1">
         <v>41680</v>
       </c>
@@ -9002,8 +9056,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140210000);</v>
       </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D541" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A542" s="1">
         <v>41679</v>
       </c>
@@ -9015,8 +9072,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140209000);</v>
       </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D542" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A543" s="1">
         <v>41678</v>
       </c>
@@ -9028,8 +9088,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140208000);</v>
       </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D543" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A544" s="1">
         <v>41677</v>
       </c>
@@ -9041,8 +9104,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140207000);</v>
       </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D544" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A545" s="1">
         <v>41676</v>
       </c>
@@ -9054,8 +9120,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140206000);</v>
       </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D545" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A546" s="1">
         <v>41675</v>
       </c>
@@ -9067,8 +9136,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140205000);</v>
       </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D546" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A547" s="1">
         <v>41674</v>
       </c>
@@ -9080,8 +9152,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140204000);</v>
       </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D547" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A548" s="1">
         <v>41673</v>
       </c>
@@ -9093,8 +9168,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140203000);</v>
       </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D548" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A549" s="1">
         <v>41672</v>
       </c>
@@ -9106,8 +9184,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140202000);</v>
       </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D549" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A550" s="1">
         <v>41671</v>
       </c>
@@ -9119,8 +9200,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140201000);</v>
       </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D550" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A551" s="1">
         <v>41670</v>
       </c>
@@ -9132,8 +9216,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140131000);</v>
       </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D551" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A552" s="1">
         <v>41669</v>
       </c>
@@ -9145,8 +9232,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140130000);</v>
       </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D552" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A553" s="1">
         <v>41668</v>
       </c>
@@ -9158,8 +9248,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140129000);</v>
       </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D553" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A554" s="1">
         <v>41667</v>
       </c>
@@ -9171,8 +9264,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140128000);</v>
       </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D554" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A555" s="1">
         <v>41666</v>
       </c>
@@ -9184,8 +9280,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140127000);</v>
       </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D555" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A556" s="1">
         <v>41665</v>
       </c>
@@ -9197,8 +9296,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140126000);</v>
       </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D556" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A557" s="1">
         <v>41664</v>
       </c>
@@ -9210,8 +9312,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140125000);</v>
       </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D557" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A558" s="1">
         <v>41663</v>
       </c>
@@ -9223,8 +9328,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140124000);</v>
       </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D558" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A559" s="1">
         <v>41662</v>
       </c>
@@ -9236,8 +9344,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140123000);</v>
       </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D559" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A560" s="1">
         <v>41661</v>
       </c>
@@ -9249,8 +9360,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140122000);</v>
       </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D560" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A561" s="1">
         <v>41660</v>
       </c>
@@ -9262,8 +9376,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140121000);</v>
       </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D561" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A562" s="1">
         <v>41659</v>
       </c>
@@ -9275,8 +9392,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140120000);</v>
       </c>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D562" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A563" s="1">
         <v>41658</v>
       </c>
@@ -9288,8 +9408,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140119000);</v>
       </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D563" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A564" s="1">
         <v>41657</v>
       </c>
@@ -9301,8 +9424,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140118000);</v>
       </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D564" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A565" s="1">
         <v>41656</v>
       </c>
@@ -9314,8 +9440,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140117000);</v>
       </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D565" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A566" s="1">
         <v>41655</v>
       </c>
@@ -9327,8 +9456,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140116000);</v>
       </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D566" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A567" s="1">
         <v>41654</v>
       </c>
@@ -9340,8 +9472,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140115000);</v>
       </c>
-    </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D567" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A568" s="1">
         <v>41653</v>
       </c>
@@ -9353,8 +9488,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140114000);</v>
       </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D568" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A569" s="1">
         <v>41652</v>
       </c>
@@ -9366,8 +9504,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140113000);</v>
       </c>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D569" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A570" s="1">
         <v>41651</v>
       </c>
@@ -9379,8 +9520,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140112000);</v>
       </c>
-    </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D570" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A571" s="1">
         <v>41650</v>
       </c>
@@ -9392,8 +9536,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140111000);</v>
       </c>
-    </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D571" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A572" s="1">
         <v>41649</v>
       </c>
@@ -9405,8 +9552,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140110000);</v>
       </c>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D572" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A573" s="1">
         <v>41648</v>
       </c>
@@ -9418,8 +9568,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140109000);</v>
       </c>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D573" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A574" s="1">
         <v>41647</v>
       </c>
@@ -9431,8 +9584,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140108000);</v>
       </c>
-    </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D574" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A575" s="1">
         <v>41646</v>
       </c>
@@ -9444,8 +9600,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140107000);</v>
       </c>
-    </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D575" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A576" s="1">
         <v>41645</v>
       </c>
@@ -9457,8 +9616,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140106000);</v>
       </c>
-    </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D576" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A577" s="1">
         <v>41644</v>
       </c>
@@ -9470,8 +9632,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140105000);</v>
       </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D577" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A578" s="1">
         <v>41643</v>
       </c>
@@ -9483,8 +9648,11 @@
         <f t="shared" si="17"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140104000);</v>
       </c>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D578" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A579" s="1">
         <v>41642</v>
       </c>
@@ -9496,8 +9664,11 @@
         <f t="shared" ref="C579:C581" si="19">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_AGG_PROC(1",B579,"000);")</f>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140103000);</v>
       </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D579" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A580" s="1">
         <v>41641</v>
       </c>
@@ -9509,8 +9680,11 @@
         <f t="shared" si="19"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140102000);</v>
       </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D580" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A581" s="1">
         <v>41640</v>
       </c>
@@ -9522,38 +9696,41 @@
         <f t="shared" si="19"/>
         <v>CALL JIN_UPDATE_VIP_SLS_AGG_PROC(120140101000);</v>
       </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D581" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A582" s="1"/>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A583" s="1"/>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A584" s="1"/>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A585" s="1"/>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A586" s="1"/>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A587" s="1"/>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A588" s="1"/>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A589" s="1"/>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A590" s="1"/>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A591" s="1"/>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A592" s="1"/>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.15">

--- a/Task/2015-06-04siebel上线后会员数据整合/历史会员销售修复记录.xlsx
+++ b/Task/2015-06-04siebel上线后会员数据整合/历史会员销售修复记录.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="会员销售" sheetId="1" r:id="rId1"/>
+    <sheet name="会员来客数" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$581</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">会员销售!$A$1:$D$581</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="9">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +43,10 @@
   </si>
   <si>
     <t>DONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -393,9 +398,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D822"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A560" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D522" sqref="D522:D581"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10429,4 +10434,5062 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D366"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B2" t="str">
+        <f>TEXT(A2,"yyyymmdd")</f>
+        <v>20141231</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B2,"000);")</f>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141231000);</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>42003</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" si="0">TEXT(A3,"yyyymmdd")</f>
+        <v>20141230</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="1">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B3,"000);")</f>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141230000);</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>42002</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>20141229</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141229000);</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>42001</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>20141228</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141228000);</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>42000</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>20141227</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141227000);</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>41999</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>20141226</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141226000);</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>41998</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>20141225</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141225000);</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>41997</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>20141224</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141224000);</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>41996</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>20141223</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141223000);</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>41995</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>20141222</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141222000);</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>41994</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>20141221</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141221000);</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>41993</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>20141220</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141220000);</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>41992</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>20141219</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141219000);</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>41991</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>20141218</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141218000);</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>41990</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>20141217</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141217000);</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>41989</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>20141216</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141216000);</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>41988</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>20141215</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141215000);</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>41987</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>20141214</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141214000);</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>41986</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>20141213</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141213000);</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>41985</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>20141212</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141212000);</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>41984</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>20141211</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141211000);</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>41983</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>20141210</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141210000);</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>20141209</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141209000);</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>41981</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>20141208</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141208000);</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>41980</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>20141207</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141207000);</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>41979</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>20141206</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141206000);</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>41978</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>20141205</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141205000);</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>41977</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>20141204</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141204000);</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>41976</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>20141203</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141203000);</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>41975</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>20141202</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141202000);</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>41974</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>20141201</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141201000);</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>41973</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>20141130</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141130000);</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>41972</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>20141129</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141129000);</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>41971</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>20141128</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141128000);</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>41970</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>20141127</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141127000);</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>41969</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>20141126</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141126000);</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>41968</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>20141125</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141125000);</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>41967</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>20141124</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141124000);</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>41966</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>20141123</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141123000);</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>41965</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>20141122</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141122000);</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>41964</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>20141121</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141121000);</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>41963</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>20141120</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141120000);</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>41962</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>20141119</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141119000);</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>41961</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>20141118</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141118000);</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>41960</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>20141117</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141117000);</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>41959</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>20141116</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141116000);</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>41958</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>20141115</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141115000);</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>41957</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>20141114</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141114000);</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>41956</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>20141113</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141113000);</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>41955</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>20141112</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141112000);</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>41954</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>20141111</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141111000);</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>41953</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>20141110</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141110000);</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>41952</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>20141109</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141109000);</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>41951</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>20141108</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141108000);</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>41950</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>20141107</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141107000);</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>41949</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>20141106</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141106000);</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>41948</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>20141105</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141105000);</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>41947</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>20141104</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141104000);</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>41946</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>20141103</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141103000);</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>41945</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>20141102</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141102000);</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>41944</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>20141101</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141101000);</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>41943</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>20141031</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141031000);</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>41942</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>20141030</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141030000);</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>41941</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>20141029</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141029000);</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>41940</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>20141028</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141028000);</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>41939</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B130" si="2">TEXT(A67,"yyyymmdd")</f>
+        <v>20141027</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C130" si="3">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B67,"000);")</f>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141027000);</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>41938</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="2"/>
+        <v>20141026</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141026000);</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>41937</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="2"/>
+        <v>20141025</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141025000);</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>41936</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="2"/>
+        <v>20141024</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141024000);</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>41935</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="2"/>
+        <v>20141023</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141023000);</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>41934</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="2"/>
+        <v>20141022</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141022000);</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>41933</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="2"/>
+        <v>20141021</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141021000);</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>41932</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="2"/>
+        <v>20141020</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141020000);</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>41931</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="2"/>
+        <v>20141019</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141019000);</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>41930</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="2"/>
+        <v>20141018</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141018000);</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>41929</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="2"/>
+        <v>20141017</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141017000);</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>41928</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="2"/>
+        <v>20141016</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141016000);</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>41927</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="2"/>
+        <v>20141015</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141015000);</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>41926</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="2"/>
+        <v>20141014</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141014000);</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>41925</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="2"/>
+        <v>20141013</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141013000);</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>41924</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="2"/>
+        <v>20141012</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141012000);</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>41923</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="2"/>
+        <v>20141011</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141011000);</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>41922</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="2"/>
+        <v>20141010</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141010000);</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>41921</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="2"/>
+        <v>20141009</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141009000);</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>41920</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="2"/>
+        <v>20141008</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141008000);</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>41919</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="2"/>
+        <v>20141007</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141007000);</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>41918</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="2"/>
+        <v>20141006</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141006000);</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>41917</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="2"/>
+        <v>20141005</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141005000);</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>41916</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="2"/>
+        <v>20141004</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141004000);</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>41915</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="2"/>
+        <v>20141003</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141003000);</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>41914</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="2"/>
+        <v>20141002</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141002000);</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <v>41913</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="2"/>
+        <v>20141001</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141001000);</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="2"/>
+        <v>20140930</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140930000);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
+        <v>41911</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="2"/>
+        <v>20140929</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140929000);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="2"/>
+        <v>20140928</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140928000);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <v>41909</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="2"/>
+        <v>20140927</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140927000);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>41908</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="2"/>
+        <v>20140926</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140926000);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>41907</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="2"/>
+        <v>20140925</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140925000);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>41906</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="2"/>
+        <v>20140924</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140924000);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>41905</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="2"/>
+        <v>20140923</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140923000);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" s="1">
+        <v>41904</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="2"/>
+        <v>20140922</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140922000);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" s="1">
+        <v>41903</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="2"/>
+        <v>20140921</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140921000);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>41902</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="2"/>
+        <v>20140920</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140920000);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>41901</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="2"/>
+        <v>20140919</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140919000);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" s="1">
+        <v>41900</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="2"/>
+        <v>20140918</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140918000);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" s="1">
+        <v>41899</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="2"/>
+        <v>20140917</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140917000);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" s="1">
+        <v>41898</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="2"/>
+        <v>20140916</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140916000);</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <v>41897</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="2"/>
+        <v>20140915</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140915000);</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
+        <v>41896</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="2"/>
+        <v>20140914</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140914000);</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <v>41895</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="2"/>
+        <v>20140913</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140913000);</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <v>41894</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="2"/>
+        <v>20140912</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140912000);</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113" s="1">
+        <v>41893</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="2"/>
+        <v>20140911</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140911000);</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" s="1">
+        <v>41892</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="2"/>
+        <v>20140910</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140910000);</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115" s="1">
+        <v>41891</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="2"/>
+        <v>20140909</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140909000);</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116" s="1">
+        <v>41890</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="2"/>
+        <v>20140908</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140908000);</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
+        <v>41889</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="2"/>
+        <v>20140907</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140907000);</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
+        <v>41888</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="2"/>
+        <v>20140906</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140906000);</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" s="1">
+        <v>41887</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="2"/>
+        <v>20140905</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140905000);</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120" s="1">
+        <v>41886</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="2"/>
+        <v>20140904</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140904000);</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121" s="1">
+        <v>41885</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="2"/>
+        <v>20140903</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140903000);</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" s="1">
+        <v>41884</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="2"/>
+        <v>20140902</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140902000);</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123" s="1">
+        <v>41883</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="2"/>
+        <v>20140901</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140901000);</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124" s="1">
+        <v>41882</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="2"/>
+        <v>20140831</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140831000);</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125" s="1">
+        <v>41881</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="2"/>
+        <v>20140830</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140830000);</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126" s="1">
+        <v>41880</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="2"/>
+        <v>20140829</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140829000);</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127" s="1">
+        <v>41879</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="2"/>
+        <v>20140828</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140828000);</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128" s="1">
+        <v>41878</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="2"/>
+        <v>20140827</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140827000);</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129" s="1">
+        <v>41877</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="2"/>
+        <v>20140826</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140826000);</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130" s="1">
+        <v>41876</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="2"/>
+        <v>20140825</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140825000);</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131" s="1">
+        <v>41875</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" ref="B131:B194" si="4">TEXT(A131,"yyyymmdd")</f>
+        <v>20140824</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" ref="C131:C194" si="5">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B131,"000);")</f>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140824000);</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132" s="1">
+        <v>41874</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="4"/>
+        <v>20140823</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140823000);</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133" s="1">
+        <v>41873</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="4"/>
+        <v>20140822</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140822000);</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134" s="1">
+        <v>41872</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="4"/>
+        <v>20140821</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140821000);</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" s="1">
+        <v>41871</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="4"/>
+        <v>20140820</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140820000);</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136" s="1">
+        <v>41870</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="4"/>
+        <v>20140819</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140819000);</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137" s="1">
+        <v>41869</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="4"/>
+        <v>20140818</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140818000);</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138" s="1">
+        <v>41868</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="4"/>
+        <v>20140817</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140817000);</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139" s="1">
+        <v>41867</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="4"/>
+        <v>20140816</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140816000);</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140" s="1">
+        <v>41866</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="4"/>
+        <v>20140815</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140815000);</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" s="1">
+        <v>41865</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="4"/>
+        <v>20140814</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140814000);</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" s="1">
+        <v>41864</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="4"/>
+        <v>20140813</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140813000);</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" s="1">
+        <v>41863</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="4"/>
+        <v>20140812</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140812000);</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" s="1">
+        <v>41862</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="4"/>
+        <v>20140811</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140811000);</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145" s="1">
+        <v>41861</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="4"/>
+        <v>20140810</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140810000);</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" s="1">
+        <v>41860</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="4"/>
+        <v>20140809</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140809000);</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147" s="1">
+        <v>41859</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="4"/>
+        <v>20140808</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140808000);</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" s="1">
+        <v>41858</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="4"/>
+        <v>20140807</v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140807000);</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149" s="1">
+        <v>41857</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="4"/>
+        <v>20140806</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140806000);</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A150" s="1">
+        <v>41856</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="4"/>
+        <v>20140805</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140805000);</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A151" s="1">
+        <v>41855</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="4"/>
+        <v>20140804</v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140804000);</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A152" s="1">
+        <v>41854</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="4"/>
+        <v>20140803</v>
+      </c>
+      <c r="C152" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140803000);</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A153" s="1">
+        <v>41853</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="4"/>
+        <v>20140802</v>
+      </c>
+      <c r="C153" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140802000);</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A154" s="1">
+        <v>41852</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="4"/>
+        <v>20140801</v>
+      </c>
+      <c r="C154" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140801000);</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A155" s="1">
+        <v>41851</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="4"/>
+        <v>20140731</v>
+      </c>
+      <c r="C155" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140731000);</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A156" s="1">
+        <v>41850</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="4"/>
+        <v>20140730</v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140730000);</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A157" s="1">
+        <v>41849</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="4"/>
+        <v>20140729</v>
+      </c>
+      <c r="C157" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140729000);</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A158" s="1">
+        <v>41848</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="4"/>
+        <v>20140728</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140728000);</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A159" s="1">
+        <v>41847</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="4"/>
+        <v>20140727</v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140727000);</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A160" s="1">
+        <v>41846</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="4"/>
+        <v>20140726</v>
+      </c>
+      <c r="C160" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140726000);</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A161" s="1">
+        <v>41845</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="4"/>
+        <v>20140725</v>
+      </c>
+      <c r="C161" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140725000);</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A162" s="1">
+        <v>41844</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="4"/>
+        <v>20140724</v>
+      </c>
+      <c r="C162" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140724000);</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A163" s="1">
+        <v>41843</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="4"/>
+        <v>20140723</v>
+      </c>
+      <c r="C163" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140723000);</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A164" s="1">
+        <v>41842</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="4"/>
+        <v>20140722</v>
+      </c>
+      <c r="C164" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140722000);</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A165" s="1">
+        <v>41841</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="4"/>
+        <v>20140721</v>
+      </c>
+      <c r="C165" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140721000);</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A166" s="1">
+        <v>41840</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="4"/>
+        <v>20140720</v>
+      </c>
+      <c r="C166" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140720000);</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A167" s="1">
+        <v>41839</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="4"/>
+        <v>20140719</v>
+      </c>
+      <c r="C167" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140719000);</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A168" s="1">
+        <v>41838</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="4"/>
+        <v>20140718</v>
+      </c>
+      <c r="C168" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140718000);</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A169" s="1">
+        <v>41837</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="4"/>
+        <v>20140717</v>
+      </c>
+      <c r="C169" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140717000);</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A170" s="1">
+        <v>41836</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="4"/>
+        <v>20140716</v>
+      </c>
+      <c r="C170" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140716000);</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A171" s="1">
+        <v>41835</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="4"/>
+        <v>20140715</v>
+      </c>
+      <c r="C171" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140715000);</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A172" s="1">
+        <v>41834</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="4"/>
+        <v>20140714</v>
+      </c>
+      <c r="C172" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140714000);</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A173" s="1">
+        <v>41833</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="4"/>
+        <v>20140713</v>
+      </c>
+      <c r="C173" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140713000);</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A174" s="1">
+        <v>41832</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="4"/>
+        <v>20140712</v>
+      </c>
+      <c r="C174" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140712000);</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A175" s="1">
+        <v>41831</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="4"/>
+        <v>20140711</v>
+      </c>
+      <c r="C175" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140711000);</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A176" s="1">
+        <v>41830</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="4"/>
+        <v>20140710</v>
+      </c>
+      <c r="C176" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140710000);</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A177" s="1">
+        <v>41829</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="4"/>
+        <v>20140709</v>
+      </c>
+      <c r="C177" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140709000);</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A178" s="1">
+        <v>41828</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="4"/>
+        <v>20140708</v>
+      </c>
+      <c r="C178" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140708000);</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A179" s="1">
+        <v>41827</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="4"/>
+        <v>20140707</v>
+      </c>
+      <c r="C179" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140707000);</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A180" s="1">
+        <v>41826</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="4"/>
+        <v>20140706</v>
+      </c>
+      <c r="C180" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140706000);</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A181" s="1">
+        <v>41825</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="4"/>
+        <v>20140705</v>
+      </c>
+      <c r="C181" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140705000);</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A182" s="1">
+        <v>41824</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="4"/>
+        <v>20140704</v>
+      </c>
+      <c r="C182" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140704000);</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A183" s="1">
+        <v>41823</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="4"/>
+        <v>20140703</v>
+      </c>
+      <c r="C183" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140703000);</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A184" s="1">
+        <v>41822</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="4"/>
+        <v>20140702</v>
+      </c>
+      <c r="C184" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140702000);</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A185" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="4"/>
+        <v>20140701</v>
+      </c>
+      <c r="C185" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140701000);</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A186" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="4"/>
+        <v>20140630</v>
+      </c>
+      <c r="C186" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140630000);</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A187" s="1">
+        <v>41819</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="4"/>
+        <v>20140629</v>
+      </c>
+      <c r="C187" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140629000);</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A188" s="1">
+        <v>41818</v>
+      </c>
+      <c r="B188" t="str">
+        <f t="shared" si="4"/>
+        <v>20140628</v>
+      </c>
+      <c r="C188" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140628000);</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A189" s="1">
+        <v>41817</v>
+      </c>
+      <c r="B189" t="str">
+        <f t="shared" si="4"/>
+        <v>20140627</v>
+      </c>
+      <c r="C189" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140627000);</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A190" s="1">
+        <v>41816</v>
+      </c>
+      <c r="B190" t="str">
+        <f t="shared" si="4"/>
+        <v>20140626</v>
+      </c>
+      <c r="C190" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140626000);</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A191" s="1">
+        <v>41815</v>
+      </c>
+      <c r="B191" t="str">
+        <f t="shared" si="4"/>
+        <v>20140625</v>
+      </c>
+      <c r="C191" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140625000);</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A192" s="1">
+        <v>41814</v>
+      </c>
+      <c r="B192" t="str">
+        <f t="shared" si="4"/>
+        <v>20140624</v>
+      </c>
+      <c r="C192" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140624000);</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A193" s="1">
+        <v>41813</v>
+      </c>
+      <c r="B193" t="str">
+        <f t="shared" si="4"/>
+        <v>20140623</v>
+      </c>
+      <c r="C193" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140623000);</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A194" s="1">
+        <v>41812</v>
+      </c>
+      <c r="B194" t="str">
+        <f t="shared" si="4"/>
+        <v>20140622</v>
+      </c>
+      <c r="C194" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140622000);</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A195" s="1">
+        <v>41811</v>
+      </c>
+      <c r="B195" t="str">
+        <f t="shared" ref="B195:B258" si="6">TEXT(A195,"yyyymmdd")</f>
+        <v>20140621</v>
+      </c>
+      <c r="C195" t="str">
+        <f t="shared" ref="C195:C258" si="7">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B195,"000);")</f>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140621000);</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A196" s="1">
+        <v>41810</v>
+      </c>
+      <c r="B196" t="str">
+        <f t="shared" si="6"/>
+        <v>20140620</v>
+      </c>
+      <c r="C196" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140620000);</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A197" s="1">
+        <v>41809</v>
+      </c>
+      <c r="B197" t="str">
+        <f t="shared" si="6"/>
+        <v>20140619</v>
+      </c>
+      <c r="C197" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140619000);</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A198" s="1">
+        <v>41808</v>
+      </c>
+      <c r="B198" t="str">
+        <f t="shared" si="6"/>
+        <v>20140618</v>
+      </c>
+      <c r="C198" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140618000);</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A199" s="1">
+        <v>41807</v>
+      </c>
+      <c r="B199" t="str">
+        <f t="shared" si="6"/>
+        <v>20140617</v>
+      </c>
+      <c r="C199" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140617000);</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A200" s="1">
+        <v>41806</v>
+      </c>
+      <c r="B200" t="str">
+        <f t="shared" si="6"/>
+        <v>20140616</v>
+      </c>
+      <c r="C200" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140616000);</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A201" s="1">
+        <v>41805</v>
+      </c>
+      <c r="B201" t="str">
+        <f t="shared" si="6"/>
+        <v>20140615</v>
+      </c>
+      <c r="C201" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140615000);</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A202" s="1">
+        <v>41804</v>
+      </c>
+      <c r="B202" t="str">
+        <f t="shared" si="6"/>
+        <v>20140614</v>
+      </c>
+      <c r="C202" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140614000);</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A203" s="1">
+        <v>41803</v>
+      </c>
+      <c r="B203" t="str">
+        <f t="shared" si="6"/>
+        <v>20140613</v>
+      </c>
+      <c r="C203" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140613000);</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A204" s="1">
+        <v>41802</v>
+      </c>
+      <c r="B204" t="str">
+        <f t="shared" si="6"/>
+        <v>20140612</v>
+      </c>
+      <c r="C204" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140612000);</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A205" s="1">
+        <v>41801</v>
+      </c>
+      <c r="B205" t="str">
+        <f t="shared" si="6"/>
+        <v>20140611</v>
+      </c>
+      <c r="C205" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140611000);</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A206" s="1">
+        <v>41800</v>
+      </c>
+      <c r="B206" t="str">
+        <f t="shared" si="6"/>
+        <v>20140610</v>
+      </c>
+      <c r="C206" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140610000);</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A207" s="1">
+        <v>41799</v>
+      </c>
+      <c r="B207" t="str">
+        <f t="shared" si="6"/>
+        <v>20140609</v>
+      </c>
+      <c r="C207" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140609000);</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A208" s="1">
+        <v>41798</v>
+      </c>
+      <c r="B208" t="str">
+        <f t="shared" si="6"/>
+        <v>20140608</v>
+      </c>
+      <c r="C208" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140608000);</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A209" s="1">
+        <v>41797</v>
+      </c>
+      <c r="B209" t="str">
+        <f t="shared" si="6"/>
+        <v>20140607</v>
+      </c>
+      <c r="C209" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140607000);</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A210" s="1">
+        <v>41796</v>
+      </c>
+      <c r="B210" t="str">
+        <f t="shared" si="6"/>
+        <v>20140606</v>
+      </c>
+      <c r="C210" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140606000);</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A211" s="1">
+        <v>41795</v>
+      </c>
+      <c r="B211" t="str">
+        <f t="shared" si="6"/>
+        <v>20140605</v>
+      </c>
+      <c r="C211" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140605000);</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A212" s="1">
+        <v>41794</v>
+      </c>
+      <c r="B212" t="str">
+        <f t="shared" si="6"/>
+        <v>20140604</v>
+      </c>
+      <c r="C212" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140604000);</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A213" s="1">
+        <v>41793</v>
+      </c>
+      <c r="B213" t="str">
+        <f t="shared" si="6"/>
+        <v>20140603</v>
+      </c>
+      <c r="C213" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140603000);</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A214" s="1">
+        <v>41792</v>
+      </c>
+      <c r="B214" t="str">
+        <f t="shared" si="6"/>
+        <v>20140602</v>
+      </c>
+      <c r="C214" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140602000);</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A215" s="1">
+        <v>41791</v>
+      </c>
+      <c r="B215" t="str">
+        <f t="shared" si="6"/>
+        <v>20140601</v>
+      </c>
+      <c r="C215" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140601000);</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A216" s="1">
+        <v>41790</v>
+      </c>
+      <c r="B216" t="str">
+        <f t="shared" si="6"/>
+        <v>20140531</v>
+      </c>
+      <c r="C216" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140531000);</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A217" s="1">
+        <v>41789</v>
+      </c>
+      <c r="B217" t="str">
+        <f t="shared" si="6"/>
+        <v>20140530</v>
+      </c>
+      <c r="C217" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140530000);</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A218" s="1">
+        <v>41788</v>
+      </c>
+      <c r="B218" t="str">
+        <f t="shared" si="6"/>
+        <v>20140529</v>
+      </c>
+      <c r="C218" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140529000);</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A219" s="1">
+        <v>41787</v>
+      </c>
+      <c r="B219" t="str">
+        <f t="shared" si="6"/>
+        <v>20140528</v>
+      </c>
+      <c r="C219" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140528000);</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A220" s="1">
+        <v>41786</v>
+      </c>
+      <c r="B220" t="str">
+        <f t="shared" si="6"/>
+        <v>20140527</v>
+      </c>
+      <c r="C220" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140527000);</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A221" s="1">
+        <v>41785</v>
+      </c>
+      <c r="B221" t="str">
+        <f t="shared" si="6"/>
+        <v>20140526</v>
+      </c>
+      <c r="C221" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140526000);</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A222" s="1">
+        <v>41784</v>
+      </c>
+      <c r="B222" t="str">
+        <f t="shared" si="6"/>
+        <v>20140525</v>
+      </c>
+      <c r="C222" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140525000);</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A223" s="1">
+        <v>41783</v>
+      </c>
+      <c r="B223" t="str">
+        <f t="shared" si="6"/>
+        <v>20140524</v>
+      </c>
+      <c r="C223" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140524000);</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A224" s="1">
+        <v>41782</v>
+      </c>
+      <c r="B224" t="str">
+        <f t="shared" si="6"/>
+        <v>20140523</v>
+      </c>
+      <c r="C224" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140523000);</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A225" s="1">
+        <v>41781</v>
+      </c>
+      <c r="B225" t="str">
+        <f t="shared" si="6"/>
+        <v>20140522</v>
+      </c>
+      <c r="C225" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140522000);</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A226" s="1">
+        <v>41780</v>
+      </c>
+      <c r="B226" t="str">
+        <f t="shared" si="6"/>
+        <v>20140521</v>
+      </c>
+      <c r="C226" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140521000);</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A227" s="1">
+        <v>41779</v>
+      </c>
+      <c r="B227" t="str">
+        <f t="shared" si="6"/>
+        <v>20140520</v>
+      </c>
+      <c r="C227" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140520000);</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A228" s="1">
+        <v>41778</v>
+      </c>
+      <c r="B228" t="str">
+        <f t="shared" si="6"/>
+        <v>20140519</v>
+      </c>
+      <c r="C228" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140519000);</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A229" s="1">
+        <v>41777</v>
+      </c>
+      <c r="B229" t="str">
+        <f t="shared" si="6"/>
+        <v>20140518</v>
+      </c>
+      <c r="C229" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140518000);</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A230" s="1">
+        <v>41776</v>
+      </c>
+      <c r="B230" t="str">
+        <f t="shared" si="6"/>
+        <v>20140517</v>
+      </c>
+      <c r="C230" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140517000);</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A231" s="1">
+        <v>41775</v>
+      </c>
+      <c r="B231" t="str">
+        <f t="shared" si="6"/>
+        <v>20140516</v>
+      </c>
+      <c r="C231" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140516000);</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A232" s="1">
+        <v>41774</v>
+      </c>
+      <c r="B232" t="str">
+        <f t="shared" si="6"/>
+        <v>20140515</v>
+      </c>
+      <c r="C232" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140515000);</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A233" s="1">
+        <v>41773</v>
+      </c>
+      <c r="B233" t="str">
+        <f t="shared" si="6"/>
+        <v>20140514</v>
+      </c>
+      <c r="C233" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140514000);</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A234" s="1">
+        <v>41772</v>
+      </c>
+      <c r="B234" t="str">
+        <f t="shared" si="6"/>
+        <v>20140513</v>
+      </c>
+      <c r="C234" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140513000);</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A235" s="1">
+        <v>41771</v>
+      </c>
+      <c r="B235" t="str">
+        <f t="shared" si="6"/>
+        <v>20140512</v>
+      </c>
+      <c r="C235" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140512000);</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A236" s="1">
+        <v>41770</v>
+      </c>
+      <c r="B236" t="str">
+        <f t="shared" si="6"/>
+        <v>20140511</v>
+      </c>
+      <c r="C236" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140511000);</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A237" s="1">
+        <v>41769</v>
+      </c>
+      <c r="B237" t="str">
+        <f t="shared" si="6"/>
+        <v>20140510</v>
+      </c>
+      <c r="C237" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140510000);</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A238" s="1">
+        <v>41768</v>
+      </c>
+      <c r="B238" t="str">
+        <f t="shared" si="6"/>
+        <v>20140509</v>
+      </c>
+      <c r="C238" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140509000);</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A239" s="1">
+        <v>41767</v>
+      </c>
+      <c r="B239" t="str">
+        <f t="shared" si="6"/>
+        <v>20140508</v>
+      </c>
+      <c r="C239" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140508000);</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A240" s="1">
+        <v>41766</v>
+      </c>
+      <c r="B240" t="str">
+        <f t="shared" si="6"/>
+        <v>20140507</v>
+      </c>
+      <c r="C240" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140507000);</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A241" s="1">
+        <v>41765</v>
+      </c>
+      <c r="B241" t="str">
+        <f t="shared" si="6"/>
+        <v>20140506</v>
+      </c>
+      <c r="C241" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140506000);</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A242" s="1">
+        <v>41764</v>
+      </c>
+      <c r="B242" t="str">
+        <f t="shared" si="6"/>
+        <v>20140505</v>
+      </c>
+      <c r="C242" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140505000);</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A243" s="1">
+        <v>41763</v>
+      </c>
+      <c r="B243" t="str">
+        <f t="shared" si="6"/>
+        <v>20140504</v>
+      </c>
+      <c r="C243" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140504000);</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A244" s="1">
+        <v>41762</v>
+      </c>
+      <c r="B244" t="str">
+        <f t="shared" si="6"/>
+        <v>20140503</v>
+      </c>
+      <c r="C244" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140503000);</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A245" s="1">
+        <v>41761</v>
+      </c>
+      <c r="B245" t="str">
+        <f t="shared" si="6"/>
+        <v>20140502</v>
+      </c>
+      <c r="C245" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140502000);</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A246" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B246" t="str">
+        <f t="shared" si="6"/>
+        <v>20140501</v>
+      </c>
+      <c r="C246" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140501000);</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A247" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B247" t="str">
+        <f t="shared" si="6"/>
+        <v>20140430</v>
+      </c>
+      <c r="C247" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140430000);</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A248" s="1">
+        <v>41758</v>
+      </c>
+      <c r="B248" t="str">
+        <f t="shared" si="6"/>
+        <v>20140429</v>
+      </c>
+      <c r="C248" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140429000);</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A249" s="1">
+        <v>41757</v>
+      </c>
+      <c r="B249" t="str">
+        <f t="shared" si="6"/>
+        <v>20140428</v>
+      </c>
+      <c r="C249" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140428000);</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A250" s="1">
+        <v>41756</v>
+      </c>
+      <c r="B250" t="str">
+        <f t="shared" si="6"/>
+        <v>20140427</v>
+      </c>
+      <c r="C250" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140427000);</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A251" s="1">
+        <v>41755</v>
+      </c>
+      <c r="B251" t="str">
+        <f t="shared" si="6"/>
+        <v>20140426</v>
+      </c>
+      <c r="C251" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140426000);</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A252" s="1">
+        <v>41754</v>
+      </c>
+      <c r="B252" t="str">
+        <f t="shared" si="6"/>
+        <v>20140425</v>
+      </c>
+      <c r="C252" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140425000);</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A253" s="1">
+        <v>41753</v>
+      </c>
+      <c r="B253" t="str">
+        <f t="shared" si="6"/>
+        <v>20140424</v>
+      </c>
+      <c r="C253" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140424000);</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A254" s="1">
+        <v>41752</v>
+      </c>
+      <c r="B254" t="str">
+        <f t="shared" si="6"/>
+        <v>20140423</v>
+      </c>
+      <c r="C254" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140423000);</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A255" s="1">
+        <v>41751</v>
+      </c>
+      <c r="B255" t="str">
+        <f t="shared" si="6"/>
+        <v>20140422</v>
+      </c>
+      <c r="C255" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140422000);</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A256" s="1">
+        <v>41750</v>
+      </c>
+      <c r="B256" t="str">
+        <f t="shared" si="6"/>
+        <v>20140421</v>
+      </c>
+      <c r="C256" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140421000);</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A257" s="1">
+        <v>41749</v>
+      </c>
+      <c r="B257" t="str">
+        <f t="shared" si="6"/>
+        <v>20140420</v>
+      </c>
+      <c r="C257" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140420000);</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A258" s="1">
+        <v>41748</v>
+      </c>
+      <c r="B258" t="str">
+        <f t="shared" si="6"/>
+        <v>20140419</v>
+      </c>
+      <c r="C258" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140419000);</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A259" s="1">
+        <v>41747</v>
+      </c>
+      <c r="B259" t="str">
+        <f t="shared" ref="B259:B322" si="8">TEXT(A259,"yyyymmdd")</f>
+        <v>20140418</v>
+      </c>
+      <c r="C259" t="str">
+        <f t="shared" ref="C259:C322" si="9">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B259,"000);")</f>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140418000);</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A260" s="1">
+        <v>41746</v>
+      </c>
+      <c r="B260" t="str">
+        <f t="shared" si="8"/>
+        <v>20140417</v>
+      </c>
+      <c r="C260" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140417000);</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A261" s="1">
+        <v>41745</v>
+      </c>
+      <c r="B261" t="str">
+        <f t="shared" si="8"/>
+        <v>20140416</v>
+      </c>
+      <c r="C261" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140416000);</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A262" s="1">
+        <v>41744</v>
+      </c>
+      <c r="B262" t="str">
+        <f t="shared" si="8"/>
+        <v>20140415</v>
+      </c>
+      <c r="C262" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140415000);</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A263" s="1">
+        <v>41743</v>
+      </c>
+      <c r="B263" t="str">
+        <f t="shared" si="8"/>
+        <v>20140414</v>
+      </c>
+      <c r="C263" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140414000);</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A264" s="1">
+        <v>41742</v>
+      </c>
+      <c r="B264" t="str">
+        <f t="shared" si="8"/>
+        <v>20140413</v>
+      </c>
+      <c r="C264" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140413000);</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A265" s="1">
+        <v>41741</v>
+      </c>
+      <c r="B265" t="str">
+        <f t="shared" si="8"/>
+        <v>20140412</v>
+      </c>
+      <c r="C265" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140412000);</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A266" s="1">
+        <v>41740</v>
+      </c>
+      <c r="B266" t="str">
+        <f t="shared" si="8"/>
+        <v>20140411</v>
+      </c>
+      <c r="C266" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140411000);</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A267" s="1">
+        <v>41739</v>
+      </c>
+      <c r="B267" t="str">
+        <f t="shared" si="8"/>
+        <v>20140410</v>
+      </c>
+      <c r="C267" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140410000);</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A268" s="1">
+        <v>41738</v>
+      </c>
+      <c r="B268" t="str">
+        <f t="shared" si="8"/>
+        <v>20140409</v>
+      </c>
+      <c r="C268" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140409000);</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A269" s="1">
+        <v>41737</v>
+      </c>
+      <c r="B269" t="str">
+        <f t="shared" si="8"/>
+        <v>20140408</v>
+      </c>
+      <c r="C269" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140408000);</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A270" s="1">
+        <v>41736</v>
+      </c>
+      <c r="B270" t="str">
+        <f t="shared" si="8"/>
+        <v>20140407</v>
+      </c>
+      <c r="C270" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140407000);</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A271" s="1">
+        <v>41735</v>
+      </c>
+      <c r="B271" t="str">
+        <f t="shared" si="8"/>
+        <v>20140406</v>
+      </c>
+      <c r="C271" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140406000);</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A272" s="1">
+        <v>41734</v>
+      </c>
+      <c r="B272" t="str">
+        <f t="shared" si="8"/>
+        <v>20140405</v>
+      </c>
+      <c r="C272" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140405000);</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A273" s="1">
+        <v>41733</v>
+      </c>
+      <c r="B273" t="str">
+        <f t="shared" si="8"/>
+        <v>20140404</v>
+      </c>
+      <c r="C273" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140404000);</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A274" s="1">
+        <v>41732</v>
+      </c>
+      <c r="B274" t="str">
+        <f t="shared" si="8"/>
+        <v>20140403</v>
+      </c>
+      <c r="C274" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140403000);</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A275" s="1">
+        <v>41731</v>
+      </c>
+      <c r="B275" t="str">
+        <f t="shared" si="8"/>
+        <v>20140402</v>
+      </c>
+      <c r="C275" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140402000);</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A276" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B276" t="str">
+        <f t="shared" si="8"/>
+        <v>20140401</v>
+      </c>
+      <c r="C276" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140401000);</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A277" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B277" t="str">
+        <f t="shared" si="8"/>
+        <v>20140331</v>
+      </c>
+      <c r="C277" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140331000);</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A278" s="1">
+        <v>41728</v>
+      </c>
+      <c r="B278" t="str">
+        <f t="shared" si="8"/>
+        <v>20140330</v>
+      </c>
+      <c r="C278" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140330000);</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A279" s="1">
+        <v>41727</v>
+      </c>
+      <c r="B279" t="str">
+        <f t="shared" si="8"/>
+        <v>20140329</v>
+      </c>
+      <c r="C279" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140329000);</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A280" s="1">
+        <v>41726</v>
+      </c>
+      <c r="B280" t="str">
+        <f t="shared" si="8"/>
+        <v>20140328</v>
+      </c>
+      <c r="C280" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140328000);</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A281" s="1">
+        <v>41725</v>
+      </c>
+      <c r="B281" t="str">
+        <f t="shared" si="8"/>
+        <v>20140327</v>
+      </c>
+      <c r="C281" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140327000);</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A282" s="1">
+        <v>41724</v>
+      </c>
+      <c r="B282" t="str">
+        <f t="shared" si="8"/>
+        <v>20140326</v>
+      </c>
+      <c r="C282" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140326000);</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A283" s="1">
+        <v>41723</v>
+      </c>
+      <c r="B283" t="str">
+        <f t="shared" si="8"/>
+        <v>20140325</v>
+      </c>
+      <c r="C283" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140325000);</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A284" s="1">
+        <v>41722</v>
+      </c>
+      <c r="B284" t="str">
+        <f t="shared" si="8"/>
+        <v>20140324</v>
+      </c>
+      <c r="C284" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140324000);</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A285" s="1">
+        <v>41721</v>
+      </c>
+      <c r="B285" t="str">
+        <f t="shared" si="8"/>
+        <v>20140323</v>
+      </c>
+      <c r="C285" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140323000);</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A286" s="1">
+        <v>41720</v>
+      </c>
+      <c r="B286" t="str">
+        <f t="shared" si="8"/>
+        <v>20140322</v>
+      </c>
+      <c r="C286" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140322000);</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A287" s="1">
+        <v>41719</v>
+      </c>
+      <c r="B287" t="str">
+        <f t="shared" si="8"/>
+        <v>20140321</v>
+      </c>
+      <c r="C287" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140321000);</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A288" s="1">
+        <v>41718</v>
+      </c>
+      <c r="B288" t="str">
+        <f t="shared" si="8"/>
+        <v>20140320</v>
+      </c>
+      <c r="C288" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140320000);</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A289" s="1">
+        <v>41717</v>
+      </c>
+      <c r="B289" t="str">
+        <f t="shared" si="8"/>
+        <v>20140319</v>
+      </c>
+      <c r="C289" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140319000);</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A290" s="1">
+        <v>41716</v>
+      </c>
+      <c r="B290" t="str">
+        <f t="shared" si="8"/>
+        <v>20140318</v>
+      </c>
+      <c r="C290" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140318000);</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A291" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B291" t="str">
+        <f t="shared" si="8"/>
+        <v>20140317</v>
+      </c>
+      <c r="C291" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140317000);</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A292" s="1">
+        <v>41714</v>
+      </c>
+      <c r="B292" t="str">
+        <f t="shared" si="8"/>
+        <v>20140316</v>
+      </c>
+      <c r="C292" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140316000);</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A293" s="1">
+        <v>41713</v>
+      </c>
+      <c r="B293" t="str">
+        <f t="shared" si="8"/>
+        <v>20140315</v>
+      </c>
+      <c r="C293" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140315000);</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A294" s="1">
+        <v>41712</v>
+      </c>
+      <c r="B294" t="str">
+        <f t="shared" si="8"/>
+        <v>20140314</v>
+      </c>
+      <c r="C294" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140314000);</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A295" s="1">
+        <v>41711</v>
+      </c>
+      <c r="B295" t="str">
+        <f t="shared" si="8"/>
+        <v>20140313</v>
+      </c>
+      <c r="C295" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140313000);</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A296" s="1">
+        <v>41710</v>
+      </c>
+      <c r="B296" t="str">
+        <f t="shared" si="8"/>
+        <v>20140312</v>
+      </c>
+      <c r="C296" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140312000);</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A297" s="1">
+        <v>41709</v>
+      </c>
+      <c r="B297" t="str">
+        <f t="shared" si="8"/>
+        <v>20140311</v>
+      </c>
+      <c r="C297" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140311000);</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A298" s="1">
+        <v>41708</v>
+      </c>
+      <c r="B298" t="str">
+        <f t="shared" si="8"/>
+        <v>20140310</v>
+      </c>
+      <c r="C298" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140310000);</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A299" s="1">
+        <v>41707</v>
+      </c>
+      <c r="B299" t="str">
+        <f t="shared" si="8"/>
+        <v>20140309</v>
+      </c>
+      <c r="C299" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140309000);</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A300" s="1">
+        <v>41706</v>
+      </c>
+      <c r="B300" t="str">
+        <f t="shared" si="8"/>
+        <v>20140308</v>
+      </c>
+      <c r="C300" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140308000);</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A301" s="1">
+        <v>41705</v>
+      </c>
+      <c r="B301" t="str">
+        <f t="shared" si="8"/>
+        <v>20140307</v>
+      </c>
+      <c r="C301" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140307000);</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A302" s="1">
+        <v>41704</v>
+      </c>
+      <c r="B302" t="str">
+        <f t="shared" si="8"/>
+        <v>20140306</v>
+      </c>
+      <c r="C302" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140306000);</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A303" s="1">
+        <v>41703</v>
+      </c>
+      <c r="B303" t="str">
+        <f t="shared" si="8"/>
+        <v>20140305</v>
+      </c>
+      <c r="C303" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140305000);</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A304" s="1">
+        <v>41702</v>
+      </c>
+      <c r="B304" t="str">
+        <f t="shared" si="8"/>
+        <v>20140304</v>
+      </c>
+      <c r="C304" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140304000);</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A305" s="1">
+        <v>41701</v>
+      </c>
+      <c r="B305" t="str">
+        <f t="shared" si="8"/>
+        <v>20140303</v>
+      </c>
+      <c r="C305" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140303000);</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A306" s="1">
+        <v>41700</v>
+      </c>
+      <c r="B306" t="str">
+        <f t="shared" si="8"/>
+        <v>20140302</v>
+      </c>
+      <c r="C306" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140302000);</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A307" s="1">
+        <v>41699</v>
+      </c>
+      <c r="B307" t="str">
+        <f t="shared" si="8"/>
+        <v>20140301</v>
+      </c>
+      <c r="C307" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140301000);</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A308" s="1">
+        <v>41698</v>
+      </c>
+      <c r="B308" t="str">
+        <f t="shared" si="8"/>
+        <v>20140228</v>
+      </c>
+      <c r="C308" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140228000);</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A309" s="1">
+        <v>41697</v>
+      </c>
+      <c r="B309" t="str">
+        <f t="shared" si="8"/>
+        <v>20140227</v>
+      </c>
+      <c r="C309" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140227000);</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A310" s="1">
+        <v>41696</v>
+      </c>
+      <c r="B310" t="str">
+        <f t="shared" si="8"/>
+        <v>20140226</v>
+      </c>
+      <c r="C310" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140226000);</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A311" s="1">
+        <v>41695</v>
+      </c>
+      <c r="B311" t="str">
+        <f t="shared" si="8"/>
+        <v>20140225</v>
+      </c>
+      <c r="C311" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140225000);</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A312" s="1">
+        <v>41694</v>
+      </c>
+      <c r="B312" t="str">
+        <f t="shared" si="8"/>
+        <v>20140224</v>
+      </c>
+      <c r="C312" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140224000);</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A313" s="1">
+        <v>41693</v>
+      </c>
+      <c r="B313" t="str">
+        <f t="shared" si="8"/>
+        <v>20140223</v>
+      </c>
+      <c r="C313" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140223000);</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A314" s="1">
+        <v>41692</v>
+      </c>
+      <c r="B314" t="str">
+        <f t="shared" si="8"/>
+        <v>20140222</v>
+      </c>
+      <c r="C314" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140222000);</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A315" s="1">
+        <v>41691</v>
+      </c>
+      <c r="B315" t="str">
+        <f t="shared" si="8"/>
+        <v>20140221</v>
+      </c>
+      <c r="C315" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140221000);</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A316" s="1">
+        <v>41690</v>
+      </c>
+      <c r="B316" t="str">
+        <f t="shared" si="8"/>
+        <v>20140220</v>
+      </c>
+      <c r="C316" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140220000);</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A317" s="1">
+        <v>41689</v>
+      </c>
+      <c r="B317" t="str">
+        <f t="shared" si="8"/>
+        <v>20140219</v>
+      </c>
+      <c r="C317" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140219000);</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A318" s="1">
+        <v>41688</v>
+      </c>
+      <c r="B318" t="str">
+        <f t="shared" si="8"/>
+        <v>20140218</v>
+      </c>
+      <c r="C318" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140218000);</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A319" s="1">
+        <v>41687</v>
+      </c>
+      <c r="B319" t="str">
+        <f t="shared" si="8"/>
+        <v>20140217</v>
+      </c>
+      <c r="C319" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140217000);</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A320" s="1">
+        <v>41686</v>
+      </c>
+      <c r="B320" t="str">
+        <f t="shared" si="8"/>
+        <v>20140216</v>
+      </c>
+      <c r="C320" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140216000);</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A321" s="1">
+        <v>41685</v>
+      </c>
+      <c r="B321" t="str">
+        <f t="shared" si="8"/>
+        <v>20140215</v>
+      </c>
+      <c r="C321" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140215000);</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A322" s="1">
+        <v>41684</v>
+      </c>
+      <c r="B322" t="str">
+        <f t="shared" si="8"/>
+        <v>20140214</v>
+      </c>
+      <c r="C322" t="str">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140214000);</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A323" s="1">
+        <v>41683</v>
+      </c>
+      <c r="B323" t="str">
+        <f t="shared" ref="B323:B366" si="10">TEXT(A323,"yyyymmdd")</f>
+        <v>20140213</v>
+      </c>
+      <c r="C323" t="str">
+        <f t="shared" ref="C323:C366" si="11">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B323,"000);")</f>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140213000);</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A324" s="1">
+        <v>41682</v>
+      </c>
+      <c r="B324" t="str">
+        <f t="shared" si="10"/>
+        <v>20140212</v>
+      </c>
+      <c r="C324" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140212000);</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A325" s="1">
+        <v>41681</v>
+      </c>
+      <c r="B325" t="str">
+        <f t="shared" si="10"/>
+        <v>20140211</v>
+      </c>
+      <c r="C325" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140211000);</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A326" s="1">
+        <v>41680</v>
+      </c>
+      <c r="B326" t="str">
+        <f t="shared" si="10"/>
+        <v>20140210</v>
+      </c>
+      <c r="C326" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140210000);</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A327" s="1">
+        <v>41679</v>
+      </c>
+      <c r="B327" t="str">
+        <f t="shared" si="10"/>
+        <v>20140209</v>
+      </c>
+      <c r="C327" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140209000);</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A328" s="1">
+        <v>41678</v>
+      </c>
+      <c r="B328" t="str">
+        <f t="shared" si="10"/>
+        <v>20140208</v>
+      </c>
+      <c r="C328" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140208000);</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A329" s="1">
+        <v>41677</v>
+      </c>
+      <c r="B329" t="str">
+        <f t="shared" si="10"/>
+        <v>20140207</v>
+      </c>
+      <c r="C329" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140207000);</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A330" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B330" t="str">
+        <f t="shared" si="10"/>
+        <v>20140206</v>
+      </c>
+      <c r="C330" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140206000);</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A331" s="1">
+        <v>41675</v>
+      </c>
+      <c r="B331" t="str">
+        <f t="shared" si="10"/>
+        <v>20140205</v>
+      </c>
+      <c r="C331" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140205000);</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A332" s="1">
+        <v>41674</v>
+      </c>
+      <c r="B332" t="str">
+        <f t="shared" si="10"/>
+        <v>20140204</v>
+      </c>
+      <c r="C332" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140204000);</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A333" s="1">
+        <v>41673</v>
+      </c>
+      <c r="B333" t="str">
+        <f t="shared" si="10"/>
+        <v>20140203</v>
+      </c>
+      <c r="C333" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140203000);</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A334" s="1">
+        <v>41672</v>
+      </c>
+      <c r="B334" t="str">
+        <f t="shared" si="10"/>
+        <v>20140202</v>
+      </c>
+      <c r="C334" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140202000);</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A335" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B335" t="str">
+        <f t="shared" si="10"/>
+        <v>20140201</v>
+      </c>
+      <c r="C335" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140201000);</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A336" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B336" t="str">
+        <f t="shared" si="10"/>
+        <v>20140131</v>
+      </c>
+      <c r="C336" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140131000);</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A337" s="1">
+        <v>41669</v>
+      </c>
+      <c r="B337" t="str">
+        <f t="shared" si="10"/>
+        <v>20140130</v>
+      </c>
+      <c r="C337" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140130000);</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A338" s="1">
+        <v>41668</v>
+      </c>
+      <c r="B338" t="str">
+        <f t="shared" si="10"/>
+        <v>20140129</v>
+      </c>
+      <c r="C338" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140129000);</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A339" s="1">
+        <v>41667</v>
+      </c>
+      <c r="B339" t="str">
+        <f t="shared" si="10"/>
+        <v>20140128</v>
+      </c>
+      <c r="C339" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140128000);</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A340" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B340" t="str">
+        <f t="shared" si="10"/>
+        <v>20140127</v>
+      </c>
+      <c r="C340" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140127000);</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A341" s="1">
+        <v>41665</v>
+      </c>
+      <c r="B341" t="str">
+        <f t="shared" si="10"/>
+        <v>20140126</v>
+      </c>
+      <c r="C341" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140126000);</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A342" s="1">
+        <v>41664</v>
+      </c>
+      <c r="B342" t="str">
+        <f t="shared" si="10"/>
+        <v>20140125</v>
+      </c>
+      <c r="C342" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140125000);</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A343" s="1">
+        <v>41663</v>
+      </c>
+      <c r="B343" t="str">
+        <f t="shared" si="10"/>
+        <v>20140124</v>
+      </c>
+      <c r="C343" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140124000);</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A344" s="1">
+        <v>41662</v>
+      </c>
+      <c r="B344" t="str">
+        <f t="shared" si="10"/>
+        <v>20140123</v>
+      </c>
+      <c r="C344" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140123000);</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A345" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B345" t="str">
+        <f t="shared" si="10"/>
+        <v>20140122</v>
+      </c>
+      <c r="C345" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140122000);</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A346" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B346" t="str">
+        <f t="shared" si="10"/>
+        <v>20140121</v>
+      </c>
+      <c r="C346" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140121000);</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A347" s="1">
+        <v>41659</v>
+      </c>
+      <c r="B347" t="str">
+        <f t="shared" si="10"/>
+        <v>20140120</v>
+      </c>
+      <c r="C347" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140120000);</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A348" s="1">
+        <v>41658</v>
+      </c>
+      <c r="B348" t="str">
+        <f t="shared" si="10"/>
+        <v>20140119</v>
+      </c>
+      <c r="C348" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140119000);</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A349" s="1">
+        <v>41657</v>
+      </c>
+      <c r="B349" t="str">
+        <f t="shared" si="10"/>
+        <v>20140118</v>
+      </c>
+      <c r="C349" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140118000);</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A350" s="1">
+        <v>41656</v>
+      </c>
+      <c r="B350" t="str">
+        <f t="shared" si="10"/>
+        <v>20140117</v>
+      </c>
+      <c r="C350" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140117000);</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A351" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B351" t="str">
+        <f t="shared" si="10"/>
+        <v>20140116</v>
+      </c>
+      <c r="C351" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140116000);</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A352" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B352" t="str">
+        <f t="shared" si="10"/>
+        <v>20140115</v>
+      </c>
+      <c r="C352" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140115000);</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A353" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B353" t="str">
+        <f t="shared" si="10"/>
+        <v>20140114</v>
+      </c>
+      <c r="C353" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140114000);</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A354" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B354" t="str">
+        <f t="shared" si="10"/>
+        <v>20140113</v>
+      </c>
+      <c r="C354" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140113000);</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A355" s="1">
+        <v>41651</v>
+      </c>
+      <c r="B355" t="str">
+        <f t="shared" si="10"/>
+        <v>20140112</v>
+      </c>
+      <c r="C355" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140112000);</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A356" s="1">
+        <v>41650</v>
+      </c>
+      <c r="B356" t="str">
+        <f t="shared" si="10"/>
+        <v>20140111</v>
+      </c>
+      <c r="C356" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140111000);</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A357" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B357" t="str">
+        <f t="shared" si="10"/>
+        <v>20140110</v>
+      </c>
+      <c r="C357" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140110000);</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A358" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B358" t="str">
+        <f t="shared" si="10"/>
+        <v>20140109</v>
+      </c>
+      <c r="C358" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140109000);</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A359" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B359" t="str">
+        <f t="shared" si="10"/>
+        <v>20140108</v>
+      </c>
+      <c r="C359" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140108000);</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A360" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B360" t="str">
+        <f t="shared" si="10"/>
+        <v>20140107</v>
+      </c>
+      <c r="C360" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140107000);</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A361" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B361" t="str">
+        <f t="shared" si="10"/>
+        <v>20140106</v>
+      </c>
+      <c r="C361" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140106000);</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A362" s="1">
+        <v>41644</v>
+      </c>
+      <c r="B362" t="str">
+        <f t="shared" si="10"/>
+        <v>20140105</v>
+      </c>
+      <c r="C362" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140105000);</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A363" s="1">
+        <v>41643</v>
+      </c>
+      <c r="B363" t="str">
+        <f t="shared" si="10"/>
+        <v>20140104</v>
+      </c>
+      <c r="C363" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140104000);</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A364" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B364" t="str">
+        <f t="shared" si="10"/>
+        <v>20140103</v>
+      </c>
+      <c r="C364" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140103000);</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A365" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B365" t="str">
+        <f t="shared" si="10"/>
+        <v>20140102</v>
+      </c>
+      <c r="C365" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140102000);</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A366" s="1">
+        <v>41640</v>
+      </c>
+      <c r="B366" t="str">
+        <f t="shared" si="10"/>
+        <v>20140101</v>
+      </c>
+      <c r="C366" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140101000);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Task/2015-06-04siebel上线后会员数据整合/历史会员销售修复记录.xlsx
+++ b/Task/2015-06-04siebel上线后会员数据整合/历史会员销售修复记录.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="11">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,14 @@
   </si>
   <si>
     <t>DONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -10438,10 +10446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D366"/>
+  <dimension ref="A1:D425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10468,959 +10476,959 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>42004</v>
+        <v>42063</v>
       </c>
       <c r="B2" t="str">
-        <f>TEXT(A2,"yyyymmdd")</f>
-        <v>20141231</v>
+        <f t="shared" ref="B2:B60" si="0">TEXT(A2,"yyyymmdd")</f>
+        <v>20150228</v>
       </c>
       <c r="C2" t="str">
-        <f>CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B2,"000);")</f>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141231000);</v>
+        <f t="shared" ref="C2:C60" si="1">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B2,"000);")</f>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150228000);</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>42003</v>
+        <v>42062</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="0">TEXT(A3,"yyyymmdd")</f>
-        <v>20141230</v>
+        <f t="shared" si="0"/>
+        <v>20150227</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="1">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B3,"000);")</f>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141230000);</v>
+        <f t="shared" si="1"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150227000);</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>42002</v>
+        <v>42061</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>20141229</v>
+        <v>20150226</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141229000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150226000);</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>42001</v>
+        <v>42060</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>20141228</v>
+        <v>20150225</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141228000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150225000);</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>42000</v>
+        <v>42059</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>20141227</v>
+        <v>20150224</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141227000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150224000);</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>41999</v>
+        <v>42058</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>20141226</v>
+        <v>20150223</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141226000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150223000);</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>41998</v>
+        <v>42057</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>20141225</v>
+        <v>20150222</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141225000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150222000);</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>41997</v>
+        <v>42056</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>20141224</v>
+        <v>20150221</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141224000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150221000);</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>41996</v>
+        <v>42055</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>20141223</v>
+        <v>20150220</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141223000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150220000);</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>41995</v>
+        <v>42054</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>20141222</v>
+        <v>20150219</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141222000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150219000);</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>41994</v>
+        <v>42053</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>20141221</v>
+        <v>20150218</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141221000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150218000);</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>41993</v>
+        <v>42052</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>20141220</v>
+        <v>20150217</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141220000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150217000);</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>41992</v>
+        <v>42051</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>20141219</v>
+        <v>20150216</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141219000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150216000);</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>41991</v>
+        <v>42050</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>20141218</v>
+        <v>20150215</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141218000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150215000);</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>41990</v>
+        <v>42049</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>20141217</v>
+        <v>20150214</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141217000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150214000);</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>41989</v>
+        <v>42048</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>20141216</v>
+        <v>20150213</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141216000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150213000);</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>41988</v>
+        <v>42047</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>20141215</v>
+        <v>20150212</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141215000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150212000);</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>41987</v>
+        <v>42046</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>20141214</v>
+        <v>20150211</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141214000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150211000);</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>41986</v>
+        <v>42045</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>20141213</v>
+        <v>20150210</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141213000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150210000);</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>41985</v>
+        <v>42044</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>20141212</v>
+        <v>20150209</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141212000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150209000);</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>41984</v>
+        <v>42043</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>20141211</v>
+        <v>20150208</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141211000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150208000);</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>41983</v>
+        <v>42042</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>20141210</v>
+        <v>20150207</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141210000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150207000);</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>41982</v>
+        <v>42041</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>20141209</v>
+        <v>20150206</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141209000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150206000);</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>41981</v>
+        <v>42040</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>20141208</v>
+        <v>20150205</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141208000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150205000);</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>41980</v>
+        <v>42039</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>20141207</v>
+        <v>20150204</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141207000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150204000);</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>41979</v>
+        <v>42038</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>20141206</v>
+        <v>20150203</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141206000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150203000);</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>41978</v>
+        <v>42037</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>20141205</v>
+        <v>20150202</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141205000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150202000);</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>41977</v>
+        <v>42036</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>20141204</v>
+        <v>20150201</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141204000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150201000);</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>41976</v>
+        <v>42035</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>20141203</v>
+        <v>20150131</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141203000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150131000);</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>41975</v>
+        <v>42034</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>20141202</v>
+        <v>20150130</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141202000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150130000);</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>41974</v>
+        <v>42033</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>20141201</v>
+        <v>20150129</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141201000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150129000);</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>41973</v>
+        <v>42032</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>20141130</v>
+        <v>20150128</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141130000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150128000);</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>41972</v>
+        <v>42031</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>20141129</v>
+        <v>20150127</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141129000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150127000);</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>41971</v>
+        <v>42030</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>20141128</v>
+        <v>20150126</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141128000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150126000);</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>41970</v>
+        <v>42029</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>20141127</v>
+        <v>20150125</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141127000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150125000);</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>41969</v>
+        <v>42028</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>20141126</v>
+        <v>20150124</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141126000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150124000);</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>41968</v>
+        <v>42027</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>20141125</v>
+        <v>20150123</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141125000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150123000);</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>41967</v>
+        <v>42026</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>20141124</v>
+        <v>20150122</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141124000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150122000);</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>41966</v>
+        <v>42025</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>20141123</v>
+        <v>20150121</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141123000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150121000);</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>41965</v>
+        <v>42024</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>20141122</v>
+        <v>20150120</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141122000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150120000);</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>41964</v>
+        <v>42023</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>20141121</v>
+        <v>20150119</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141121000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150119000);</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>41963</v>
+        <v>42022</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>20141120</v>
+        <v>20150118</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141120000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150118000);</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>41962</v>
+        <v>42021</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>20141119</v>
+        <v>20150117</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141119000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150117000);</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>41961</v>
+        <v>42020</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>20141118</v>
+        <v>20150116</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141118000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150116000);</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>41960</v>
+        <v>42019</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>20141117</v>
+        <v>20150115</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141117000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150115000);</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>41959</v>
+        <v>42018</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>20141116</v>
+        <v>20150114</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141116000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150114000);</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>41958</v>
+        <v>42017</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>20141115</v>
+        <v>20150113</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141115000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150113000);</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>41957</v>
+        <v>42016</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>20141114</v>
+        <v>20150112</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141114000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150112000);</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>41956</v>
+        <v>42015</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>20141113</v>
+        <v>20150111</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141113000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150111000);</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>41955</v>
+        <v>42014</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>20141112</v>
+        <v>20150110</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141112000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150110000);</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>41954</v>
+        <v>42013</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>20141111</v>
+        <v>20150109</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141111000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150109000);</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>41953</v>
+        <v>42012</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>20141110</v>
+        <v>20150108</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141110000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150108000);</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>41952</v>
+        <v>42011</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>20141109</v>
+        <v>20150107</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141109000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150107000);</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>41951</v>
+        <v>42010</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>20141108</v>
+        <v>20150106</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141108000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150106000);</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>41950</v>
+        <v>42009</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>20141107</v>
+        <v>20150105</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141107000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150105000);</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>41949</v>
+        <v>42008</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>20141106</v>
+        <v>20150104</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141106000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150104000);</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>41948</v>
+        <v>42007</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>20141105</v>
+        <v>20150103</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141105000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150103000);</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>41947</v>
+        <v>42006</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>20141104</v>
+        <v>20150102</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141104000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150102000);</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>41946</v>
+        <v>42005</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>20141103</v>
+        <v>20150101</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141103000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120150101000);</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>41945</v>
+        <v>42004</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="0"/>
-        <v>20141102</v>
+        <f>TEXT(A61,"yyyymmdd")</f>
+        <v>20141231</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141102000);</v>
+        <f>CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B61,"000);")</f>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141231000);</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
@@ -11428,4062 +11436,5408 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>41944</v>
+        <v>42003</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="0"/>
-        <v>20141101</v>
+        <f t="shared" ref="B62:B125" si="2">TEXT(A62,"yyyymmdd")</f>
+        <v>20141230</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141101000);</v>
+        <f t="shared" ref="C62:C125" si="3">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B62,"000);")</f>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141230000);</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>41943</v>
+        <v>42002</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="0"/>
-        <v>20141031</v>
+        <f t="shared" si="2"/>
+        <v>20141229</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141031000);</v>
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141229000);</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>41942</v>
+        <v>42001</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="0"/>
-        <v>20141030</v>
+        <f t="shared" si="2"/>
+        <v>20141228</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141030000);</v>
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141228000);</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>41941</v>
+        <v>42000</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="0"/>
-        <v>20141029</v>
+        <f t="shared" si="2"/>
+        <v>20141227</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141029000);</v>
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141227000);</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>41940</v>
+        <v>41999</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="0"/>
-        <v>20141028</v>
+        <f t="shared" si="2"/>
+        <v>20141226</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="1"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141028000);</v>
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141226000);</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>41939</v>
+        <v>41998</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B130" si="2">TEXT(A67,"yyyymmdd")</f>
-        <v>20141027</v>
+        <f t="shared" si="2"/>
+        <v>20141225</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C130" si="3">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B67,"000);")</f>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141027000);</v>
+        <f t="shared" si="3"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141225000);</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>41938</v>
+        <v>41997</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="2"/>
-        <v>20141026</v>
+        <v>20141224</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141026000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141224000);</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>41937</v>
+        <v>41996</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>20141025</v>
+        <v>20141223</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141025000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141223000);</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>41936</v>
+        <v>41995</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>20141024</v>
+        <v>20141222</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141024000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141222000);</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>41935</v>
+        <v>41994</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>20141023</v>
+        <v>20141221</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141023000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141221000);</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>41934</v>
+        <v>41993</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>20141022</v>
+        <v>20141220</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141022000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141220000);</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>41933</v>
+        <v>41992</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>20141021</v>
+        <v>20141219</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141021000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141219000);</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>41932</v>
+        <v>41991</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>20141020</v>
+        <v>20141218</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141020000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141218000);</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>41931</v>
+        <v>41990</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>20141019</v>
+        <v>20141217</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141019000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141217000);</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>41930</v>
+        <v>41989</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>20141018</v>
+        <v>20141216</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141018000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141216000);</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>41929</v>
+        <v>41988</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>20141017</v>
+        <v>20141215</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141017000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141215000);</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>41928</v>
+        <v>41987</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>20141016</v>
+        <v>20141214</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141016000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141214000);</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>41927</v>
+        <v>41986</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>20141015</v>
+        <v>20141213</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141015000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141213000);</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>41926</v>
+        <v>41985</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>20141014</v>
+        <v>20141212</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141014000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141212000);</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>41925</v>
+        <v>41984</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>20141013</v>
+        <v>20141211</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141013000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141211000);</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>41924</v>
+        <v>41983</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>20141012</v>
+        <v>20141210</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141012000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141210000);</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>41923</v>
+        <v>41982</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>20141011</v>
+        <v>20141209</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141011000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141209000);</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>41922</v>
+        <v>41981</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>20141010</v>
+        <v>20141208</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141010000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141208000);</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>41921</v>
+        <v>41980</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>20141009</v>
+        <v>20141207</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141009000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141207000);</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>41920</v>
+        <v>41979</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>20141008</v>
+        <v>20141206</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141008000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141206000);</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>41919</v>
+        <v>41978</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>20141007</v>
+        <v>20141205</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141007000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141205000);</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>41918</v>
+        <v>41977</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>20141006</v>
+        <v>20141204</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141006000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141204000);</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>41917</v>
+        <v>41976</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>20141005</v>
+        <v>20141203</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141005000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141203000);</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>41916</v>
+        <v>41975</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>20141004</v>
+        <v>20141202</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141004000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141202000);</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>41915</v>
+        <v>41974</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>20141003</v>
+        <v>20141201</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141003000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141201000);</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>41914</v>
+        <v>41973</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>20141002</v>
+        <v>20141130</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141002000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141130000);</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>41913</v>
+        <v>41972</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>20141001</v>
+        <v>20141129</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141001000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141129000);</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>41912</v>
+        <v>41971</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>20140930</v>
+        <v>20141128</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140930000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141128000);</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>41911</v>
+        <v>41970</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>20140929</v>
+        <v>20141127</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140929000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141127000);</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>41910</v>
+        <v>41969</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>20140928</v>
+        <v>20141126</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140928000);</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141126000);</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>41909</v>
+        <v>41968</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>20140927</v>
+        <v>20141125</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140927000);</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141125000);</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>41908</v>
+        <v>41967</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>20140926</v>
+        <v>20141124</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140926000);</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141124000);</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>41907</v>
+        <v>41966</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="2"/>
-        <v>20140925</v>
+        <v>20141123</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140925000);</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141123000);</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>41906</v>
+        <v>41965</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="2"/>
-        <v>20140924</v>
+        <v>20141122</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140924000);</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141122000);</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>41905</v>
+        <v>41964</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="2"/>
-        <v>20140923</v>
+        <v>20141121</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140923000);</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141121000);</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>41904</v>
+        <v>41963</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="2"/>
-        <v>20140922</v>
+        <v>20141120</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140922000);</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141120000);</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <v>41903</v>
+        <v>41962</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="2"/>
-        <v>20140921</v>
+        <v>20141119</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140921000);</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141119000);</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>41902</v>
+        <v>41961</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="2"/>
-        <v>20140920</v>
+        <v>20141118</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140920000);</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141118000);</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <v>41901</v>
+        <v>41960</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="2"/>
-        <v>20140919</v>
+        <v>20141117</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140919000);</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141117000);</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>41900</v>
+        <v>41959</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="2"/>
-        <v>20140918</v>
+        <v>20141116</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140918000);</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141116000);</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>41899</v>
+        <v>41958</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="2"/>
-        <v>20140917</v>
+        <v>20141115</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140917000);</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141115000);</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <v>41898</v>
+        <v>41957</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="2"/>
-        <v>20140916</v>
+        <v>20141114</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140916000);</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141114000);</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <v>41897</v>
+        <v>41956</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="2"/>
-        <v>20140915</v>
+        <v>20141113</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140915000);</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141113000);</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>41896</v>
+        <v>41955</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="2"/>
-        <v>20140914</v>
+        <v>20141112</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140914000);</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141112000);</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <v>41895</v>
+        <v>41954</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="2"/>
-        <v>20140913</v>
+        <v>20141111</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140913000);</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141111000);</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
-        <v>41894</v>
+        <v>41953</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="2"/>
-        <v>20140912</v>
+        <v>20141110</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140912000);</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141110000);</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
-        <v>41893</v>
+        <v>41952</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="2"/>
-        <v>20140911</v>
+        <v>20141109</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140911000);</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141109000);</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
-        <v>41892</v>
+        <v>41951</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="2"/>
-        <v>20140910</v>
+        <v>20141108</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140910000);</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141108000);</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
-        <v>41891</v>
+        <v>41950</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="2"/>
-        <v>20140909</v>
+        <v>20141107</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140909000);</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141107000);</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
-        <v>41890</v>
+        <v>41949</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="2"/>
-        <v>20140908</v>
+        <v>20141106</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140908000);</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141106000);</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
-        <v>41889</v>
+        <v>41948</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="2"/>
-        <v>20140907</v>
+        <v>20141105</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140907000);</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141105000);</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
-        <v>41888</v>
+        <v>41947</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="2"/>
-        <v>20140906</v>
+        <v>20141104</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140906000);</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141104000);</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
-        <v>41887</v>
+        <v>41946</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="2"/>
-        <v>20140905</v>
+        <v>20141103</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140905000);</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141103000);</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
-        <v>41886</v>
+        <v>41945</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="2"/>
-        <v>20140904</v>
+        <v>20141102</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140904000);</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141102000);</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
-        <v>41885</v>
+        <v>41944</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="2"/>
-        <v>20140903</v>
+        <v>20141101</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140903000);</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141101000);</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
-        <v>41884</v>
+        <v>41943</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="2"/>
-        <v>20140902</v>
+        <v>20141031</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140902000);</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141031000);</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
-        <v>41883</v>
+        <v>41942</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="2"/>
-        <v>20140901</v>
+        <v>20141030</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140901000);</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141030000);</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
-        <v>41882</v>
+        <v>41941</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="2"/>
-        <v>20140831</v>
+        <v>20141029</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140831000);</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141029000);</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
-        <v>41881</v>
+        <v>41940</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="2"/>
-        <v>20140830</v>
+        <v>20141028</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140830000);</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141028000);</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
-        <v>41880</v>
+        <v>41939</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="2"/>
-        <v>20140829</v>
+        <f t="shared" ref="B126:B189" si="4">TEXT(A126,"yyyymmdd")</f>
+        <v>20141027</v>
       </c>
       <c r="C126" t="str">
-        <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140829000);</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="C126:C189" si="5">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B126,"000);")</f>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141027000);</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
-        <v>41879</v>
+        <v>41938</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="2"/>
-        <v>20140828</v>
+        <f t="shared" si="4"/>
+        <v>20141026</v>
       </c>
       <c r="C127" t="str">
-        <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140828000);</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141026000);</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
-        <v>41878</v>
+        <v>41937</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="2"/>
-        <v>20140827</v>
+        <f t="shared" si="4"/>
+        <v>20141025</v>
       </c>
       <c r="C128" t="str">
-        <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140827000);</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141025000);</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
-        <v>41877</v>
+        <v>41936</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="2"/>
-        <v>20140826</v>
+        <f t="shared" si="4"/>
+        <v>20141024</v>
       </c>
       <c r="C129" t="str">
-        <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140826000);</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141024000);</v>
+      </c>
+      <c r="D129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
-        <v>41876</v>
+        <v>41935</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" si="2"/>
-        <v>20140825</v>
+        <f t="shared" si="4"/>
+        <v>20141023</v>
       </c>
       <c r="C130" t="str">
-        <f t="shared" si="3"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140825000);</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141023000);</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
-        <v>41875</v>
+        <v>41934</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" ref="B131:B194" si="4">TEXT(A131,"yyyymmdd")</f>
-        <v>20140824</v>
+        <f t="shared" si="4"/>
+        <v>20141022</v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" ref="C131:C194" si="5">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B131,"000);")</f>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140824000);</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141022000);</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
-        <v>41874</v>
+        <v>41933</v>
       </c>
       <c r="B132" t="str">
         <f t="shared" si="4"/>
-        <v>20140823</v>
+        <v>20141021</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140823000);</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141021000);</v>
+      </c>
+      <c r="D132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
-        <v>41873</v>
+        <v>41932</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" si="4"/>
-        <v>20140822</v>
+        <v>20141020</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140822000);</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141020000);</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
-        <v>41872</v>
+        <v>41931</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="4"/>
-        <v>20140821</v>
+        <v>20141019</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140821000);</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141019000);</v>
+      </c>
+      <c r="D134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
-        <v>41871</v>
+        <v>41930</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="4"/>
-        <v>20140820</v>
+        <v>20141018</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140820000);</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141018000);</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
-        <v>41870</v>
+        <v>41929</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="4"/>
-        <v>20140819</v>
+        <v>20141017</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140819000);</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141017000);</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
-        <v>41869</v>
+        <v>41928</v>
       </c>
       <c r="B137" t="str">
         <f t="shared" si="4"/>
-        <v>20140818</v>
+        <v>20141016</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140818000);</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141016000);</v>
+      </c>
+      <c r="D137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
-        <v>41868</v>
+        <v>41927</v>
       </c>
       <c r="B138" t="str">
         <f t="shared" si="4"/>
-        <v>20140817</v>
+        <v>20141015</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140817000);</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141015000);</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
-        <v>41867</v>
+        <v>41926</v>
       </c>
       <c r="B139" t="str">
         <f t="shared" si="4"/>
-        <v>20140816</v>
+        <v>20141014</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140816000);</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141014000);</v>
+      </c>
+      <c r="D139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
-        <v>41866</v>
+        <v>41925</v>
       </c>
       <c r="B140" t="str">
         <f t="shared" si="4"/>
-        <v>20140815</v>
+        <v>20141013</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140815000);</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141013000);</v>
+      </c>
+      <c r="D140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
-        <v>41865</v>
+        <v>41924</v>
       </c>
       <c r="B141" t="str">
         <f t="shared" si="4"/>
-        <v>20140814</v>
+        <v>20141012</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140814000);</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141012000);</v>
+      </c>
+      <c r="D141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
-        <v>41864</v>
+        <v>41923</v>
       </c>
       <c r="B142" t="str">
         <f t="shared" si="4"/>
-        <v>20140813</v>
+        <v>20141011</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140813000);</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141011000);</v>
+      </c>
+      <c r="D142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
-        <v>41863</v>
+        <v>41922</v>
       </c>
       <c r="B143" t="str">
         <f t="shared" si="4"/>
-        <v>20140812</v>
+        <v>20141010</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140812000);</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141010000);</v>
+      </c>
+      <c r="D143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
-        <v>41862</v>
+        <v>41921</v>
       </c>
       <c r="B144" t="str">
         <f t="shared" si="4"/>
-        <v>20140811</v>
+        <v>20141009</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140811000);</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141009000);</v>
+      </c>
+      <c r="D144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
-        <v>41861</v>
+        <v>41920</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="4"/>
-        <v>20140810</v>
+        <v>20141008</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140810000);</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141008000);</v>
+      </c>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
-        <v>41860</v>
+        <v>41919</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="4"/>
-        <v>20140809</v>
+        <v>20141007</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140809000);</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141007000);</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
-        <v>41859</v>
+        <v>41918</v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="4"/>
-        <v>20140808</v>
+        <v>20141006</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140808000);</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141006000);</v>
+      </c>
+      <c r="D147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
-        <v>41858</v>
+        <v>41917</v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="4"/>
-        <v>20140807</v>
+        <v>20141005</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140807000);</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141005000);</v>
+      </c>
+      <c r="D148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
-        <v>41857</v>
+        <v>41916</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="4"/>
-        <v>20140806</v>
+        <v>20141004</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140806000);</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141004000);</v>
+      </c>
+      <c r="D149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
-        <v>41856</v>
+        <v>41915</v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="4"/>
-        <v>20140805</v>
+        <v>20141003</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140805000);</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141003000);</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
-        <v>41855</v>
+        <v>41914</v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="4"/>
-        <v>20140804</v>
+        <v>20141002</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140804000);</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141002000);</v>
+      </c>
+      <c r="D151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
-        <v>41854</v>
+        <v>41913</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="4"/>
-        <v>20140803</v>
+        <v>20141001</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140803000);</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120141001000);</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
-        <v>41853</v>
+        <v>41912</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="4"/>
-        <v>20140802</v>
+        <v>20140930</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140802000);</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140930000);</v>
+      </c>
+      <c r="D153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
-        <v>41852</v>
+        <v>41911</v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="4"/>
-        <v>20140801</v>
+        <v>20140929</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140801000);</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140929000);</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
-        <v>41851</v>
+        <v>41910</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="4"/>
-        <v>20140731</v>
+        <v>20140928</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140731000);</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140928000);</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
-        <v>41850</v>
+        <v>41909</v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="4"/>
-        <v>20140730</v>
+        <v>20140927</v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140730000);</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140927000);</v>
+      </c>
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
-        <v>41849</v>
+        <v>41908</v>
       </c>
       <c r="B157" t="str">
         <f t="shared" si="4"/>
-        <v>20140729</v>
+        <v>20140926</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140729000);</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140926000);</v>
+      </c>
+      <c r="D157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
-        <v>41848</v>
+        <v>41907</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="4"/>
-        <v>20140728</v>
+        <v>20140925</v>
       </c>
       <c r="C158" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140728000);</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140925000);</v>
+      </c>
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
-        <v>41847</v>
+        <v>41906</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="4"/>
-        <v>20140727</v>
+        <v>20140924</v>
       </c>
       <c r="C159" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140727000);</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140924000);</v>
+      </c>
+      <c r="D159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
-        <v>41846</v>
+        <v>41905</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="4"/>
-        <v>20140726</v>
+        <v>20140923</v>
       </c>
       <c r="C160" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140726000);</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140923000);</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
-        <v>41845</v>
+        <v>41904</v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="4"/>
-        <v>20140725</v>
+        <v>20140922</v>
       </c>
       <c r="C161" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140725000);</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140922000);</v>
+      </c>
+      <c r="D161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
-        <v>41844</v>
+        <v>41903</v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="4"/>
-        <v>20140724</v>
+        <v>20140921</v>
       </c>
       <c r="C162" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140724000);</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140921000);</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
-        <v>41843</v>
+        <v>41902</v>
       </c>
       <c r="B163" t="str">
         <f t="shared" si="4"/>
-        <v>20140723</v>
+        <v>20140920</v>
       </c>
       <c r="C163" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140723000);</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140920000);</v>
+      </c>
+      <c r="D163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
-        <v>41842</v>
+        <v>41901</v>
       </c>
       <c r="B164" t="str">
         <f t="shared" si="4"/>
-        <v>20140722</v>
+        <v>20140919</v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140722000);</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140919000);</v>
+      </c>
+      <c r="D164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
-        <v>41841</v>
+        <v>41900</v>
       </c>
       <c r="B165" t="str">
         <f t="shared" si="4"/>
-        <v>20140721</v>
+        <v>20140918</v>
       </c>
       <c r="C165" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140721000);</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140918000);</v>
+      </c>
+      <c r="D165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
-        <v>41840</v>
+        <v>41899</v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="4"/>
-        <v>20140720</v>
+        <v>20140917</v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140720000);</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140917000);</v>
+      </c>
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
-        <v>41839</v>
+        <v>41898</v>
       </c>
       <c r="B167" t="str">
         <f t="shared" si="4"/>
-        <v>20140719</v>
+        <v>20140916</v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140719000);</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140916000);</v>
+      </c>
+      <c r="D167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
-        <v>41838</v>
+        <v>41897</v>
       </c>
       <c r="B168" t="str">
         <f t="shared" si="4"/>
-        <v>20140718</v>
+        <v>20140915</v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140718000);</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140915000);</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
-        <v>41837</v>
+        <v>41896</v>
       </c>
       <c r="B169" t="str">
         <f t="shared" si="4"/>
-        <v>20140717</v>
+        <v>20140914</v>
       </c>
       <c r="C169" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140717000);</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140914000);</v>
+      </c>
+      <c r="D169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
-        <v>41836</v>
+        <v>41895</v>
       </c>
       <c r="B170" t="str">
         <f t="shared" si="4"/>
-        <v>20140716</v>
+        <v>20140913</v>
       </c>
       <c r="C170" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140716000);</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140913000);</v>
+      </c>
+      <c r="D170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
-        <v>41835</v>
+        <v>41894</v>
       </c>
       <c r="B171" t="str">
         <f t="shared" si="4"/>
-        <v>20140715</v>
+        <v>20140912</v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140715000);</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140912000);</v>
+      </c>
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
-        <v>41834</v>
+        <v>41893</v>
       </c>
       <c r="B172" t="str">
         <f t="shared" si="4"/>
-        <v>20140714</v>
+        <v>20140911</v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140714000);</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140911000);</v>
+      </c>
+      <c r="D172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
-        <v>41833</v>
+        <v>41892</v>
       </c>
       <c r="B173" t="str">
         <f t="shared" si="4"/>
-        <v>20140713</v>
+        <v>20140910</v>
       </c>
       <c r="C173" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140713000);</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140910000);</v>
+      </c>
+      <c r="D173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
-        <v>41832</v>
+        <v>41891</v>
       </c>
       <c r="B174" t="str">
         <f t="shared" si="4"/>
-        <v>20140712</v>
+        <v>20140909</v>
       </c>
       <c r="C174" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140712000);</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140909000);</v>
+      </c>
+      <c r="D174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
-        <v>41831</v>
+        <v>41890</v>
       </c>
       <c r="B175" t="str">
         <f t="shared" si="4"/>
-        <v>20140711</v>
+        <v>20140908</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140711000);</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140908000);</v>
+      </c>
+      <c r="D175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
-        <v>41830</v>
+        <v>41889</v>
       </c>
       <c r="B176" t="str">
         <f t="shared" si="4"/>
-        <v>20140710</v>
+        <v>20140907</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140710000);</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140907000);</v>
+      </c>
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
-        <v>41829</v>
+        <v>41888</v>
       </c>
       <c r="B177" t="str">
         <f t="shared" si="4"/>
-        <v>20140709</v>
+        <v>20140906</v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140709000);</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140906000);</v>
+      </c>
+      <c r="D177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
-        <v>41828</v>
+        <v>41887</v>
       </c>
       <c r="B178" t="str">
         <f t="shared" si="4"/>
-        <v>20140708</v>
+        <v>20140905</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140708000);</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140905000);</v>
+      </c>
+      <c r="D178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
-        <v>41827</v>
+        <v>41886</v>
       </c>
       <c r="B179" t="str">
         <f t="shared" si="4"/>
-        <v>20140707</v>
+        <v>20140904</v>
       </c>
       <c r="C179" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140707000);</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140904000);</v>
+      </c>
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
-        <v>41826</v>
+        <v>41885</v>
       </c>
       <c r="B180" t="str">
         <f t="shared" si="4"/>
-        <v>20140706</v>
+        <v>20140903</v>
       </c>
       <c r="C180" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140706000);</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140903000);</v>
+      </c>
+      <c r="D180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
-        <v>41825</v>
+        <v>41884</v>
       </c>
       <c r="B181" t="str">
         <f t="shared" si="4"/>
-        <v>20140705</v>
+        <v>20140902</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140705000);</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140902000);</v>
+      </c>
+      <c r="D181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
-        <v>41824</v>
+        <v>41883</v>
       </c>
       <c r="B182" t="str">
         <f t="shared" si="4"/>
-        <v>20140704</v>
+        <v>20140901</v>
       </c>
       <c r="C182" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140704000);</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140901000);</v>
+      </c>
+      <c r="D182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
-        <v>41823</v>
+        <v>41882</v>
       </c>
       <c r="B183" t="str">
         <f t="shared" si="4"/>
-        <v>20140703</v>
+        <v>20140831</v>
       </c>
       <c r="C183" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140703000);</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140831000);</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
-        <v>41822</v>
+        <v>41881</v>
       </c>
       <c r="B184" t="str">
         <f t="shared" si="4"/>
-        <v>20140702</v>
+        <v>20140830</v>
       </c>
       <c r="C184" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140702000);</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140830000);</v>
+      </c>
+      <c r="D184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
-        <v>41821</v>
+        <v>41880</v>
       </c>
       <c r="B185" t="str">
         <f t="shared" si="4"/>
-        <v>20140701</v>
+        <v>20140829</v>
       </c>
       <c r="C185" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140701000);</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140829000);</v>
+      </c>
+      <c r="D185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
-        <v>41820</v>
+        <v>41879</v>
       </c>
       <c r="B186" t="str">
         <f t="shared" si="4"/>
-        <v>20140630</v>
+        <v>20140828</v>
       </c>
       <c r="C186" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140630000);</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140828000);</v>
+      </c>
+      <c r="D186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
-        <v>41819</v>
+        <v>41878</v>
       </c>
       <c r="B187" t="str">
         <f t="shared" si="4"/>
-        <v>20140629</v>
+        <v>20140827</v>
       </c>
       <c r="C187" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140629000);</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140827000);</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
-        <v>41818</v>
+        <v>41877</v>
       </c>
       <c r="B188" t="str">
         <f t="shared" si="4"/>
-        <v>20140628</v>
+        <v>20140826</v>
       </c>
       <c r="C188" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140628000);</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140826000);</v>
+      </c>
+      <c r="D188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
-        <v>41817</v>
+        <v>41876</v>
       </c>
       <c r="B189" t="str">
         <f t="shared" si="4"/>
-        <v>20140627</v>
+        <v>20140825</v>
       </c>
       <c r="C189" t="str">
         <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140627000);</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140825000);</v>
+      </c>
+      <c r="D189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
-        <v>41816</v>
+        <v>41875</v>
       </c>
       <c r="B190" t="str">
-        <f t="shared" si="4"/>
-        <v>20140626</v>
+        <f t="shared" ref="B190:B253" si="6">TEXT(A190,"yyyymmdd")</f>
+        <v>20140824</v>
       </c>
       <c r="C190" t="str">
-        <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140626000);</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="C190:C253" si="7">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B190,"000);")</f>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140824000);</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
-        <v>41815</v>
+        <v>41874</v>
       </c>
       <c r="B191" t="str">
-        <f t="shared" si="4"/>
-        <v>20140625</v>
+        <f t="shared" si="6"/>
+        <v>20140823</v>
       </c>
       <c r="C191" t="str">
-        <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140625000);</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140823000);</v>
+      </c>
+      <c r="D191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
-        <v>41814</v>
+        <v>41873</v>
       </c>
       <c r="B192" t="str">
-        <f t="shared" si="4"/>
-        <v>20140624</v>
+        <f t="shared" si="6"/>
+        <v>20140822</v>
       </c>
       <c r="C192" t="str">
-        <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140624000);</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140822000);</v>
+      </c>
+      <c r="D192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
-        <v>41813</v>
+        <v>41872</v>
       </c>
       <c r="B193" t="str">
-        <f t="shared" si="4"/>
-        <v>20140623</v>
+        <f t="shared" si="6"/>
+        <v>20140821</v>
       </c>
       <c r="C193" t="str">
-        <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140623000);</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140821000);</v>
+      </c>
+      <c r="D193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
-        <v>41812</v>
+        <v>41871</v>
       </c>
       <c r="B194" t="str">
-        <f t="shared" si="4"/>
-        <v>20140622</v>
+        <f t="shared" si="6"/>
+        <v>20140820</v>
       </c>
       <c r="C194" t="str">
-        <f t="shared" si="5"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140622000);</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140820000);</v>
+      </c>
+      <c r="D194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
-        <v>41811</v>
+        <v>41870</v>
       </c>
       <c r="B195" t="str">
-        <f t="shared" ref="B195:B258" si="6">TEXT(A195,"yyyymmdd")</f>
-        <v>20140621</v>
+        <f t="shared" si="6"/>
+        <v>20140819</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" ref="C195:C258" si="7">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B195,"000);")</f>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140621000);</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="7"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140819000);</v>
+      </c>
+      <c r="D195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
-        <v>41810</v>
+        <v>41869</v>
       </c>
       <c r="B196" t="str">
         <f t="shared" si="6"/>
-        <v>20140620</v>
+        <v>20140818</v>
       </c>
       <c r="C196" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140620000);</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140818000);</v>
+      </c>
+      <c r="D196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
-        <v>41809</v>
+        <v>41868</v>
       </c>
       <c r="B197" t="str">
         <f t="shared" si="6"/>
-        <v>20140619</v>
+        <v>20140817</v>
       </c>
       <c r="C197" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140619000);</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140817000);</v>
+      </c>
+      <c r="D197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
-        <v>41808</v>
+        <v>41867</v>
       </c>
       <c r="B198" t="str">
         <f t="shared" si="6"/>
-        <v>20140618</v>
+        <v>20140816</v>
       </c>
       <c r="C198" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140618000);</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140816000);</v>
+      </c>
+      <c r="D198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
-        <v>41807</v>
+        <v>41866</v>
       </c>
       <c r="B199" t="str">
         <f t="shared" si="6"/>
-        <v>20140617</v>
+        <v>20140815</v>
       </c>
       <c r="C199" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140617000);</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140815000);</v>
+      </c>
+      <c r="D199" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
-        <v>41806</v>
+        <v>41865</v>
       </c>
       <c r="B200" t="str">
         <f t="shared" si="6"/>
-        <v>20140616</v>
+        <v>20140814</v>
       </c>
       <c r="C200" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140616000);</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140814000);</v>
+      </c>
+      <c r="D200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
-        <v>41805</v>
+        <v>41864</v>
       </c>
       <c r="B201" t="str">
         <f t="shared" si="6"/>
-        <v>20140615</v>
+        <v>20140813</v>
       </c>
       <c r="C201" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140615000);</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140813000);</v>
+      </c>
+      <c r="D201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
-        <v>41804</v>
+        <v>41863</v>
       </c>
       <c r="B202" t="str">
         <f t="shared" si="6"/>
-        <v>20140614</v>
+        <v>20140812</v>
       </c>
       <c r="C202" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140614000);</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140812000);</v>
+      </c>
+      <c r="D202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
-        <v>41803</v>
+        <v>41862</v>
       </c>
       <c r="B203" t="str">
         <f t="shared" si="6"/>
-        <v>20140613</v>
+        <v>20140811</v>
       </c>
       <c r="C203" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140613000);</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140811000);</v>
+      </c>
+      <c r="D203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
-        <v>41802</v>
+        <v>41861</v>
       </c>
       <c r="B204" t="str">
         <f t="shared" si="6"/>
-        <v>20140612</v>
+        <v>20140810</v>
       </c>
       <c r="C204" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140612000);</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140810000);</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
-        <v>41801</v>
+        <v>41860</v>
       </c>
       <c r="B205" t="str">
         <f t="shared" si="6"/>
-        <v>20140611</v>
+        <v>20140809</v>
       </c>
       <c r="C205" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140611000);</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140809000);</v>
+      </c>
+      <c r="D205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
-        <v>41800</v>
+        <v>41859</v>
       </c>
       <c r="B206" t="str">
         <f t="shared" si="6"/>
-        <v>20140610</v>
+        <v>20140808</v>
       </c>
       <c r="C206" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140610000);</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140808000);</v>
+      </c>
+      <c r="D206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
-        <v>41799</v>
+        <v>41858</v>
       </c>
       <c r="B207" t="str">
         <f t="shared" si="6"/>
-        <v>20140609</v>
+        <v>20140807</v>
       </c>
       <c r="C207" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140609000);</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140807000);</v>
+      </c>
+      <c r="D207" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
-        <v>41798</v>
+        <v>41857</v>
       </c>
       <c r="B208" t="str">
         <f t="shared" si="6"/>
-        <v>20140608</v>
+        <v>20140806</v>
       </c>
       <c r="C208" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140608000);</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140806000);</v>
+      </c>
+      <c r="D208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
-        <v>41797</v>
+        <v>41856</v>
       </c>
       <c r="B209" t="str">
         <f t="shared" si="6"/>
-        <v>20140607</v>
+        <v>20140805</v>
       </c>
       <c r="C209" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140607000);</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140805000);</v>
+      </c>
+      <c r="D209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
-        <v>41796</v>
+        <v>41855</v>
       </c>
       <c r="B210" t="str">
         <f t="shared" si="6"/>
-        <v>20140606</v>
+        <v>20140804</v>
       </c>
       <c r="C210" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140606000);</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140804000);</v>
+      </c>
+      <c r="D210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
-        <v>41795</v>
+        <v>41854</v>
       </c>
       <c r="B211" t="str">
         <f t="shared" si="6"/>
-        <v>20140605</v>
+        <v>20140803</v>
       </c>
       <c r="C211" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140605000);</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140803000);</v>
+      </c>
+      <c r="D211" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
-        <v>41794</v>
+        <v>41853</v>
       </c>
       <c r="B212" t="str">
         <f t="shared" si="6"/>
-        <v>20140604</v>
+        <v>20140802</v>
       </c>
       <c r="C212" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140604000);</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140802000);</v>
+      </c>
+      <c r="D212" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
-        <v>41793</v>
+        <v>41852</v>
       </c>
       <c r="B213" t="str">
         <f t="shared" si="6"/>
-        <v>20140603</v>
+        <v>20140801</v>
       </c>
       <c r="C213" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140603000);</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140801000);</v>
+      </c>
+      <c r="D213" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
-        <v>41792</v>
+        <v>41851</v>
       </c>
       <c r="B214" t="str">
         <f t="shared" si="6"/>
-        <v>20140602</v>
+        <v>20140731</v>
       </c>
       <c r="C214" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140602000);</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140731000);</v>
+      </c>
+      <c r="D214" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
-        <v>41791</v>
+        <v>41850</v>
       </c>
       <c r="B215" t="str">
         <f t="shared" si="6"/>
-        <v>20140601</v>
+        <v>20140730</v>
       </c>
       <c r="C215" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140601000);</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140730000);</v>
+      </c>
+      <c r="D215" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
-        <v>41790</v>
+        <v>41849</v>
       </c>
       <c r="B216" t="str">
         <f t="shared" si="6"/>
-        <v>20140531</v>
+        <v>20140729</v>
       </c>
       <c r="C216" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140531000);</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140729000);</v>
+      </c>
+      <c r="D216" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
-        <v>41789</v>
+        <v>41848</v>
       </c>
       <c r="B217" t="str">
         <f t="shared" si="6"/>
-        <v>20140530</v>
+        <v>20140728</v>
       </c>
       <c r="C217" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140530000);</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140728000);</v>
+      </c>
+      <c r="D217" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
-        <v>41788</v>
+        <v>41847</v>
       </c>
       <c r="B218" t="str">
         <f t="shared" si="6"/>
-        <v>20140529</v>
+        <v>20140727</v>
       </c>
       <c r="C218" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140529000);</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140727000);</v>
+      </c>
+      <c r="D218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
-        <v>41787</v>
+        <v>41846</v>
       </c>
       <c r="B219" t="str">
         <f t="shared" si="6"/>
-        <v>20140528</v>
+        <v>20140726</v>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140528000);</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140726000);</v>
+      </c>
+      <c r="D219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
-        <v>41786</v>
+        <v>41845</v>
       </c>
       <c r="B220" t="str">
         <f t="shared" si="6"/>
-        <v>20140527</v>
+        <v>20140725</v>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140527000);</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140725000);</v>
+      </c>
+      <c r="D220" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
-        <v>41785</v>
+        <v>41844</v>
       </c>
       <c r="B221" t="str">
         <f t="shared" si="6"/>
-        <v>20140526</v>
+        <v>20140724</v>
       </c>
       <c r="C221" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140526000);</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140724000);</v>
+      </c>
+      <c r="D221" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
-        <v>41784</v>
+        <v>41843</v>
       </c>
       <c r="B222" t="str">
         <f t="shared" si="6"/>
-        <v>20140525</v>
+        <v>20140723</v>
       </c>
       <c r="C222" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140525000);</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140723000);</v>
+      </c>
+      <c r="D222" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
-        <v>41783</v>
+        <v>41842</v>
       </c>
       <c r="B223" t="str">
         <f t="shared" si="6"/>
-        <v>20140524</v>
+        <v>20140722</v>
       </c>
       <c r="C223" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140524000);</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140722000);</v>
+      </c>
+      <c r="D223" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
-        <v>41782</v>
+        <v>41841</v>
       </c>
       <c r="B224" t="str">
         <f t="shared" si="6"/>
-        <v>20140523</v>
+        <v>20140721</v>
       </c>
       <c r="C224" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140523000);</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140721000);</v>
+      </c>
+      <c r="D224" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
-        <v>41781</v>
+        <v>41840</v>
       </c>
       <c r="B225" t="str">
         <f t="shared" si="6"/>
-        <v>20140522</v>
+        <v>20140720</v>
       </c>
       <c r="C225" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140522000);</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140720000);</v>
+      </c>
+      <c r="D225" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
-        <v>41780</v>
+        <v>41839</v>
       </c>
       <c r="B226" t="str">
         <f t="shared" si="6"/>
-        <v>20140521</v>
+        <v>20140719</v>
       </c>
       <c r="C226" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140521000);</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140719000);</v>
+      </c>
+      <c r="D226" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
-        <v>41779</v>
+        <v>41838</v>
       </c>
       <c r="B227" t="str">
         <f t="shared" si="6"/>
-        <v>20140520</v>
+        <v>20140718</v>
       </c>
       <c r="C227" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140520000);</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140718000);</v>
+      </c>
+      <c r="D227" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
-        <v>41778</v>
+        <v>41837</v>
       </c>
       <c r="B228" t="str">
         <f t="shared" si="6"/>
-        <v>20140519</v>
+        <v>20140717</v>
       </c>
       <c r="C228" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140519000);</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140717000);</v>
+      </c>
+      <c r="D228" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
-        <v>41777</v>
+        <v>41836</v>
       </c>
       <c r="B229" t="str">
         <f t="shared" si="6"/>
-        <v>20140518</v>
+        <v>20140716</v>
       </c>
       <c r="C229" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140518000);</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140716000);</v>
+      </c>
+      <c r="D229" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
-        <v>41776</v>
+        <v>41835</v>
       </c>
       <c r="B230" t="str">
         <f t="shared" si="6"/>
-        <v>20140517</v>
+        <v>20140715</v>
       </c>
       <c r="C230" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140517000);</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140715000);</v>
+      </c>
+      <c r="D230" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
-        <v>41775</v>
+        <v>41834</v>
       </c>
       <c r="B231" t="str">
         <f t="shared" si="6"/>
-        <v>20140516</v>
+        <v>20140714</v>
       </c>
       <c r="C231" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140516000);</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140714000);</v>
+      </c>
+      <c r="D231" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
-        <v>41774</v>
+        <v>41833</v>
       </c>
       <c r="B232" t="str">
         <f t="shared" si="6"/>
-        <v>20140515</v>
+        <v>20140713</v>
       </c>
       <c r="C232" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140515000);</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140713000);</v>
+      </c>
+      <c r="D232" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
-        <v>41773</v>
+        <v>41832</v>
       </c>
       <c r="B233" t="str">
         <f t="shared" si="6"/>
-        <v>20140514</v>
+        <v>20140712</v>
       </c>
       <c r="C233" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140514000);</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140712000);</v>
+      </c>
+      <c r="D233" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
-        <v>41772</v>
+        <v>41831</v>
       </c>
       <c r="B234" t="str">
         <f t="shared" si="6"/>
-        <v>20140513</v>
+        <v>20140711</v>
       </c>
       <c r="C234" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140513000);</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140711000);</v>
+      </c>
+      <c r="D234" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
-        <v>41771</v>
+        <v>41830</v>
       </c>
       <c r="B235" t="str">
         <f t="shared" si="6"/>
-        <v>20140512</v>
+        <v>20140710</v>
       </c>
       <c r="C235" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140512000);</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140710000);</v>
+      </c>
+      <c r="D235" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
-        <v>41770</v>
+        <v>41829</v>
       </c>
       <c r="B236" t="str">
         <f t="shared" si="6"/>
-        <v>20140511</v>
+        <v>20140709</v>
       </c>
       <c r="C236" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140511000);</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140709000);</v>
+      </c>
+      <c r="D236" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
-        <v>41769</v>
+        <v>41828</v>
       </c>
       <c r="B237" t="str">
         <f t="shared" si="6"/>
-        <v>20140510</v>
+        <v>20140708</v>
       </c>
       <c r="C237" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140510000);</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140708000);</v>
+      </c>
+      <c r="D237" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
-        <v>41768</v>
+        <v>41827</v>
       </c>
       <c r="B238" t="str">
         <f t="shared" si="6"/>
-        <v>20140509</v>
+        <v>20140707</v>
       </c>
       <c r="C238" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140509000);</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140707000);</v>
+      </c>
+      <c r="D238" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
-        <v>41767</v>
+        <v>41826</v>
       </c>
       <c r="B239" t="str">
         <f t="shared" si="6"/>
-        <v>20140508</v>
+        <v>20140706</v>
       </c>
       <c r="C239" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140508000);</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140706000);</v>
+      </c>
+      <c r="D239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
-        <v>41766</v>
+        <v>41825</v>
       </c>
       <c r="B240" t="str">
         <f t="shared" si="6"/>
-        <v>20140507</v>
+        <v>20140705</v>
       </c>
       <c r="C240" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140507000);</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140705000);</v>
+      </c>
+      <c r="D240" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
-        <v>41765</v>
+        <v>41824</v>
       </c>
       <c r="B241" t="str">
         <f t="shared" si="6"/>
-        <v>20140506</v>
+        <v>20140704</v>
       </c>
       <c r="C241" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140506000);</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140704000);</v>
+      </c>
+      <c r="D241" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
-        <v>41764</v>
+        <v>41823</v>
       </c>
       <c r="B242" t="str">
         <f t="shared" si="6"/>
-        <v>20140505</v>
+        <v>20140703</v>
       </c>
       <c r="C242" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140505000);</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140703000);</v>
+      </c>
+      <c r="D242" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
-        <v>41763</v>
+        <v>41822</v>
       </c>
       <c r="B243" t="str">
         <f t="shared" si="6"/>
-        <v>20140504</v>
+        <v>20140702</v>
       </c>
       <c r="C243" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140504000);</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140702000);</v>
+      </c>
+      <c r="D243" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
-        <v>41762</v>
+        <v>41821</v>
       </c>
       <c r="B244" t="str">
         <f t="shared" si="6"/>
-        <v>20140503</v>
+        <v>20140701</v>
       </c>
       <c r="C244" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140503000);</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140701000);</v>
+      </c>
+      <c r="D244" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
-        <v>41761</v>
+        <v>41820</v>
       </c>
       <c r="B245" t="str">
         <f t="shared" si="6"/>
-        <v>20140502</v>
+        <v>20140630</v>
       </c>
       <c r="C245" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140502000);</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140630000);</v>
+      </c>
+      <c r="D245" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
-        <v>41760</v>
+        <v>41819</v>
       </c>
       <c r="B246" t="str">
         <f t="shared" si="6"/>
-        <v>20140501</v>
+        <v>20140629</v>
       </c>
       <c r="C246" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140501000);</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140629000);</v>
+      </c>
+      <c r="D246" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
-        <v>41759</v>
+        <v>41818</v>
       </c>
       <c r="B247" t="str">
         <f t="shared" si="6"/>
-        <v>20140430</v>
+        <v>20140628</v>
       </c>
       <c r="C247" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140430000);</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140628000);</v>
+      </c>
+      <c r="D247" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
-        <v>41758</v>
+        <v>41817</v>
       </c>
       <c r="B248" t="str">
         <f t="shared" si="6"/>
-        <v>20140429</v>
+        <v>20140627</v>
       </c>
       <c r="C248" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140429000);</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140627000);</v>
+      </c>
+      <c r="D248" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
-        <v>41757</v>
+        <v>41816</v>
       </c>
       <c r="B249" t="str">
         <f t="shared" si="6"/>
-        <v>20140428</v>
+        <v>20140626</v>
       </c>
       <c r="C249" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140428000);</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140626000);</v>
+      </c>
+      <c r="D249" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
-        <v>41756</v>
+        <v>41815</v>
       </c>
       <c r="B250" t="str">
         <f t="shared" si="6"/>
-        <v>20140427</v>
+        <v>20140625</v>
       </c>
       <c r="C250" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140427000);</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140625000);</v>
+      </c>
+      <c r="D250" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
-        <v>41755</v>
+        <v>41814</v>
       </c>
       <c r="B251" t="str">
         <f t="shared" si="6"/>
-        <v>20140426</v>
+        <v>20140624</v>
       </c>
       <c r="C251" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140426000);</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140624000);</v>
+      </c>
+      <c r="D251" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
-        <v>41754</v>
+        <v>41813</v>
       </c>
       <c r="B252" t="str">
         <f t="shared" si="6"/>
-        <v>20140425</v>
+        <v>20140623</v>
       </c>
       <c r="C252" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140425000);</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140623000);</v>
+      </c>
+      <c r="D252" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
-        <v>41753</v>
+        <v>41812</v>
       </c>
       <c r="B253" t="str">
         <f t="shared" si="6"/>
-        <v>20140424</v>
+        <v>20140622</v>
       </c>
       <c r="C253" t="str">
         <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140424000);</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140622000);</v>
+      </c>
+      <c r="D253" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
-        <v>41752</v>
+        <v>41811</v>
       </c>
       <c r="B254" t="str">
-        <f t="shared" si="6"/>
-        <v>20140423</v>
+        <f t="shared" ref="B254:B317" si="8">TEXT(A254,"yyyymmdd")</f>
+        <v>20140621</v>
       </c>
       <c r="C254" t="str">
-        <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140423000);</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" ref="C254:C317" si="9">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B254,"000);")</f>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140621000);</v>
+      </c>
+      <c r="D254" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
-        <v>41751</v>
+        <v>41810</v>
       </c>
       <c r="B255" t="str">
-        <f t="shared" si="6"/>
-        <v>20140422</v>
+        <f t="shared" si="8"/>
+        <v>20140620</v>
       </c>
       <c r="C255" t="str">
-        <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140422000);</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140620000);</v>
+      </c>
+      <c r="D255" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
-        <v>41750</v>
+        <v>41809</v>
       </c>
       <c r="B256" t="str">
-        <f t="shared" si="6"/>
-        <v>20140421</v>
+        <f t="shared" si="8"/>
+        <v>20140619</v>
       </c>
       <c r="C256" t="str">
-        <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140421000);</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140619000);</v>
+      </c>
+      <c r="D256" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
-        <v>41749</v>
+        <v>41808</v>
       </c>
       <c r="B257" t="str">
-        <f t="shared" si="6"/>
-        <v>20140420</v>
+        <f t="shared" si="8"/>
+        <v>20140618</v>
       </c>
       <c r="C257" t="str">
-        <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140420000);</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140618000);</v>
+      </c>
+      <c r="D257" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
-        <v>41748</v>
+        <v>41807</v>
       </c>
       <c r="B258" t="str">
-        <f t="shared" si="6"/>
-        <v>20140419</v>
+        <f t="shared" si="8"/>
+        <v>20140617</v>
       </c>
       <c r="C258" t="str">
-        <f t="shared" si="7"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140419000);</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140617000);</v>
+      </c>
+      <c r="D258" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
-        <v>41747</v>
+        <v>41806</v>
       </c>
       <c r="B259" t="str">
-        <f t="shared" ref="B259:B322" si="8">TEXT(A259,"yyyymmdd")</f>
-        <v>20140418</v>
+        <f t="shared" si="8"/>
+        <v>20140616</v>
       </c>
       <c r="C259" t="str">
-        <f t="shared" ref="C259:C322" si="9">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B259,"000);")</f>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140418000);</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140616000);</v>
+      </c>
+      <c r="D259" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
-        <v>41746</v>
+        <v>41805</v>
       </c>
       <c r="B260" t="str">
         <f t="shared" si="8"/>
-        <v>20140417</v>
+        <v>20140615</v>
       </c>
       <c r="C260" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140417000);</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140615000);</v>
+      </c>
+      <c r="D260" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
-        <v>41745</v>
+        <v>41804</v>
       </c>
       <c r="B261" t="str">
         <f t="shared" si="8"/>
-        <v>20140416</v>
+        <v>20140614</v>
       </c>
       <c r="C261" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140416000);</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140614000);</v>
+      </c>
+      <c r="D261" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
-        <v>41744</v>
+        <v>41803</v>
       </c>
       <c r="B262" t="str">
         <f t="shared" si="8"/>
-        <v>20140415</v>
+        <v>20140613</v>
       </c>
       <c r="C262" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140415000);</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140613000);</v>
+      </c>
+      <c r="D262" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
-        <v>41743</v>
+        <v>41802</v>
       </c>
       <c r="B263" t="str">
         <f t="shared" si="8"/>
-        <v>20140414</v>
+        <v>20140612</v>
       </c>
       <c r="C263" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140414000);</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140612000);</v>
+      </c>
+      <c r="D263" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
-        <v>41742</v>
+        <v>41801</v>
       </c>
       <c r="B264" t="str">
         <f t="shared" si="8"/>
-        <v>20140413</v>
+        <v>20140611</v>
       </c>
       <c r="C264" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140413000);</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140611000);</v>
+      </c>
+      <c r="D264" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
-        <v>41741</v>
+        <v>41800</v>
       </c>
       <c r="B265" t="str">
         <f t="shared" si="8"/>
-        <v>20140412</v>
+        <v>20140610</v>
       </c>
       <c r="C265" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140412000);</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140610000);</v>
+      </c>
+      <c r="D265" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
-        <v>41740</v>
+        <v>41799</v>
       </c>
       <c r="B266" t="str">
         <f t="shared" si="8"/>
-        <v>20140411</v>
+        <v>20140609</v>
       </c>
       <c r="C266" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140411000);</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140609000);</v>
+      </c>
+      <c r="D266" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
-        <v>41739</v>
+        <v>41798</v>
       </c>
       <c r="B267" t="str">
         <f t="shared" si="8"/>
-        <v>20140410</v>
+        <v>20140608</v>
       </c>
       <c r="C267" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140410000);</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140608000);</v>
+      </c>
+      <c r="D267" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
-        <v>41738</v>
+        <v>41797</v>
       </c>
       <c r="B268" t="str">
         <f t="shared" si="8"/>
-        <v>20140409</v>
+        <v>20140607</v>
       </c>
       <c r="C268" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140409000);</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140607000);</v>
+      </c>
+      <c r="D268" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
-        <v>41737</v>
+        <v>41796</v>
       </c>
       <c r="B269" t="str">
         <f t="shared" si="8"/>
-        <v>20140408</v>
+        <v>20140606</v>
       </c>
       <c r="C269" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140408000);</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140606000);</v>
+      </c>
+      <c r="D269" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
-        <v>41736</v>
+        <v>41795</v>
       </c>
       <c r="B270" t="str">
         <f t="shared" si="8"/>
-        <v>20140407</v>
+        <v>20140605</v>
       </c>
       <c r="C270" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140407000);</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140605000);</v>
+      </c>
+      <c r="D270" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
-        <v>41735</v>
+        <v>41794</v>
       </c>
       <c r="B271" t="str">
         <f t="shared" si="8"/>
-        <v>20140406</v>
+        <v>20140604</v>
       </c>
       <c r="C271" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140406000);</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140604000);</v>
+      </c>
+      <c r="D271" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
-        <v>41734</v>
+        <v>41793</v>
       </c>
       <c r="B272" t="str">
         <f t="shared" si="8"/>
-        <v>20140405</v>
+        <v>20140603</v>
       </c>
       <c r="C272" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140405000);</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140603000);</v>
+      </c>
+      <c r="D272" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
-        <v>41733</v>
+        <v>41792</v>
       </c>
       <c r="B273" t="str">
         <f t="shared" si="8"/>
-        <v>20140404</v>
+        <v>20140602</v>
       </c>
       <c r="C273" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140404000);</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140602000);</v>
+      </c>
+      <c r="D273" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
-        <v>41732</v>
+        <v>41791</v>
       </c>
       <c r="B274" t="str">
         <f t="shared" si="8"/>
-        <v>20140403</v>
+        <v>20140601</v>
       </c>
       <c r="C274" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140403000);</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140601000);</v>
+      </c>
+      <c r="D274" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
-        <v>41731</v>
+        <v>41790</v>
       </c>
       <c r="B275" t="str">
         <f t="shared" si="8"/>
-        <v>20140402</v>
+        <v>20140531</v>
       </c>
       <c r="C275" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140402000);</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140531000);</v>
+      </c>
+      <c r="D275" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
-        <v>41730</v>
+        <v>41789</v>
       </c>
       <c r="B276" t="str">
         <f t="shared" si="8"/>
-        <v>20140401</v>
+        <v>20140530</v>
       </c>
       <c r="C276" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140401000);</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140530000);</v>
+      </c>
+      <c r="D276" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
-        <v>41729</v>
+        <v>41788</v>
       </c>
       <c r="B277" t="str">
         <f t="shared" si="8"/>
-        <v>20140331</v>
+        <v>20140529</v>
       </c>
       <c r="C277" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140331000);</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140529000);</v>
+      </c>
+      <c r="D277" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
-        <v>41728</v>
+        <v>41787</v>
       </c>
       <c r="B278" t="str">
         <f t="shared" si="8"/>
-        <v>20140330</v>
+        <v>20140528</v>
       </c>
       <c r="C278" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140330000);</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140528000);</v>
+      </c>
+      <c r="D278" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
-        <v>41727</v>
+        <v>41786</v>
       </c>
       <c r="B279" t="str">
         <f t="shared" si="8"/>
-        <v>20140329</v>
+        <v>20140527</v>
       </c>
       <c r="C279" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140329000);</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140527000);</v>
+      </c>
+      <c r="D279" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
-        <v>41726</v>
+        <v>41785</v>
       </c>
       <c r="B280" t="str">
         <f t="shared" si="8"/>
-        <v>20140328</v>
+        <v>20140526</v>
       </c>
       <c r="C280" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140328000);</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140526000);</v>
+      </c>
+      <c r="D280" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
-        <v>41725</v>
+        <v>41784</v>
       </c>
       <c r="B281" t="str">
         <f t="shared" si="8"/>
-        <v>20140327</v>
+        <v>20140525</v>
       </c>
       <c r="C281" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140327000);</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140525000);</v>
+      </c>
+      <c r="D281" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
-        <v>41724</v>
+        <v>41783</v>
       </c>
       <c r="B282" t="str">
         <f t="shared" si="8"/>
-        <v>20140326</v>
+        <v>20140524</v>
       </c>
       <c r="C282" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140326000);</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140524000);</v>
+      </c>
+      <c r="D282" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
-        <v>41723</v>
+        <v>41782</v>
       </c>
       <c r="B283" t="str">
         <f t="shared" si="8"/>
-        <v>20140325</v>
+        <v>20140523</v>
       </c>
       <c r="C283" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140325000);</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140523000);</v>
+      </c>
+      <c r="D283" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
-        <v>41722</v>
+        <v>41781</v>
       </c>
       <c r="B284" t="str">
         <f t="shared" si="8"/>
-        <v>20140324</v>
+        <v>20140522</v>
       </c>
       <c r="C284" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140324000);</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140522000);</v>
+      </c>
+      <c r="D284" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
-        <v>41721</v>
+        <v>41780</v>
       </c>
       <c r="B285" t="str">
         <f t="shared" si="8"/>
-        <v>20140323</v>
+        <v>20140521</v>
       </c>
       <c r="C285" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140323000);</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140521000);</v>
+      </c>
+      <c r="D285" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
-        <v>41720</v>
+        <v>41779</v>
       </c>
       <c r="B286" t="str">
         <f t="shared" si="8"/>
-        <v>20140322</v>
+        <v>20140520</v>
       </c>
       <c r="C286" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140322000);</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140520000);</v>
+      </c>
+      <c r="D286" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
-        <v>41719</v>
+        <v>41778</v>
       </c>
       <c r="B287" t="str">
         <f t="shared" si="8"/>
-        <v>20140321</v>
+        <v>20140519</v>
       </c>
       <c r="C287" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140321000);</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140519000);</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
-        <v>41718</v>
+        <v>41777</v>
       </c>
       <c r="B288" t="str">
         <f t="shared" si="8"/>
-        <v>20140320</v>
+        <v>20140518</v>
       </c>
       <c r="C288" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140320000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140518000);</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
-        <v>41717</v>
+        <v>41776</v>
       </c>
       <c r="B289" t="str">
         <f t="shared" si="8"/>
-        <v>20140319</v>
+        <v>20140517</v>
       </c>
       <c r="C289" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140319000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140517000);</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
-        <v>41716</v>
+        <v>41775</v>
       </c>
       <c r="B290" t="str">
         <f t="shared" si="8"/>
-        <v>20140318</v>
+        <v>20140516</v>
       </c>
       <c r="C290" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140318000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140516000);</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
-        <v>41715</v>
+        <v>41774</v>
       </c>
       <c r="B291" t="str">
         <f t="shared" si="8"/>
-        <v>20140317</v>
+        <v>20140515</v>
       </c>
       <c r="C291" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140317000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140515000);</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
-        <v>41714</v>
+        <v>41773</v>
       </c>
       <c r="B292" t="str">
         <f t="shared" si="8"/>
-        <v>20140316</v>
+        <v>20140514</v>
       </c>
       <c r="C292" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140316000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140514000);</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
-        <v>41713</v>
+        <v>41772</v>
       </c>
       <c r="B293" t="str">
         <f t="shared" si="8"/>
-        <v>20140315</v>
+        <v>20140513</v>
       </c>
       <c r="C293" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140315000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140513000);</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
-        <v>41712</v>
+        <v>41771</v>
       </c>
       <c r="B294" t="str">
         <f t="shared" si="8"/>
-        <v>20140314</v>
+        <v>20140512</v>
       </c>
       <c r="C294" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140314000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140512000);</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
-        <v>41711</v>
+        <v>41770</v>
       </c>
       <c r="B295" t="str">
         <f t="shared" si="8"/>
-        <v>20140313</v>
+        <v>20140511</v>
       </c>
       <c r="C295" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140313000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140511000);</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
-        <v>41710</v>
+        <v>41769</v>
       </c>
       <c r="B296" t="str">
         <f t="shared" si="8"/>
-        <v>20140312</v>
+        <v>20140510</v>
       </c>
       <c r="C296" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140312000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140510000);</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
-        <v>41709</v>
+        <v>41768</v>
       </c>
       <c r="B297" t="str">
         <f t="shared" si="8"/>
-        <v>20140311</v>
+        <v>20140509</v>
       </c>
       <c r="C297" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140311000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140509000);</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
-        <v>41708</v>
+        <v>41767</v>
       </c>
       <c r="B298" t="str">
         <f t="shared" si="8"/>
-        <v>20140310</v>
+        <v>20140508</v>
       </c>
       <c r="C298" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140310000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140508000);</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
-        <v>41707</v>
+        <v>41766</v>
       </c>
       <c r="B299" t="str">
         <f t="shared" si="8"/>
-        <v>20140309</v>
+        <v>20140507</v>
       </c>
       <c r="C299" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140309000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140507000);</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
-        <v>41706</v>
+        <v>41765</v>
       </c>
       <c r="B300" t="str">
         <f t="shared" si="8"/>
-        <v>20140308</v>
+        <v>20140506</v>
       </c>
       <c r="C300" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140308000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140506000);</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
-        <v>41705</v>
+        <v>41764</v>
       </c>
       <c r="B301" t="str">
         <f t="shared" si="8"/>
-        <v>20140307</v>
+        <v>20140505</v>
       </c>
       <c r="C301" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140307000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140505000);</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
-        <v>41704</v>
+        <v>41763</v>
       </c>
       <c r="B302" t="str">
         <f t="shared" si="8"/>
-        <v>20140306</v>
+        <v>20140504</v>
       </c>
       <c r="C302" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140306000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140504000);</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
-        <v>41703</v>
+        <v>41762</v>
       </c>
       <c r="B303" t="str">
         <f t="shared" si="8"/>
-        <v>20140305</v>
+        <v>20140503</v>
       </c>
       <c r="C303" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140305000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140503000);</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
-        <v>41702</v>
+        <v>41761</v>
       </c>
       <c r="B304" t="str">
         <f t="shared" si="8"/>
-        <v>20140304</v>
+        <v>20140502</v>
       </c>
       <c r="C304" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140304000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140502000);</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A305" s="1">
-        <v>41701</v>
+        <v>41760</v>
       </c>
       <c r="B305" t="str">
         <f t="shared" si="8"/>
-        <v>20140303</v>
+        <v>20140501</v>
       </c>
       <c r="C305" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140303000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140501000);</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A306" s="1">
-        <v>41700</v>
+        <v>41759</v>
       </c>
       <c r="B306" t="str">
         <f t="shared" si="8"/>
-        <v>20140302</v>
+        <v>20140430</v>
       </c>
       <c r="C306" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140302000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140430000);</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
-        <v>41699</v>
+        <v>41758</v>
       </c>
       <c r="B307" t="str">
         <f t="shared" si="8"/>
-        <v>20140301</v>
+        <v>20140429</v>
       </c>
       <c r="C307" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140301000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140429000);</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A308" s="1">
-        <v>41698</v>
+        <v>41757</v>
       </c>
       <c r="B308" t="str">
         <f t="shared" si="8"/>
-        <v>20140228</v>
+        <v>20140428</v>
       </c>
       <c r="C308" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140228000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140428000);</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
-        <v>41697</v>
+        <v>41756</v>
       </c>
       <c r="B309" t="str">
         <f t="shared" si="8"/>
-        <v>20140227</v>
+        <v>20140427</v>
       </c>
       <c r="C309" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140227000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140427000);</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310" s="1">
-        <v>41696</v>
+        <v>41755</v>
       </c>
       <c r="B310" t="str">
         <f t="shared" si="8"/>
-        <v>20140226</v>
+        <v>20140426</v>
       </c>
       <c r="C310" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140226000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140426000);</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
-        <v>41695</v>
+        <v>41754</v>
       </c>
       <c r="B311" t="str">
         <f t="shared" si="8"/>
-        <v>20140225</v>
+        <v>20140425</v>
       </c>
       <c r="C311" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140225000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140425000);</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" s="1">
-        <v>41694</v>
+        <v>41753</v>
       </c>
       <c r="B312" t="str">
         <f t="shared" si="8"/>
-        <v>20140224</v>
+        <v>20140424</v>
       </c>
       <c r="C312" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140224000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140424000);</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
-        <v>41693</v>
+        <v>41752</v>
       </c>
       <c r="B313" t="str">
         <f t="shared" si="8"/>
-        <v>20140223</v>
+        <v>20140423</v>
       </c>
       <c r="C313" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140223000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140423000);</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" s="1">
-        <v>41692</v>
+        <v>41751</v>
       </c>
       <c r="B314" t="str">
         <f t="shared" si="8"/>
-        <v>20140222</v>
+        <v>20140422</v>
       </c>
       <c r="C314" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140222000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140422000);</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A315" s="1">
-        <v>41691</v>
+        <v>41750</v>
       </c>
       <c r="B315" t="str">
         <f t="shared" si="8"/>
-        <v>20140221</v>
+        <v>20140421</v>
       </c>
       <c r="C315" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140221000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140421000);</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" s="1">
-        <v>41690</v>
+        <v>41749</v>
       </c>
       <c r="B316" t="str">
         <f t="shared" si="8"/>
-        <v>20140220</v>
+        <v>20140420</v>
       </c>
       <c r="C316" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140220000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140420000);</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
-        <v>41689</v>
+        <v>41748</v>
       </c>
       <c r="B317" t="str">
         <f t="shared" si="8"/>
-        <v>20140219</v>
+        <v>20140419</v>
       </c>
       <c r="C317" t="str">
         <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140219000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140419000);</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A318" s="1">
-        <v>41688</v>
+        <v>41747</v>
       </c>
       <c r="B318" t="str">
-        <f t="shared" si="8"/>
-        <v>20140218</v>
+        <f t="shared" ref="B318:B381" si="10">TEXT(A318,"yyyymmdd")</f>
+        <v>20140418</v>
       </c>
       <c r="C318" t="str">
-        <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140218000);</v>
+        <f t="shared" ref="C318:C381" si="11">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B318,"000);")</f>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140418000);</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A319" s="1">
-        <v>41687</v>
+        <v>41746</v>
       </c>
       <c r="B319" t="str">
-        <f t="shared" si="8"/>
-        <v>20140217</v>
+        <f t="shared" si="10"/>
+        <v>20140417</v>
       </c>
       <c r="C319" t="str">
-        <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140217000);</v>
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140417000);</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
-        <v>41686</v>
+        <v>41745</v>
       </c>
       <c r="B320" t="str">
-        <f t="shared" si="8"/>
-        <v>20140216</v>
+        <f t="shared" si="10"/>
+        <v>20140416</v>
       </c>
       <c r="C320" t="str">
-        <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140216000);</v>
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140416000);</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A321" s="1">
-        <v>41685</v>
+        <v>41744</v>
       </c>
       <c r="B321" t="str">
-        <f t="shared" si="8"/>
-        <v>20140215</v>
+        <f t="shared" si="10"/>
+        <v>20140415</v>
       </c>
       <c r="C321" t="str">
-        <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140215000);</v>
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140415000);</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A322" s="1">
-        <v>41684</v>
+        <v>41743</v>
       </c>
       <c r="B322" t="str">
-        <f t="shared" si="8"/>
-        <v>20140214</v>
+        <f t="shared" si="10"/>
+        <v>20140414</v>
       </c>
       <c r="C322" t="str">
-        <f t="shared" si="9"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140214000);</v>
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140414000);</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
-        <v>41683</v>
+        <v>41742</v>
       </c>
       <c r="B323" t="str">
-        <f t="shared" ref="B323:B366" si="10">TEXT(A323,"yyyymmdd")</f>
-        <v>20140213</v>
+        <f t="shared" si="10"/>
+        <v>20140413</v>
       </c>
       <c r="C323" t="str">
-        <f t="shared" ref="C323:C366" si="11">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B323,"000);")</f>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140213000);</v>
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140413000);</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
-        <v>41682</v>
+        <v>41741</v>
       </c>
       <c r="B324" t="str">
         <f t="shared" si="10"/>
-        <v>20140212</v>
+        <v>20140412</v>
       </c>
       <c r="C324" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140212000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140412000);</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A325" s="1">
-        <v>41681</v>
+        <v>41740</v>
       </c>
       <c r="B325" t="str">
         <f t="shared" si="10"/>
-        <v>20140211</v>
+        <v>20140411</v>
       </c>
       <c r="C325" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140211000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140411000);</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A326" s="1">
-        <v>41680</v>
+        <v>41739</v>
       </c>
       <c r="B326" t="str">
         <f t="shared" si="10"/>
-        <v>20140210</v>
+        <v>20140410</v>
       </c>
       <c r="C326" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140210000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140410000);</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
-        <v>41679</v>
+        <v>41738</v>
       </c>
       <c r="B327" t="str">
         <f t="shared" si="10"/>
-        <v>20140209</v>
+        <v>20140409</v>
       </c>
       <c r="C327" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140209000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140409000);</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
-        <v>41678</v>
+        <v>41737</v>
       </c>
       <c r="B328" t="str">
         <f t="shared" si="10"/>
-        <v>20140208</v>
+        <v>20140408</v>
       </c>
       <c r="C328" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140208000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140408000);</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A329" s="1">
-        <v>41677</v>
+        <v>41736</v>
       </c>
       <c r="B329" t="str">
         <f t="shared" si="10"/>
-        <v>20140207</v>
+        <v>20140407</v>
       </c>
       <c r="C329" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140207000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140407000);</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
-        <v>41676</v>
+        <v>41735</v>
       </c>
       <c r="B330" t="str">
         <f t="shared" si="10"/>
-        <v>20140206</v>
+        <v>20140406</v>
       </c>
       <c r="C330" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140206000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140406000);</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A331" s="1">
-        <v>41675</v>
+        <v>41734</v>
       </c>
       <c r="B331" t="str">
         <f t="shared" si="10"/>
-        <v>20140205</v>
+        <v>20140405</v>
       </c>
       <c r="C331" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140205000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140405000);</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
-        <v>41674</v>
+        <v>41733</v>
       </c>
       <c r="B332" t="str">
         <f t="shared" si="10"/>
-        <v>20140204</v>
+        <v>20140404</v>
       </c>
       <c r="C332" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140204000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140404000);</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
-        <v>41673</v>
+        <v>41732</v>
       </c>
       <c r="B333" t="str">
         <f t="shared" si="10"/>
-        <v>20140203</v>
+        <v>20140403</v>
       </c>
       <c r="C333" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140203000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140403000);</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A334" s="1">
-        <v>41672</v>
+        <v>41731</v>
       </c>
       <c r="B334" t="str">
         <f t="shared" si="10"/>
-        <v>20140202</v>
+        <v>20140402</v>
       </c>
       <c r="C334" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140202000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140402000);</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A335" s="1">
-        <v>41671</v>
+        <v>41730</v>
       </c>
       <c r="B335" t="str">
         <f t="shared" si="10"/>
-        <v>20140201</v>
+        <v>20140401</v>
       </c>
       <c r="C335" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140201000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140401000);</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A336" s="1">
-        <v>41670</v>
+        <v>41729</v>
       </c>
       <c r="B336" t="str">
         <f t="shared" si="10"/>
-        <v>20140131</v>
+        <v>20140331</v>
       </c>
       <c r="C336" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140131000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140331000);</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
-        <v>41669</v>
+        <v>41728</v>
       </c>
       <c r="B337" t="str">
         <f t="shared" si="10"/>
-        <v>20140130</v>
+        <v>20140330</v>
       </c>
       <c r="C337" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140130000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140330000);</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A338" s="1">
-        <v>41668</v>
+        <v>41727</v>
       </c>
       <c r="B338" t="str">
         <f t="shared" si="10"/>
-        <v>20140129</v>
+        <v>20140329</v>
       </c>
       <c r="C338" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140129000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140329000);</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A339" s="1">
-        <v>41667</v>
+        <v>41726</v>
       </c>
       <c r="B339" t="str">
         <f t="shared" si="10"/>
-        <v>20140128</v>
+        <v>20140328</v>
       </c>
       <c r="C339" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140128000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140328000);</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
-        <v>41666</v>
+        <v>41725</v>
       </c>
       <c r="B340" t="str">
         <f t="shared" si="10"/>
-        <v>20140127</v>
+        <v>20140327</v>
       </c>
       <c r="C340" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140127000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140327000);</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A341" s="1">
-        <v>41665</v>
+        <v>41724</v>
       </c>
       <c r="B341" t="str">
         <f t="shared" si="10"/>
-        <v>20140126</v>
+        <v>20140326</v>
       </c>
       <c r="C341" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140126000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140326000);</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
-        <v>41664</v>
+        <v>41723</v>
       </c>
       <c r="B342" t="str">
         <f t="shared" si="10"/>
-        <v>20140125</v>
+        <v>20140325</v>
       </c>
       <c r="C342" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140125000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140325000);</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
-        <v>41663</v>
+        <v>41722</v>
       </c>
       <c r="B343" t="str">
         <f t="shared" si="10"/>
-        <v>20140124</v>
+        <v>20140324</v>
       </c>
       <c r="C343" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140124000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140324000);</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
-        <v>41662</v>
+        <v>41721</v>
       </c>
       <c r="B344" t="str">
         <f t="shared" si="10"/>
-        <v>20140123</v>
+        <v>20140323</v>
       </c>
       <c r="C344" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140123000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140323000);</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
-        <v>41661</v>
+        <v>41720</v>
       </c>
       <c r="B345" t="str">
         <f t="shared" si="10"/>
-        <v>20140122</v>
+        <v>20140322</v>
       </c>
       <c r="C345" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140122000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140322000);</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
-        <v>41660</v>
+        <v>41719</v>
       </c>
       <c r="B346" t="str">
         <f t="shared" si="10"/>
-        <v>20140121</v>
+        <v>20140321</v>
       </c>
       <c r="C346" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140121000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140321000);</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A347" s="1">
-        <v>41659</v>
+        <v>41718</v>
       </c>
       <c r="B347" t="str">
         <f t="shared" si="10"/>
-        <v>20140120</v>
+        <v>20140320</v>
       </c>
       <c r="C347" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140120000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140320000);</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
-        <v>41658</v>
+        <v>41717</v>
       </c>
       <c r="B348" t="str">
         <f t="shared" si="10"/>
-        <v>20140119</v>
+        <v>20140319</v>
       </c>
       <c r="C348" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140119000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140319000);</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A349" s="1">
-        <v>41657</v>
+        <v>41716</v>
       </c>
       <c r="B349" t="str">
         <f t="shared" si="10"/>
-        <v>20140118</v>
+        <v>20140318</v>
       </c>
       <c r="C349" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140118000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140318000);</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
-        <v>41656</v>
+        <v>41715</v>
       </c>
       <c r="B350" t="str">
         <f t="shared" si="10"/>
-        <v>20140117</v>
+        <v>20140317</v>
       </c>
       <c r="C350" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140117000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140317000);</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A351" s="1">
-        <v>41655</v>
+        <v>41714</v>
       </c>
       <c r="B351" t="str">
         <f t="shared" si="10"/>
-        <v>20140116</v>
+        <v>20140316</v>
       </c>
       <c r="C351" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140116000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140316000);</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A352" s="1">
-        <v>41654</v>
+        <v>41713</v>
       </c>
       <c r="B352" t="str">
         <f t="shared" si="10"/>
-        <v>20140115</v>
+        <v>20140315</v>
       </c>
       <c r="C352" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140115000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140315000);</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
-        <v>41653</v>
+        <v>41712</v>
       </c>
       <c r="B353" t="str">
         <f t="shared" si="10"/>
-        <v>20140114</v>
+        <v>20140314</v>
       </c>
       <c r="C353" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140114000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140314000);</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
-        <v>41652</v>
+        <v>41711</v>
       </c>
       <c r="B354" t="str">
         <f t="shared" si="10"/>
-        <v>20140113</v>
+        <v>20140313</v>
       </c>
       <c r="C354" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140113000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140313000);</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A355" s="1">
-        <v>41651</v>
+        <v>41710</v>
       </c>
       <c r="B355" t="str">
         <f t="shared" si="10"/>
-        <v>20140112</v>
+        <v>20140312</v>
       </c>
       <c r="C355" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140112000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140312000);</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A356" s="1">
-        <v>41650</v>
+        <v>41709</v>
       </c>
       <c r="B356" t="str">
         <f t="shared" si="10"/>
-        <v>20140111</v>
+        <v>20140311</v>
       </c>
       <c r="C356" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140111000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140311000);</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A357" s="1">
-        <v>41649</v>
+        <v>41708</v>
       </c>
       <c r="B357" t="str">
         <f t="shared" si="10"/>
-        <v>20140110</v>
+        <v>20140310</v>
       </c>
       <c r="C357" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140110000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140310000);</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A358" s="1">
-        <v>41648</v>
+        <v>41707</v>
       </c>
       <c r="B358" t="str">
         <f t="shared" si="10"/>
-        <v>20140109</v>
+        <v>20140309</v>
       </c>
       <c r="C358" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140109000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140309000);</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A359" s="1">
-        <v>41647</v>
+        <v>41706</v>
       </c>
       <c r="B359" t="str">
         <f t="shared" si="10"/>
-        <v>20140108</v>
+        <v>20140308</v>
       </c>
       <c r="C359" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140108000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140308000);</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A360" s="1">
-        <v>41646</v>
+        <v>41705</v>
       </c>
       <c r="B360" t="str">
         <f t="shared" si="10"/>
-        <v>20140107</v>
+        <v>20140307</v>
       </c>
       <c r="C360" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140107000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140307000);</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A361" s="1">
-        <v>41645</v>
+        <v>41704</v>
       </c>
       <c r="B361" t="str">
         <f t="shared" si="10"/>
-        <v>20140106</v>
+        <v>20140306</v>
       </c>
       <c r="C361" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140106000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140306000);</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A362" s="1">
-        <v>41644</v>
+        <v>41703</v>
       </c>
       <c r="B362" t="str">
         <f t="shared" si="10"/>
-        <v>20140105</v>
+        <v>20140305</v>
       </c>
       <c r="C362" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140105000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140305000);</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A363" s="1">
-        <v>41643</v>
+        <v>41702</v>
       </c>
       <c r="B363" t="str">
         <f t="shared" si="10"/>
-        <v>20140104</v>
+        <v>20140304</v>
       </c>
       <c r="C363" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140104000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140304000);</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A364" s="1">
-        <v>41642</v>
+        <v>41701</v>
       </c>
       <c r="B364" t="str">
         <f t="shared" si="10"/>
-        <v>20140103</v>
+        <v>20140303</v>
       </c>
       <c r="C364" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140103000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140303000);</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
-        <v>41641</v>
+        <v>41700</v>
       </c>
       <c r="B365" t="str">
         <f t="shared" si="10"/>
-        <v>20140102</v>
+        <v>20140302</v>
       </c>
       <c r="C365" t="str">
         <f t="shared" si="11"/>
-        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140102000);</v>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140302000);</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A366" s="1">
-        <v>41640</v>
+        <v>41699</v>
       </c>
       <c r="B366" t="str">
         <f t="shared" si="10"/>
-        <v>20140101</v>
+        <v>20140301</v>
       </c>
       <c r="C366" t="str">
         <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140301000);</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A367" s="1">
+        <v>41698</v>
+      </c>
+      <c r="B367" t="str">
+        <f t="shared" si="10"/>
+        <v>20140228</v>
+      </c>
+      <c r="C367" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140228000);</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A368" s="1">
+        <v>41697</v>
+      </c>
+      <c r="B368" t="str">
+        <f t="shared" si="10"/>
+        <v>20140227</v>
+      </c>
+      <c r="C368" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140227000);</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A369" s="1">
+        <v>41696</v>
+      </c>
+      <c r="B369" t="str">
+        <f t="shared" si="10"/>
+        <v>20140226</v>
+      </c>
+      <c r="C369" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140226000);</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A370" s="1">
+        <v>41695</v>
+      </c>
+      <c r="B370" t="str">
+        <f t="shared" si="10"/>
+        <v>20140225</v>
+      </c>
+      <c r="C370" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140225000);</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A371" s="1">
+        <v>41694</v>
+      </c>
+      <c r="B371" t="str">
+        <f t="shared" si="10"/>
+        <v>20140224</v>
+      </c>
+      <c r="C371" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140224000);</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A372" s="1">
+        <v>41693</v>
+      </c>
+      <c r="B372" t="str">
+        <f t="shared" si="10"/>
+        <v>20140223</v>
+      </c>
+      <c r="C372" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140223000);</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A373" s="1">
+        <v>41692</v>
+      </c>
+      <c r="B373" t="str">
+        <f t="shared" si="10"/>
+        <v>20140222</v>
+      </c>
+      <c r="C373" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140222000);</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A374" s="1">
+        <v>41691</v>
+      </c>
+      <c r="B374" t="str">
+        <f t="shared" si="10"/>
+        <v>20140221</v>
+      </c>
+      <c r="C374" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140221000);</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A375" s="1">
+        <v>41690</v>
+      </c>
+      <c r="B375" t="str">
+        <f t="shared" si="10"/>
+        <v>20140220</v>
+      </c>
+      <c r="C375" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140220000);</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A376" s="1">
+        <v>41689</v>
+      </c>
+      <c r="B376" t="str">
+        <f t="shared" si="10"/>
+        <v>20140219</v>
+      </c>
+      <c r="C376" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140219000);</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A377" s="1">
+        <v>41688</v>
+      </c>
+      <c r="B377" t="str">
+        <f t="shared" si="10"/>
+        <v>20140218</v>
+      </c>
+      <c r="C377" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140218000);</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A378" s="1">
+        <v>41687</v>
+      </c>
+      <c r="B378" t="str">
+        <f t="shared" si="10"/>
+        <v>20140217</v>
+      </c>
+      <c r="C378" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140217000);</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A379" s="1">
+        <v>41686</v>
+      </c>
+      <c r="B379" t="str">
+        <f t="shared" si="10"/>
+        <v>20140216</v>
+      </c>
+      <c r="C379" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140216000);</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A380" s="1">
+        <v>41685</v>
+      </c>
+      <c r="B380" t="str">
+        <f t="shared" si="10"/>
+        <v>20140215</v>
+      </c>
+      <c r="C380" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140215000);</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A381" s="1">
+        <v>41684</v>
+      </c>
+      <c r="B381" t="str">
+        <f t="shared" si="10"/>
+        <v>20140214</v>
+      </c>
+      <c r="C381" t="str">
+        <f t="shared" si="11"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140214000);</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A382" s="1">
+        <v>41683</v>
+      </c>
+      <c r="B382" t="str">
+        <f t="shared" ref="B382:B425" si="12">TEXT(A382,"yyyymmdd")</f>
+        <v>20140213</v>
+      </c>
+      <c r="C382" t="str">
+        <f t="shared" ref="C382:C425" si="13">CONCATENATE("CALL JIN_UPDATE_VIP_SLS_CC_PROC(1",B382,"000);")</f>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140213000);</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A383" s="1">
+        <v>41682</v>
+      </c>
+      <c r="B383" t="str">
+        <f t="shared" si="12"/>
+        <v>20140212</v>
+      </c>
+      <c r="C383" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140212000);</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A384" s="1">
+        <v>41681</v>
+      </c>
+      <c r="B384" t="str">
+        <f t="shared" si="12"/>
+        <v>20140211</v>
+      </c>
+      <c r="C384" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140211000);</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A385" s="1">
+        <v>41680</v>
+      </c>
+      <c r="B385" t="str">
+        <f t="shared" si="12"/>
+        <v>20140210</v>
+      </c>
+      <c r="C385" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140210000);</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A386" s="1">
+        <v>41679</v>
+      </c>
+      <c r="B386" t="str">
+        <f t="shared" si="12"/>
+        <v>20140209</v>
+      </c>
+      <c r="C386" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140209000);</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A387" s="1">
+        <v>41678</v>
+      </c>
+      <c r="B387" t="str">
+        <f t="shared" si="12"/>
+        <v>20140208</v>
+      </c>
+      <c r="C387" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140208000);</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A388" s="1">
+        <v>41677</v>
+      </c>
+      <c r="B388" t="str">
+        <f t="shared" si="12"/>
+        <v>20140207</v>
+      </c>
+      <c r="C388" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140207000);</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A389" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B389" t="str">
+        <f t="shared" si="12"/>
+        <v>20140206</v>
+      </c>
+      <c r="C389" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140206000);</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A390" s="1">
+        <v>41675</v>
+      </c>
+      <c r="B390" t="str">
+        <f t="shared" si="12"/>
+        <v>20140205</v>
+      </c>
+      <c r="C390" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140205000);</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A391" s="1">
+        <v>41674</v>
+      </c>
+      <c r="B391" t="str">
+        <f t="shared" si="12"/>
+        <v>20140204</v>
+      </c>
+      <c r="C391" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140204000);</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A392" s="1">
+        <v>41673</v>
+      </c>
+      <c r="B392" t="str">
+        <f t="shared" si="12"/>
+        <v>20140203</v>
+      </c>
+      <c r="C392" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140203000);</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A393" s="1">
+        <v>41672</v>
+      </c>
+      <c r="B393" t="str">
+        <f t="shared" si="12"/>
+        <v>20140202</v>
+      </c>
+      <c r="C393" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140202000);</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A394" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B394" t="str">
+        <f t="shared" si="12"/>
+        <v>20140201</v>
+      </c>
+      <c r="C394" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140201000);</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A395" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B395" t="str">
+        <f t="shared" si="12"/>
+        <v>20140131</v>
+      </c>
+      <c r="C395" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140131000);</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A396" s="1">
+        <v>41669</v>
+      </c>
+      <c r="B396" t="str">
+        <f t="shared" si="12"/>
+        <v>20140130</v>
+      </c>
+      <c r="C396" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140130000);</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A397" s="1">
+        <v>41668</v>
+      </c>
+      <c r="B397" t="str">
+        <f t="shared" si="12"/>
+        <v>20140129</v>
+      </c>
+      <c r="C397" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140129000);</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A398" s="1">
+        <v>41667</v>
+      </c>
+      <c r="B398" t="str">
+        <f t="shared" si="12"/>
+        <v>20140128</v>
+      </c>
+      <c r="C398" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140128000);</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A399" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B399" t="str">
+        <f t="shared" si="12"/>
+        <v>20140127</v>
+      </c>
+      <c r="C399" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140127000);</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A400" s="1">
+        <v>41665</v>
+      </c>
+      <c r="B400" t="str">
+        <f t="shared" si="12"/>
+        <v>20140126</v>
+      </c>
+      <c r="C400" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140126000);</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A401" s="1">
+        <v>41664</v>
+      </c>
+      <c r="B401" t="str">
+        <f t="shared" si="12"/>
+        <v>20140125</v>
+      </c>
+      <c r="C401" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140125000);</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A402" s="1">
+        <v>41663</v>
+      </c>
+      <c r="B402" t="str">
+        <f t="shared" si="12"/>
+        <v>20140124</v>
+      </c>
+      <c r="C402" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140124000);</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A403" s="1">
+        <v>41662</v>
+      </c>
+      <c r="B403" t="str">
+        <f t="shared" si="12"/>
+        <v>20140123</v>
+      </c>
+      <c r="C403" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140123000);</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A404" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B404" t="str">
+        <f t="shared" si="12"/>
+        <v>20140122</v>
+      </c>
+      <c r="C404" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140122000);</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A405" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B405" t="str">
+        <f t="shared" si="12"/>
+        <v>20140121</v>
+      </c>
+      <c r="C405" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140121000);</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A406" s="1">
+        <v>41659</v>
+      </c>
+      <c r="B406" t="str">
+        <f t="shared" si="12"/>
+        <v>20140120</v>
+      </c>
+      <c r="C406" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140120000);</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A407" s="1">
+        <v>41658</v>
+      </c>
+      <c r="B407" t="str">
+        <f t="shared" si="12"/>
+        <v>20140119</v>
+      </c>
+      <c r="C407" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140119000);</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A408" s="1">
+        <v>41657</v>
+      </c>
+      <c r="B408" t="str">
+        <f t="shared" si="12"/>
+        <v>20140118</v>
+      </c>
+      <c r="C408" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140118000);</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A409" s="1">
+        <v>41656</v>
+      </c>
+      <c r="B409" t="str">
+        <f t="shared" si="12"/>
+        <v>20140117</v>
+      </c>
+      <c r="C409" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140117000);</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A410" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B410" t="str">
+        <f t="shared" si="12"/>
+        <v>20140116</v>
+      </c>
+      <c r="C410" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140116000);</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A411" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B411" t="str">
+        <f t="shared" si="12"/>
+        <v>20140115</v>
+      </c>
+      <c r="C411" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140115000);</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A412" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B412" t="str">
+        <f t="shared" si="12"/>
+        <v>20140114</v>
+      </c>
+      <c r="C412" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140114000);</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A413" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B413" t="str">
+        <f t="shared" si="12"/>
+        <v>20140113</v>
+      </c>
+      <c r="C413" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140113000);</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A414" s="1">
+        <v>41651</v>
+      </c>
+      <c r="B414" t="str">
+        <f t="shared" si="12"/>
+        <v>20140112</v>
+      </c>
+      <c r="C414" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140112000);</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A415" s="1">
+        <v>41650</v>
+      </c>
+      <c r="B415" t="str">
+        <f t="shared" si="12"/>
+        <v>20140111</v>
+      </c>
+      <c r="C415" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140111000);</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A416" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B416" t="str">
+        <f t="shared" si="12"/>
+        <v>20140110</v>
+      </c>
+      <c r="C416" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140110000);</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A417" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B417" t="str">
+        <f t="shared" si="12"/>
+        <v>20140109</v>
+      </c>
+      <c r="C417" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140109000);</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A418" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B418" t="str">
+        <f t="shared" si="12"/>
+        <v>20140108</v>
+      </c>
+      <c r="C418" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140108000);</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A419" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B419" t="str">
+        <f t="shared" si="12"/>
+        <v>20140107</v>
+      </c>
+      <c r="C419" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140107000);</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A420" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B420" t="str">
+        <f t="shared" si="12"/>
+        <v>20140106</v>
+      </c>
+      <c r="C420" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140106000);</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A421" s="1">
+        <v>41644</v>
+      </c>
+      <c r="B421" t="str">
+        <f t="shared" si="12"/>
+        <v>20140105</v>
+      </c>
+      <c r="C421" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140105000);</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A422" s="1">
+        <v>41643</v>
+      </c>
+      <c r="B422" t="str">
+        <f t="shared" si="12"/>
+        <v>20140104</v>
+      </c>
+      <c r="C422" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140104000);</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A423" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B423" t="str">
+        <f t="shared" si="12"/>
+        <v>20140103</v>
+      </c>
+      <c r="C423" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140103000);</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A424" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B424" t="str">
+        <f t="shared" si="12"/>
+        <v>20140102</v>
+      </c>
+      <c r="C424" t="str">
+        <f t="shared" si="13"/>
+        <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140102000);</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A425" s="1">
+        <v>41640</v>
+      </c>
+      <c r="B425" t="str">
+        <f t="shared" si="12"/>
+        <v>20140101</v>
+      </c>
+      <c r="C425" t="str">
+        <f t="shared" si="13"/>
         <v>CALL JIN_UPDATE_VIP_SLS_CC_PROC(120140101000);</v>
       </c>
     </row>

--- a/Task/2015-06-04siebel上线后会员数据整合/历史会员销售修复记录.xlsx
+++ b/Task/2015-06-04siebel上线后会员数据整合/历史会员销售修复记录.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="会员销售" sheetId="1" r:id="rId1"/>
     <sheet name="会员来客数" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$D$237</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">会员销售!$A$1:$D$581</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="16">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,12 +75,32 @@
     <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +113,22 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -117,11 +155,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10448,8 +10492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D425"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16846,4 +16890,3945 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D425"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:D59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>42005</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f t="shared" ref="B2:B60" si="0">TEXT(A2,"yyyymmdd")</f>
+        <v>20150101</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>CONCATENATE("CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(1",B2,"000);")</f>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150101000);</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>42006</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150102</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" ref="C3:C66" si="1">CONCATENATE("CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(1",B3,"000);")</f>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150102000);</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>42007</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150103</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150103000);</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>42008</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150104</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150104000);</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>42009</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150105</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150105000);</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>42010</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150106</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150106000);</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>42011</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150107</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150107000);</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>42012</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150108</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150108000);</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>42013</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150109</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150109000);</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>42014</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150110</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150110000);</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>42015</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150111</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150111000);</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>42016</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150112</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150112000);</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>42017</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150113</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150113000);</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>42018</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150114</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150114000);</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>42019</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150115</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150115000);</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>42020</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150116</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150116000);</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>42021</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150117</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150117000);</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>42022</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150118</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150118000);</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>42023</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150119</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150119000);</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>42024</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150120</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150120000);</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>42025</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150121</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150121000);</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>42026</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150122</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150122000);</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>42027</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150123</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150123000);</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>42028</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150124</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150124000);</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>42029</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150125</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150125000);</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>42030</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150126</v>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150126000);</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>42031</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150127</v>
+      </c>
+      <c r="C28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150127000);</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>42032</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150128</v>
+      </c>
+      <c r="C29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150128000);</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>42033</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150129</v>
+      </c>
+      <c r="C30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150129000);</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>42034</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150130</v>
+      </c>
+      <c r="C31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150130000);</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>42035</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150131</v>
+      </c>
+      <c r="C32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150131000);</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>42036</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150201</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150201000);</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>42037</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150202</v>
+      </c>
+      <c r="C34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150202000);</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>42038</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150203</v>
+      </c>
+      <c r="C35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150203000);</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>42039</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150204</v>
+      </c>
+      <c r="C36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150204000);</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>42040</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150205</v>
+      </c>
+      <c r="C37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150205000);</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
+        <v>42041</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150206</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150206000);</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
+        <v>42042</v>
+      </c>
+      <c r="B39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150207</v>
+      </c>
+      <c r="C39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150207000);</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
+        <v>42043</v>
+      </c>
+      <c r="B40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150208</v>
+      </c>
+      <c r="C40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150208000);</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="3">
+        <v>42044</v>
+      </c>
+      <c r="B41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150209</v>
+      </c>
+      <c r="C41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150209000);</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="3">
+        <v>42045</v>
+      </c>
+      <c r="B42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150210</v>
+      </c>
+      <c r="C42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150210000);</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="3">
+        <v>42046</v>
+      </c>
+      <c r="B43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150211</v>
+      </c>
+      <c r="C43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150211000);</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="3">
+        <v>42047</v>
+      </c>
+      <c r="B44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150212</v>
+      </c>
+      <c r="C44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150212000);</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="3">
+        <v>42048</v>
+      </c>
+      <c r="B45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150213</v>
+      </c>
+      <c r="C45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150213000);</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="3">
+        <v>42049</v>
+      </c>
+      <c r="B46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150214</v>
+      </c>
+      <c r="C46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150214000);</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="3">
+        <v>42050</v>
+      </c>
+      <c r="B47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150215</v>
+      </c>
+      <c r="C47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150215000);</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="3">
+        <v>42051</v>
+      </c>
+      <c r="B48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150216</v>
+      </c>
+      <c r="C48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150216000);</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="3">
+        <v>42052</v>
+      </c>
+      <c r="B49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150217</v>
+      </c>
+      <c r="C49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150217000);</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="3">
+        <v>42053</v>
+      </c>
+      <c r="B50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150218</v>
+      </c>
+      <c r="C50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150218000);</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
+        <v>42054</v>
+      </c>
+      <c r="B51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150219</v>
+      </c>
+      <c r="C51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150219000);</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="3">
+        <v>42055</v>
+      </c>
+      <c r="B52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150220</v>
+      </c>
+      <c r="C52" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150220000);</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="3">
+        <v>42056</v>
+      </c>
+      <c r="B53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150221</v>
+      </c>
+      <c r="C53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150221000);</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="3">
+        <v>42057</v>
+      </c>
+      <c r="B54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150222</v>
+      </c>
+      <c r="C54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150222000);</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="3">
+        <v>42058</v>
+      </c>
+      <c r="B55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150223</v>
+      </c>
+      <c r="C55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150223000);</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="3">
+        <v>42059</v>
+      </c>
+      <c r="B56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150224</v>
+      </c>
+      <c r="C56" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150224000);</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="3">
+        <v>42060</v>
+      </c>
+      <c r="B57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150225</v>
+      </c>
+      <c r="C57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150225000);</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="3">
+        <v>42061</v>
+      </c>
+      <c r="B58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150226</v>
+      </c>
+      <c r="C58" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150226000);</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="3">
+        <v>42062</v>
+      </c>
+      <c r="B59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150227</v>
+      </c>
+      <c r="C59" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150227000);</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="3">
+        <v>42063</v>
+      </c>
+      <c r="B60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>20150228</v>
+      </c>
+      <c r="C60" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150228000);</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="3">
+        <v>42064</v>
+      </c>
+      <c r="B61" s="2" t="str">
+        <f>TEXT(A61,"yyyymmdd")</f>
+        <v>20150301</v>
+      </c>
+      <c r="C61" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150301000);</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="3">
+        <v>42065</v>
+      </c>
+      <c r="B62" s="2" t="str">
+        <f t="shared" ref="B62:B125" si="2">TEXT(A62,"yyyymmdd")</f>
+        <v>20150302</v>
+      </c>
+      <c r="C62" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150302000);</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
+        <v>42066</v>
+      </c>
+      <c r="B63" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150303</v>
+      </c>
+      <c r="C63" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150303000);</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="3">
+        <v>42067</v>
+      </c>
+      <c r="B64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150304</v>
+      </c>
+      <c r="C64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150304000);</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="3">
+        <v>42068</v>
+      </c>
+      <c r="B65" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150305</v>
+      </c>
+      <c r="C65" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150305000);</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="3">
+        <v>42069</v>
+      </c>
+      <c r="B66" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150306</v>
+      </c>
+      <c r="C66" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150306000);</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="3">
+        <v>42070</v>
+      </c>
+      <c r="B67" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150307</v>
+      </c>
+      <c r="C67" s="2" t="str">
+        <f t="shared" ref="C67:C130" si="3">CONCATENATE("CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(1",B67,"000);")</f>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150307000);</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="3">
+        <v>42071</v>
+      </c>
+      <c r="B68" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150308</v>
+      </c>
+      <c r="C68" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150308000);</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="3">
+        <v>42072</v>
+      </c>
+      <c r="B69" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150309</v>
+      </c>
+      <c r="C69" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150309000);</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="3">
+        <v>42073</v>
+      </c>
+      <c r="B70" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150310</v>
+      </c>
+      <c r="C70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150310000);</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="3">
+        <v>42074</v>
+      </c>
+      <c r="B71" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150311</v>
+      </c>
+      <c r="C71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150311000);</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="3">
+        <v>42075</v>
+      </c>
+      <c r="B72" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150312</v>
+      </c>
+      <c r="C72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150312000);</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="3">
+        <v>42076</v>
+      </c>
+      <c r="B73" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150313</v>
+      </c>
+      <c r="C73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150313000);</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="3">
+        <v>42077</v>
+      </c>
+      <c r="B74" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150314</v>
+      </c>
+      <c r="C74" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150314000);</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="3">
+        <v>42078</v>
+      </c>
+      <c r="B75" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150315</v>
+      </c>
+      <c r="C75" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150315000);</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="3">
+        <v>42079</v>
+      </c>
+      <c r="B76" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150316</v>
+      </c>
+      <c r="C76" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150316000);</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="3">
+        <v>42080</v>
+      </c>
+      <c r="B77" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150317</v>
+      </c>
+      <c r="C77" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150317000);</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="3">
+        <v>42081</v>
+      </c>
+      <c r="B78" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150318</v>
+      </c>
+      <c r="C78" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150318000);</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="3">
+        <v>42082</v>
+      </c>
+      <c r="B79" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150319</v>
+      </c>
+      <c r="C79" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150319000);</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="3">
+        <v>42083</v>
+      </c>
+      <c r="B80" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150320</v>
+      </c>
+      <c r="C80" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150320000);</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="3">
+        <v>42084</v>
+      </c>
+      <c r="B81" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150321</v>
+      </c>
+      <c r="C81" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150321000);</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="3">
+        <v>42085</v>
+      </c>
+      <c r="B82" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150322</v>
+      </c>
+      <c r="C82" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150322000);</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="3">
+        <v>42086</v>
+      </c>
+      <c r="B83" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150323</v>
+      </c>
+      <c r="C83" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150323000);</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="3">
+        <v>42087</v>
+      </c>
+      <c r="B84" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150324</v>
+      </c>
+      <c r="C84" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150324000);</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="3">
+        <v>42088</v>
+      </c>
+      <c r="B85" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150325</v>
+      </c>
+      <c r="C85" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150325000);</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="3">
+        <v>42089</v>
+      </c>
+      <c r="B86" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150326</v>
+      </c>
+      <c r="C86" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150326000);</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="3">
+        <v>42090</v>
+      </c>
+      <c r="B87" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150327</v>
+      </c>
+      <c r="C87" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150327000);</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="3">
+        <v>42091</v>
+      </c>
+      <c r="B88" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150328</v>
+      </c>
+      <c r="C88" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150328000);</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="3">
+        <v>42092</v>
+      </c>
+      <c r="B89" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150329</v>
+      </c>
+      <c r="C89" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150329000);</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="3">
+        <v>42093</v>
+      </c>
+      <c r="B90" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150330</v>
+      </c>
+      <c r="C90" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150330000);</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="3">
+        <v>42094</v>
+      </c>
+      <c r="B91" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150331</v>
+      </c>
+      <c r="C91" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150331000);</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="3">
+        <v>42095</v>
+      </c>
+      <c r="B92" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150401</v>
+      </c>
+      <c r="C92" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150401000);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="3">
+        <v>42096</v>
+      </c>
+      <c r="B93" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150402</v>
+      </c>
+      <c r="C93" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150402000);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="3">
+        <v>42097</v>
+      </c>
+      <c r="B94" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150403</v>
+      </c>
+      <c r="C94" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150403000);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="3">
+        <v>42098</v>
+      </c>
+      <c r="B95" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150404</v>
+      </c>
+      <c r="C95" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150404000);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="3">
+        <v>42099</v>
+      </c>
+      <c r="B96" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150405</v>
+      </c>
+      <c r="C96" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150405000);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" s="3">
+        <v>42100</v>
+      </c>
+      <c r="B97" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150406</v>
+      </c>
+      <c r="C97" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150406000);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" s="3">
+        <v>42101</v>
+      </c>
+      <c r="B98" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150407</v>
+      </c>
+      <c r="C98" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150407000);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" s="3">
+        <v>42102</v>
+      </c>
+      <c r="B99" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150408</v>
+      </c>
+      <c r="C99" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150408000);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" s="3">
+        <v>42103</v>
+      </c>
+      <c r="B100" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150409</v>
+      </c>
+      <c r="C100" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150409000);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" s="3">
+        <v>42104</v>
+      </c>
+      <c r="B101" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150410</v>
+      </c>
+      <c r="C101" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150410000);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" s="3">
+        <v>42105</v>
+      </c>
+      <c r="B102" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150411</v>
+      </c>
+      <c r="C102" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150411000);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" s="3">
+        <v>42106</v>
+      </c>
+      <c r="B103" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150412</v>
+      </c>
+      <c r="C103" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150412000);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" s="3">
+        <v>42107</v>
+      </c>
+      <c r="B104" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150413</v>
+      </c>
+      <c r="C104" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150413000);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" s="3">
+        <v>42108</v>
+      </c>
+      <c r="B105" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150414</v>
+      </c>
+      <c r="C105" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150414000);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" s="3">
+        <v>42109</v>
+      </c>
+      <c r="B106" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150415</v>
+      </c>
+      <c r="C106" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150415000);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" s="3">
+        <v>42110</v>
+      </c>
+      <c r="B107" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150416</v>
+      </c>
+      <c r="C107" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150416000);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" s="3">
+        <v>42111</v>
+      </c>
+      <c r="B108" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150417</v>
+      </c>
+      <c r="C108" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150417000);</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" s="3">
+        <v>42112</v>
+      </c>
+      <c r="B109" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150418</v>
+      </c>
+      <c r="C109" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150418000);</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110" s="3">
+        <v>42113</v>
+      </c>
+      <c r="B110" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150419</v>
+      </c>
+      <c r="C110" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150419000);</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" s="3">
+        <v>42114</v>
+      </c>
+      <c r="B111" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150420</v>
+      </c>
+      <c r="C111" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150420000);</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112" s="3">
+        <v>42115</v>
+      </c>
+      <c r="B112" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150421</v>
+      </c>
+      <c r="C112" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150421000);</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113" s="3">
+        <v>42116</v>
+      </c>
+      <c r="B113" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150422</v>
+      </c>
+      <c r="C113" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150422000);</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" s="3">
+        <v>42117</v>
+      </c>
+      <c r="B114" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150423</v>
+      </c>
+      <c r="C114" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150423000);</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115" s="3">
+        <v>42118</v>
+      </c>
+      <c r="B115" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150424</v>
+      </c>
+      <c r="C115" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150424000);</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116" s="3">
+        <v>42119</v>
+      </c>
+      <c r="B116" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150425</v>
+      </c>
+      <c r="C116" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150425000);</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117" s="3">
+        <v>42120</v>
+      </c>
+      <c r="B117" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150426</v>
+      </c>
+      <c r="C117" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150426000);</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118" s="3">
+        <v>42121</v>
+      </c>
+      <c r="B118" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150427</v>
+      </c>
+      <c r="C118" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150427000);</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" s="3">
+        <v>42122</v>
+      </c>
+      <c r="B119" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150428</v>
+      </c>
+      <c r="C119" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150428000);</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120" s="3">
+        <v>42123</v>
+      </c>
+      <c r="B120" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150429</v>
+      </c>
+      <c r="C120" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150429000);</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121" s="3">
+        <v>42124</v>
+      </c>
+      <c r="B121" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150430</v>
+      </c>
+      <c r="C121" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150430000);</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" s="3">
+        <v>42125</v>
+      </c>
+      <c r="B122" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150501</v>
+      </c>
+      <c r="C122" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150501000);</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123" s="3">
+        <v>42126</v>
+      </c>
+      <c r="B123" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150502</v>
+      </c>
+      <c r="C123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150502000);</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124" s="3">
+        <v>42127</v>
+      </c>
+      <c r="B124" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150503</v>
+      </c>
+      <c r="C124" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150503000);</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125" s="3">
+        <v>42128</v>
+      </c>
+      <c r="B125" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>20150504</v>
+      </c>
+      <c r="C125" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150504000);</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126" s="3">
+        <v>42129</v>
+      </c>
+      <c r="B126" s="2" t="str">
+        <f t="shared" ref="B126:B189" si="4">TEXT(A126,"yyyymmdd")</f>
+        <v>20150505</v>
+      </c>
+      <c r="C126" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150505000);</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127" s="3">
+        <v>42130</v>
+      </c>
+      <c r="B127" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150506</v>
+      </c>
+      <c r="C127" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150506000);</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128" s="3">
+        <v>42131</v>
+      </c>
+      <c r="B128" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150507</v>
+      </c>
+      <c r="C128" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150507000);</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129" s="3">
+        <v>42132</v>
+      </c>
+      <c r="B129" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150508</v>
+      </c>
+      <c r="C129" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150508000);</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130" s="3">
+        <v>42133</v>
+      </c>
+      <c r="B130" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150509</v>
+      </c>
+      <c r="C130" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150509000);</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131" s="3">
+        <v>42134</v>
+      </c>
+      <c r="B131" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150510</v>
+      </c>
+      <c r="C131" s="2" t="str">
+        <f t="shared" ref="C131:C194" si="5">CONCATENATE("CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(1",B131,"000);")</f>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150510000);</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132" s="3">
+        <v>42135</v>
+      </c>
+      <c r="B132" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150511</v>
+      </c>
+      <c r="C132" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150511000);</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133" s="3">
+        <v>42136</v>
+      </c>
+      <c r="B133" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150512</v>
+      </c>
+      <c r="C133" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150512000);</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134" s="3">
+        <v>42137</v>
+      </c>
+      <c r="B134" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150513</v>
+      </c>
+      <c r="C134" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150513000);</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" s="3">
+        <v>42138</v>
+      </c>
+      <c r="B135" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150514</v>
+      </c>
+      <c r="C135" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150514000);</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136" s="3">
+        <v>42139</v>
+      </c>
+      <c r="B136" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150515</v>
+      </c>
+      <c r="C136" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150515000);</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137" s="3">
+        <v>42140</v>
+      </c>
+      <c r="B137" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150516</v>
+      </c>
+      <c r="C137" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150516000);</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138" s="3">
+        <v>42141</v>
+      </c>
+      <c r="B138" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150517</v>
+      </c>
+      <c r="C138" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150517000);</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139" s="3">
+        <v>42142</v>
+      </c>
+      <c r="B139" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150518</v>
+      </c>
+      <c r="C139" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150518000);</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140" s="3">
+        <v>42143</v>
+      </c>
+      <c r="B140" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150519</v>
+      </c>
+      <c r="C140" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150519000);</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" s="3">
+        <v>42144</v>
+      </c>
+      <c r="B141" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150520</v>
+      </c>
+      <c r="C141" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150520000);</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" s="3">
+        <v>42145</v>
+      </c>
+      <c r="B142" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150521</v>
+      </c>
+      <c r="C142" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150521000);</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" s="3">
+        <v>42146</v>
+      </c>
+      <c r="B143" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150522</v>
+      </c>
+      <c r="C143" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150522000);</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" s="3">
+        <v>42147</v>
+      </c>
+      <c r="B144" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150523</v>
+      </c>
+      <c r="C144" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150523000);</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145" s="3">
+        <v>42148</v>
+      </c>
+      <c r="B145" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150524</v>
+      </c>
+      <c r="C145" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150524000);</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" s="3">
+        <v>42149</v>
+      </c>
+      <c r="B146" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150525</v>
+      </c>
+      <c r="C146" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150525000);</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147" s="3">
+        <v>42150</v>
+      </c>
+      <c r="B147" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150526</v>
+      </c>
+      <c r="C147" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150526000);</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" s="3">
+        <v>42151</v>
+      </c>
+      <c r="B148" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150527</v>
+      </c>
+      <c r="C148" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150527000);</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149" s="3">
+        <v>42152</v>
+      </c>
+      <c r="B149" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150528</v>
+      </c>
+      <c r="C149" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150528000);</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A150" s="3">
+        <v>42153</v>
+      </c>
+      <c r="B150" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150529</v>
+      </c>
+      <c r="C150" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150529000);</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A151" s="3">
+        <v>42154</v>
+      </c>
+      <c r="B151" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150530</v>
+      </c>
+      <c r="C151" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150530000);</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A152" s="3">
+        <v>42155</v>
+      </c>
+      <c r="B152" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150531</v>
+      </c>
+      <c r="C152" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150531000);</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A153" s="3">
+        <v>42156</v>
+      </c>
+      <c r="B153" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150601</v>
+      </c>
+      <c r="C153" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150601000);</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A154" s="3">
+        <v>42157</v>
+      </c>
+      <c r="B154" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150602</v>
+      </c>
+      <c r="C154" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150602000);</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A155" s="3">
+        <v>42158</v>
+      </c>
+      <c r="B155" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150603</v>
+      </c>
+      <c r="C155" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150603000);</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A156" s="3">
+        <v>42159</v>
+      </c>
+      <c r="B156" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150604</v>
+      </c>
+      <c r="C156" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150604000);</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A157" s="3">
+        <v>42160</v>
+      </c>
+      <c r="B157" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150605</v>
+      </c>
+      <c r="C157" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150605000);</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A158" s="3">
+        <v>42161</v>
+      </c>
+      <c r="B158" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150606</v>
+      </c>
+      <c r="C158" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150606000);</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A159" s="3">
+        <v>42162</v>
+      </c>
+      <c r="B159" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150607</v>
+      </c>
+      <c r="C159" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150607000);</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A160" s="3">
+        <v>42163</v>
+      </c>
+      <c r="B160" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150608</v>
+      </c>
+      <c r="C160" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150608000);</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A161" s="3">
+        <v>42164</v>
+      </c>
+      <c r="B161" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150609</v>
+      </c>
+      <c r="C161" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150609000);</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A162" s="3">
+        <v>42165</v>
+      </c>
+      <c r="B162" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150610</v>
+      </c>
+      <c r="C162" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150610000);</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A163" s="3">
+        <v>42166</v>
+      </c>
+      <c r="B163" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150611</v>
+      </c>
+      <c r="C163" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150611000);</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A164" s="3">
+        <v>42167</v>
+      </c>
+      <c r="B164" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150612</v>
+      </c>
+      <c r="C164" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150612000);</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A165" s="3">
+        <v>42168</v>
+      </c>
+      <c r="B165" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150613</v>
+      </c>
+      <c r="C165" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150613000);</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A166" s="3">
+        <v>42169</v>
+      </c>
+      <c r="B166" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150614</v>
+      </c>
+      <c r="C166" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150614000);</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A167" s="3">
+        <v>42170</v>
+      </c>
+      <c r="B167" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150615</v>
+      </c>
+      <c r="C167" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150615000);</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A168" s="3">
+        <v>42171</v>
+      </c>
+      <c r="B168" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150616</v>
+      </c>
+      <c r="C168" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150616000);</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A169" s="3">
+        <v>42172</v>
+      </c>
+      <c r="B169" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150617</v>
+      </c>
+      <c r="C169" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150617000);</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A170" s="3">
+        <v>42173</v>
+      </c>
+      <c r="B170" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150618</v>
+      </c>
+      <c r="C170" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150618000);</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A171" s="3">
+        <v>42174</v>
+      </c>
+      <c r="B171" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150619</v>
+      </c>
+      <c r="C171" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150619000);</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A172" s="3">
+        <v>42175</v>
+      </c>
+      <c r="B172" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150620</v>
+      </c>
+      <c r="C172" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150620000);</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A173" s="3">
+        <v>42176</v>
+      </c>
+      <c r="B173" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150621</v>
+      </c>
+      <c r="C173" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150621000);</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A174" s="3">
+        <v>42177</v>
+      </c>
+      <c r="B174" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150622</v>
+      </c>
+      <c r="C174" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150622000);</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A175" s="3">
+        <v>42178</v>
+      </c>
+      <c r="B175" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150623</v>
+      </c>
+      <c r="C175" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150623000);</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A176" s="3">
+        <v>42179</v>
+      </c>
+      <c r="B176" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150624</v>
+      </c>
+      <c r="C176" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150624000);</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A177" s="3">
+        <v>42180</v>
+      </c>
+      <c r="B177" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150625</v>
+      </c>
+      <c r="C177" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150625000);</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A178" s="3">
+        <v>42181</v>
+      </c>
+      <c r="B178" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150626</v>
+      </c>
+      <c r="C178" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150626000);</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A179" s="3">
+        <v>42182</v>
+      </c>
+      <c r="B179" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150627</v>
+      </c>
+      <c r="C179" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150627000);</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A180" s="3">
+        <v>42183</v>
+      </c>
+      <c r="B180" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150628</v>
+      </c>
+      <c r="C180" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150628000);</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A181" s="3">
+        <v>42184</v>
+      </c>
+      <c r="B181" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150629</v>
+      </c>
+      <c r="C181" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150629000);</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A182" s="3">
+        <v>42185</v>
+      </c>
+      <c r="B182" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150630</v>
+      </c>
+      <c r="C182" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150630000);</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A183" s="3">
+        <v>42186</v>
+      </c>
+      <c r="B183" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150701</v>
+      </c>
+      <c r="C183" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150701000);</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A184" s="3">
+        <v>42187</v>
+      </c>
+      <c r="B184" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150702</v>
+      </c>
+      <c r="C184" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150702000);</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A185" s="3">
+        <v>42188</v>
+      </c>
+      <c r="B185" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150703</v>
+      </c>
+      <c r="C185" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150703000);</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A186" s="3">
+        <v>42189</v>
+      </c>
+      <c r="B186" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150704</v>
+      </c>
+      <c r="C186" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150704000);</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A187" s="3">
+        <v>42190</v>
+      </c>
+      <c r="B187" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150705</v>
+      </c>
+      <c r="C187" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150705000);</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A188" s="3">
+        <v>42191</v>
+      </c>
+      <c r="B188" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150706</v>
+      </c>
+      <c r="C188" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150706000);</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A189" s="3">
+        <v>42192</v>
+      </c>
+      <c r="B189" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>20150707</v>
+      </c>
+      <c r="C189" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150707000);</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A190" s="3">
+        <v>42193</v>
+      </c>
+      <c r="B190" s="2" t="str">
+        <f t="shared" ref="B190:B237" si="6">TEXT(A190,"yyyymmdd")</f>
+        <v>20150708</v>
+      </c>
+      <c r="C190" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150708000);</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A191" s="3">
+        <v>42194</v>
+      </c>
+      <c r="B191" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150709</v>
+      </c>
+      <c r="C191" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150709000);</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A192" s="3">
+        <v>42195</v>
+      </c>
+      <c r="B192" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150710</v>
+      </c>
+      <c r="C192" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150710000);</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A193" s="3">
+        <v>42196</v>
+      </c>
+      <c r="B193" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150711</v>
+      </c>
+      <c r="C193" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150711000);</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A194" s="3">
+        <v>42197</v>
+      </c>
+      <c r="B194" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150712</v>
+      </c>
+      <c r="C194" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150712000);</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A195" s="3">
+        <v>42198</v>
+      </c>
+      <c r="B195" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150713</v>
+      </c>
+      <c r="C195" s="2" t="str">
+        <f t="shared" ref="C195:C237" si="7">CONCATENATE("CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(1",B195,"000);")</f>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150713000);</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A196" s="3">
+        <v>42199</v>
+      </c>
+      <c r="B196" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150714</v>
+      </c>
+      <c r="C196" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150714000);</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A197" s="3">
+        <v>42200</v>
+      </c>
+      <c r="B197" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150715</v>
+      </c>
+      <c r="C197" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150715000);</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A198" s="3">
+        <v>42201</v>
+      </c>
+      <c r="B198" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150716</v>
+      </c>
+      <c r="C198" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150716000);</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A199" s="3">
+        <v>42202</v>
+      </c>
+      <c r="B199" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150717</v>
+      </c>
+      <c r="C199" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150717000);</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A200" s="3">
+        <v>42203</v>
+      </c>
+      <c r="B200" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150718</v>
+      </c>
+      <c r="C200" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150718000);</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A201" s="3">
+        <v>42204</v>
+      </c>
+      <c r="B201" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150719</v>
+      </c>
+      <c r="C201" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150719000);</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A202" s="3">
+        <v>42205</v>
+      </c>
+      <c r="B202" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150720</v>
+      </c>
+      <c r="C202" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150720000);</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A203" s="3">
+        <v>42206</v>
+      </c>
+      <c r="B203" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150721</v>
+      </c>
+      <c r="C203" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150721000);</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A204" s="3">
+        <v>42207</v>
+      </c>
+      <c r="B204" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150722</v>
+      </c>
+      <c r="C204" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150722000);</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A205" s="3">
+        <v>42208</v>
+      </c>
+      <c r="B205" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150723</v>
+      </c>
+      <c r="C205" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150723000);</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A206" s="3">
+        <v>42209</v>
+      </c>
+      <c r="B206" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150724</v>
+      </c>
+      <c r="C206" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150724000);</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A207" s="3">
+        <v>42210</v>
+      </c>
+      <c r="B207" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150725</v>
+      </c>
+      <c r="C207" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150725000);</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A208" s="3">
+        <v>42211</v>
+      </c>
+      <c r="B208" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150726</v>
+      </c>
+      <c r="C208" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150726000);</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A209" s="3">
+        <v>42212</v>
+      </c>
+      <c r="B209" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150727</v>
+      </c>
+      <c r="C209" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150727000);</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A210" s="3">
+        <v>42213</v>
+      </c>
+      <c r="B210" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150728</v>
+      </c>
+      <c r="C210" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150728000);</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A211" s="3">
+        <v>42214</v>
+      </c>
+      <c r="B211" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150729</v>
+      </c>
+      <c r="C211" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150729000);</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A212" s="3">
+        <v>42215</v>
+      </c>
+      <c r="B212" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150730</v>
+      </c>
+      <c r="C212" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150730000);</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A213" s="3">
+        <v>42216</v>
+      </c>
+      <c r="B213" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150731</v>
+      </c>
+      <c r="C213" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150731000);</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A214" s="3">
+        <v>42217</v>
+      </c>
+      <c r="B214" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150801</v>
+      </c>
+      <c r="C214" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150801000);</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A215" s="3">
+        <v>42218</v>
+      </c>
+      <c r="B215" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150802</v>
+      </c>
+      <c r="C215" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150802000);</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A216" s="3">
+        <v>42219</v>
+      </c>
+      <c r="B216" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150803</v>
+      </c>
+      <c r="C216" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150803000);</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A217" s="3">
+        <v>42220</v>
+      </c>
+      <c r="B217" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150804</v>
+      </c>
+      <c r="C217" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150804000);</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A218" s="3">
+        <v>42221</v>
+      </c>
+      <c r="B218" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150805</v>
+      </c>
+      <c r="C218" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150805000);</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A219" s="3">
+        <v>42222</v>
+      </c>
+      <c r="B219" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150806</v>
+      </c>
+      <c r="C219" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150806000);</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A220" s="3">
+        <v>42223</v>
+      </c>
+      <c r="B220" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150807</v>
+      </c>
+      <c r="C220" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150807000);</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A221" s="3">
+        <v>42224</v>
+      </c>
+      <c r="B221" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150808</v>
+      </c>
+      <c r="C221" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150808000);</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A222" s="3">
+        <v>42225</v>
+      </c>
+      <c r="B222" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150809</v>
+      </c>
+      <c r="C222" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150809000);</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A223" s="3">
+        <v>42226</v>
+      </c>
+      <c r="B223" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150810</v>
+      </c>
+      <c r="C223" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150810000);</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A224" s="3">
+        <v>42227</v>
+      </c>
+      <c r="B224" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150811</v>
+      </c>
+      <c r="C224" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150811000);</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A225" s="3">
+        <v>42228</v>
+      </c>
+      <c r="B225" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150812</v>
+      </c>
+      <c r="C225" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150812000);</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A226" s="3">
+        <v>42229</v>
+      </c>
+      <c r="B226" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150813</v>
+      </c>
+      <c r="C226" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150813000);</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A227" s="3">
+        <v>42230</v>
+      </c>
+      <c r="B227" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150814</v>
+      </c>
+      <c r="C227" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150814000);</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A228" s="3">
+        <v>42231</v>
+      </c>
+      <c r="B228" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150815</v>
+      </c>
+      <c r="C228" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150815000);</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A229" s="3">
+        <v>42232</v>
+      </c>
+      <c r="B229" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150816</v>
+      </c>
+      <c r="C229" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150816000);</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A230" s="3">
+        <v>42233</v>
+      </c>
+      <c r="B230" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150817</v>
+      </c>
+      <c r="C230" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150817000);</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A231" s="3">
+        <v>42234</v>
+      </c>
+      <c r="B231" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150818</v>
+      </c>
+      <c r="C231" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150818000);</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A232" s="3">
+        <v>42235</v>
+      </c>
+      <c r="B232" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150819</v>
+      </c>
+      <c r="C232" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150819000);</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A233" s="3">
+        <v>42236</v>
+      </c>
+      <c r="B233" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150820</v>
+      </c>
+      <c r="C233" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150820000);</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A234" s="3">
+        <v>42237</v>
+      </c>
+      <c r="B234" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150821</v>
+      </c>
+      <c r="C234" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150821000);</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A235" s="3">
+        <v>42238</v>
+      </c>
+      <c r="B235" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150822</v>
+      </c>
+      <c r="C235" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150822000);</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A236" s="3">
+        <v>42239</v>
+      </c>
+      <c r="B236" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150823</v>
+      </c>
+      <c r="C236" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150823000);</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A237" s="3">
+        <v>42240</v>
+      </c>
+      <c r="B237" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>20150824</v>
+      </c>
+      <c r="C237" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150824000);</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A238" s="3"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A239" s="3"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A240" s="3"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A241" s="3"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A242" s="3"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A243" s="3"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A244" s="3"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A245" s="3"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A246" s="3"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A247" s="3"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A248" s="3"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A249" s="3"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A250" s="3"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A251" s="3"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A252" s="3"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A253" s="3"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A254" s="3"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A255" s="3"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A256" s="3"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A257" s="3"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A258" s="3"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A259" s="3"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A260" s="3"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A261" s="3"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A262" s="3"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A263" s="3"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A264" s="3"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A265" s="3"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A266" s="3"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A267" s="3"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A268" s="3"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A269" s="3"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A270" s="3"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A271" s="3"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A272" s="3"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A273" s="3"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A274" s="3"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A275" s="3"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A276" s="3"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A277" s="3"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A278" s="3"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A279" s="3"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A280" s="3"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A281" s="3"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A282" s="3"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A283" s="3"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A284" s="3"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A285" s="3"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A286" s="3"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A287" s="3"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A288" s="3"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A289" s="3"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A290" s="3"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A291" s="3"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A292" s="3"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A293" s="3"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A294" s="3"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A295" s="3"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A296" s="3"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A297" s="3"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A298" s="3"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A299" s="3"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A300" s="3"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A301" s="3"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A302" s="3"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A303" s="3"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A304" s="3"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A305" s="3"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A306" s="3"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A307" s="3"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A308" s="3"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A309" s="3"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A310" s="3"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A311" s="3"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A312" s="3"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A313" s="3"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A314" s="3"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A315" s="3"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A316" s="3"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A317" s="3"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A318" s="3"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A319" s="3"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A320" s="3"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A321" s="3"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A322" s="3"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A323" s="3"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A324" s="3"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A325" s="3"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A326" s="3"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A327" s="3"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A328" s="3"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A329" s="3"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A330" s="3"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A331" s="3"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A332" s="3"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A333" s="3"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A334" s="3"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A335" s="3"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A336" s="3"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A337" s="3"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A338" s="3"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A339" s="3"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A340" s="3"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A341" s="3"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A342" s="3"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A343" s="3"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A344" s="3"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A345" s="3"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A346" s="3"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A347" s="3"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A348" s="3"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A349" s="3"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A350" s="3"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A351" s="3"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A352" s="3"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A353" s="3"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A354" s="3"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A355" s="3"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A356" s="3"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A357" s="3"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A358" s="3"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A359" s="3"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A360" s="3"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A361" s="3"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A362" s="3"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A363" s="3"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A364" s="3"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A365" s="3"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A366" s="3"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A367" s="3"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A368" s="3"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A369" s="3"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A370" s="3"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A371" s="3"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A372" s="3"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A373" s="3"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A374" s="3"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A375" s="3"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A376" s="3"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A377" s="3"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A378" s="3"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A379" s="3"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A380" s="3"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A381" s="3"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A382" s="3"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A383" s="3"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A384" s="3"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A385" s="3"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A386" s="3"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A387" s="3"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A388" s="3"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A389" s="3"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A390" s="3"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A391" s="3"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A392" s="3"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A393" s="3"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A394" s="3"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A395" s="3"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A396" s="3"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A397" s="3"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A398" s="3"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A399" s="3"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A400" s="3"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A401" s="3"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A402" s="3"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A403" s="3"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A404" s="3"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A405" s="3"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A406" s="3"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A407" s="3"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A408" s="3"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A409" s="3"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A410" s="3"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A411" s="3"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A412" s="3"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A413" s="3"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A414" s="3"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A415" s="3"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A416" s="3"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A417" s="3"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A418" s="3"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A419" s="3"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A420" s="3"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A421" s="3"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A422" s="3"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A423" s="3"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A424" s="3"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A425" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D237"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Task/2015-06-04siebel上线后会员数据整合/历史会员销售修复记录.xlsx
+++ b/Task/2015-06-04siebel上线后会员数据整合/历史会员销售修复记录.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="22">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,14 @@
   </si>
   <si>
     <t>DONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -172,7 +180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,6 +191,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16913,7 +16924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D790"/>
   <sheetViews>
-    <sheetView topLeftCell="A346" workbookViewId="0">
+    <sheetView topLeftCell="A406" workbookViewId="0">
       <selection activeCell="F354" sqref="F354"/>
     </sheetView>
   </sheetViews>
@@ -27132,16 +27143,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A526" workbookViewId="0">
-      <selection activeCell="D369" sqref="D369"/>
+    <sheetView tabSelected="1" topLeftCell="A590" workbookViewId="0">
+      <selection activeCell="D603" sqref="D603:D608"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -33010,7 +33022,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150101000);</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D367" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -33026,7 +33038,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150102000);</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D368" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -33042,7 +33054,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150103000);</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D369" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -33058,7 +33070,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150104000);</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D370" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -33074,7 +33086,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150105000);</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D371" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -33090,7 +33102,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150106000);</v>
       </c>
-      <c r="D372" t="s">
+      <c r="D372" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -33106,7 +33118,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150107000);</v>
       </c>
-      <c r="D373" t="s">
+      <c r="D373" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -33122,7 +33134,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150108000);</v>
       </c>
-      <c r="D374" t="s">
+      <c r="D374" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -33138,7 +33150,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150109000);</v>
       </c>
-      <c r="D375" t="s">
+      <c r="D375" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -33154,7 +33166,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150110000);</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D376" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -33170,7 +33182,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150111000);</v>
       </c>
-      <c r="D377" t="s">
+      <c r="D377" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -33186,7 +33198,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150112000);</v>
       </c>
-      <c r="D378" t="s">
+      <c r="D378" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -33202,7 +33214,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150113000);</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D379" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -33218,7 +33230,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150114000);</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D380" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -33234,7 +33246,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150115000);</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D381" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -33250,7 +33262,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150116000);</v>
       </c>
-      <c r="D382" t="s">
+      <c r="D382" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -33266,8 +33278,8 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150117000);</v>
       </c>
-      <c r="D383" t="s">
-        <v>4</v>
+      <c r="D383" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.15">
@@ -33282,8 +33294,8 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150118000);</v>
       </c>
-      <c r="D384" t="s">
-        <v>4</v>
+      <c r="D384" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.15">
@@ -33298,8 +33310,8 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150119000);</v>
       </c>
-      <c r="D385" t="s">
-        <v>4</v>
+      <c r="D385" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.15">
@@ -33314,8 +33326,8 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150120000);</v>
       </c>
-      <c r="D386" t="s">
-        <v>4</v>
+      <c r="D386" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.15">
@@ -33330,8 +33342,8 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150121000);</v>
       </c>
-      <c r="D387" t="s">
-        <v>4</v>
+      <c r="D387" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.15">
@@ -33346,8 +33358,8 @@
         <f t="shared" ref="C388:C451" si="13">CONCATENATE("CALL W_RTL_SLS_TRX_LC_DY_A_AGG(1",B388,"000);")</f>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150122000);</v>
       </c>
-      <c r="D388" t="s">
-        <v>4</v>
+      <c r="D388" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.15">
@@ -33362,8 +33374,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150123000);</v>
       </c>
-      <c r="D389" t="s">
-        <v>4</v>
+      <c r="D389" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.15">
@@ -33378,8 +33390,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150124000);</v>
       </c>
-      <c r="D390" t="s">
-        <v>4</v>
+      <c r="D390" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.15">
@@ -33394,8 +33406,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150125000);</v>
       </c>
-      <c r="D391" t="s">
-        <v>4</v>
+      <c r="D391" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.15">
@@ -33410,8 +33422,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150126000);</v>
       </c>
-      <c r="D392" t="s">
-        <v>4</v>
+      <c r="D392" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.15">
@@ -33426,8 +33438,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150127000);</v>
       </c>
-      <c r="D393" t="s">
-        <v>4</v>
+      <c r="D393" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.15">
@@ -33442,8 +33454,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150128000);</v>
       </c>
-      <c r="D394" t="s">
-        <v>4</v>
+      <c r="D394" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.15">
@@ -33458,8 +33470,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150129000);</v>
       </c>
-      <c r="D395" t="s">
-        <v>4</v>
+      <c r="D395" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.15">
@@ -33474,8 +33486,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150130000);</v>
       </c>
-      <c r="D396" t="s">
-        <v>4</v>
+      <c r="D396" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.15">
@@ -33490,8 +33502,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150131000);</v>
       </c>
-      <c r="D397" t="s">
-        <v>4</v>
+      <c r="D397" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.15">
@@ -33506,8 +33518,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150201000);</v>
       </c>
-      <c r="D398" t="s">
-        <v>4</v>
+      <c r="D398" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.15">
@@ -33522,8 +33534,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150202000);</v>
       </c>
-      <c r="D399" t="s">
-        <v>4</v>
+      <c r="D399" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.15">
@@ -33538,8 +33550,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150203000);</v>
       </c>
-      <c r="D400" t="s">
-        <v>4</v>
+      <c r="D400" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.15">
@@ -33554,8 +33566,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150204000);</v>
       </c>
-      <c r="D401" t="s">
-        <v>4</v>
+      <c r="D401" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.15">
@@ -33570,8 +33582,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150205000);</v>
       </c>
-      <c r="D402" t="s">
-        <v>4</v>
+      <c r="D402" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.15">
@@ -33586,8 +33598,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150206000);</v>
       </c>
-      <c r="D403" t="s">
-        <v>4</v>
+      <c r="D403" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.15">
@@ -33602,8 +33614,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150207000);</v>
       </c>
-      <c r="D404" t="s">
-        <v>4</v>
+      <c r="D404" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.15">
@@ -33618,8 +33630,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150208000);</v>
       </c>
-      <c r="D405" t="s">
-        <v>4</v>
+      <c r="D405" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.15">
@@ -33634,8 +33646,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150209000);</v>
       </c>
-      <c r="D406" t="s">
-        <v>4</v>
+      <c r="D406" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.15">
@@ -33650,8 +33662,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150210000);</v>
       </c>
-      <c r="D407" t="s">
-        <v>4</v>
+      <c r="D407" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.15">
@@ -33666,8 +33678,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150211000);</v>
       </c>
-      <c r="D408" t="s">
-        <v>4</v>
+      <c r="D408" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.15">
@@ -33682,8 +33694,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150212000);</v>
       </c>
-      <c r="D409" t="s">
-        <v>4</v>
+      <c r="D409" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.15">
@@ -33698,8 +33710,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150213000);</v>
       </c>
-      <c r="D410" t="s">
-        <v>4</v>
+      <c r="D410" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.15">
@@ -33714,8 +33726,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150214000);</v>
       </c>
-      <c r="D411" t="s">
-        <v>4</v>
+      <c r="D411" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.15">
@@ -33730,8 +33742,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150215000);</v>
       </c>
-      <c r="D412" t="s">
-        <v>4</v>
+      <c r="D412" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.15">
@@ -33746,8 +33758,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150216000);</v>
       </c>
-      <c r="D413" t="s">
-        <v>4</v>
+      <c r="D413" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.15">
@@ -33762,8 +33774,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150217000);</v>
       </c>
-      <c r="D414" t="s">
-        <v>4</v>
+      <c r="D414" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.15">
@@ -33778,8 +33790,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150218000);</v>
       </c>
-      <c r="D415" t="s">
-        <v>4</v>
+      <c r="D415" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.15">
@@ -33794,8 +33806,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150219000);</v>
       </c>
-      <c r="D416" t="s">
-        <v>4</v>
+      <c r="D416" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.15">
@@ -33810,8 +33822,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150220000);</v>
       </c>
-      <c r="D417" t="s">
-        <v>4</v>
+      <c r="D417" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.15">
@@ -33826,8 +33838,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150221000);</v>
       </c>
-      <c r="D418" t="s">
-        <v>4</v>
+      <c r="D418" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.15">
@@ -33842,8 +33854,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150222000);</v>
       </c>
-      <c r="D419" t="s">
-        <v>4</v>
+      <c r="D419" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.15">
@@ -33858,8 +33870,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150223000);</v>
       </c>
-      <c r="D420" t="s">
-        <v>4</v>
+      <c r="D420" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.15">
@@ -33874,8 +33886,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150224000);</v>
       </c>
-      <c r="D421" t="s">
-        <v>4</v>
+      <c r="D421" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.15">
@@ -33890,8 +33902,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150225000);</v>
       </c>
-      <c r="D422" t="s">
-        <v>4</v>
+      <c r="D422" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.15">
@@ -33906,8 +33918,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150226000);</v>
       </c>
-      <c r="D423" t="s">
-        <v>4</v>
+      <c r="D423" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.15">
@@ -33922,8 +33934,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150227000);</v>
       </c>
-      <c r="D424" t="s">
-        <v>4</v>
+      <c r="D424" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.15">
@@ -33938,8 +33950,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150228000);</v>
       </c>
-      <c r="D425" t="s">
-        <v>4</v>
+      <c r="D425" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.15">
@@ -33954,8 +33966,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150301000);</v>
       </c>
-      <c r="D426" t="s">
-        <v>4</v>
+      <c r="D426" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.15">
@@ -33970,8 +33982,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150302000);</v>
       </c>
-      <c r="D427" t="s">
-        <v>4</v>
+      <c r="D427" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.15">
@@ -33986,8 +33998,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150303000);</v>
       </c>
-      <c r="D428" t="s">
-        <v>4</v>
+      <c r="D428" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.15">
@@ -34002,8 +34014,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150304000);</v>
       </c>
-      <c r="D429" t="s">
-        <v>4</v>
+      <c r="D429" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.15">
@@ -34018,8 +34030,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150305000);</v>
       </c>
-      <c r="D430" t="s">
-        <v>4</v>
+      <c r="D430" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.15">
@@ -34034,8 +34046,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150306000);</v>
       </c>
-      <c r="D431" t="s">
-        <v>4</v>
+      <c r="D431" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.15">
@@ -34050,8 +34062,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150307000);</v>
       </c>
-      <c r="D432" t="s">
-        <v>4</v>
+      <c r="D432" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.15">
@@ -34066,8 +34078,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150308000);</v>
       </c>
-      <c r="D433" t="s">
-        <v>4</v>
+      <c r="D433" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.15">
@@ -34082,8 +34094,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150309000);</v>
       </c>
-      <c r="D434" t="s">
-        <v>4</v>
+      <c r="D434" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.15">
@@ -34098,8 +34110,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150310000);</v>
       </c>
-      <c r="D435" t="s">
-        <v>4</v>
+      <c r="D435" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.15">
@@ -34114,8 +34126,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150311000);</v>
       </c>
-      <c r="D436" t="s">
-        <v>4</v>
+      <c r="D436" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.15">
@@ -34130,8 +34142,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150312000);</v>
       </c>
-      <c r="D437" t="s">
-        <v>4</v>
+      <c r="D437" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.15">
@@ -34146,8 +34158,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150313000);</v>
       </c>
-      <c r="D438" t="s">
-        <v>4</v>
+      <c r="D438" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.15">
@@ -34162,8 +34174,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150314000);</v>
       </c>
-      <c r="D439" t="s">
-        <v>4</v>
+      <c r="D439" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.15">
@@ -34178,8 +34190,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150315000);</v>
       </c>
-      <c r="D440" t="s">
-        <v>4</v>
+      <c r="D440" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.15">
@@ -34194,8 +34206,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150316000);</v>
       </c>
-      <c r="D441" t="s">
-        <v>4</v>
+      <c r="D441" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.15">
@@ -34210,8 +34222,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150317000);</v>
       </c>
-      <c r="D442" t="s">
-        <v>4</v>
+      <c r="D442" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.15">
@@ -34226,8 +34238,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150318000);</v>
       </c>
-      <c r="D443" t="s">
-        <v>4</v>
+      <c r="D443" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.15">
@@ -34242,8 +34254,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150319000);</v>
       </c>
-      <c r="D444" t="s">
-        <v>4</v>
+      <c r="D444" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.15">
@@ -34258,8 +34270,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150320000);</v>
       </c>
-      <c r="D445" t="s">
-        <v>4</v>
+      <c r="D445" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.15">
@@ -34274,8 +34286,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150321000);</v>
       </c>
-      <c r="D446" t="s">
-        <v>4</v>
+      <c r="D446" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.15">
@@ -34290,8 +34302,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150322000);</v>
       </c>
-      <c r="D447" t="s">
-        <v>4</v>
+      <c r="D447" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.15">
@@ -34306,8 +34318,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150323000);</v>
       </c>
-      <c r="D448" t="s">
-        <v>4</v>
+      <c r="D448" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.15">
@@ -34322,8 +34334,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150324000);</v>
       </c>
-      <c r="D449" t="s">
-        <v>4</v>
+      <c r="D449" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.15">
@@ -34338,8 +34350,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150325000);</v>
       </c>
-      <c r="D450" t="s">
-        <v>4</v>
+      <c r="D450" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.15">
@@ -34354,8 +34366,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150326000);</v>
       </c>
-      <c r="D451" t="s">
-        <v>4</v>
+      <c r="D451" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.15">
@@ -34370,8 +34382,8 @@
         <f t="shared" ref="C452:C515" si="15">CONCATENATE("CALL W_RTL_SLS_TRX_LC_DY_A_AGG(1",B452,"000);")</f>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150327000);</v>
       </c>
-      <c r="D452" t="s">
-        <v>4</v>
+      <c r="D452" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.15">
@@ -34386,8 +34398,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150328000);</v>
       </c>
-      <c r="D453" t="s">
-        <v>4</v>
+      <c r="D453" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.15">
@@ -34402,8 +34414,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150329000);</v>
       </c>
-      <c r="D454" t="s">
-        <v>4</v>
+      <c r="D454" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.15">
@@ -34418,8 +34430,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150330000);</v>
       </c>
-      <c r="D455" t="s">
-        <v>4</v>
+      <c r="D455" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.15">
@@ -34434,8 +34446,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150331000);</v>
       </c>
-      <c r="D456" t="s">
-        <v>4</v>
+      <c r="D456" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.15">
@@ -34450,8 +34462,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150401000);</v>
       </c>
-      <c r="D457" t="s">
-        <v>4</v>
+      <c r="D457" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.15">
@@ -34466,8 +34478,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150402000);</v>
       </c>
-      <c r="D458" t="s">
-        <v>4</v>
+      <c r="D458" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.15">
@@ -34482,8 +34494,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150403000);</v>
       </c>
-      <c r="D459" t="s">
-        <v>4</v>
+      <c r="D459" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.15">
@@ -34498,8 +34510,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150404000);</v>
       </c>
-      <c r="D460" t="s">
-        <v>4</v>
+      <c r="D460" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.15">
@@ -34514,8 +34526,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150405000);</v>
       </c>
-      <c r="D461" t="s">
-        <v>4</v>
+      <c r="D461" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.15">
@@ -34530,8 +34542,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150406000);</v>
       </c>
-      <c r="D462" t="s">
-        <v>4</v>
+      <c r="D462" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.15">
@@ -34546,8 +34558,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150407000);</v>
       </c>
-      <c r="D463" t="s">
-        <v>4</v>
+      <c r="D463" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.15">
@@ -34562,8 +34574,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150408000);</v>
       </c>
-      <c r="D464" t="s">
-        <v>4</v>
+      <c r="D464" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.15">
@@ -34578,8 +34590,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150409000);</v>
       </c>
-      <c r="D465" t="s">
-        <v>4</v>
+      <c r="D465" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.15">
@@ -34594,8 +34606,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150410000);</v>
       </c>
-      <c r="D466" t="s">
-        <v>4</v>
+      <c r="D466" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.15">
@@ -34610,8 +34622,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150411000);</v>
       </c>
-      <c r="D467" t="s">
-        <v>4</v>
+      <c r="D467" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.15">
@@ -34626,8 +34638,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150412000);</v>
       </c>
-      <c r="D468" t="s">
-        <v>4</v>
+      <c r="D468" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.15">
@@ -34642,8 +34654,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150413000);</v>
       </c>
-      <c r="D469" t="s">
-        <v>4</v>
+      <c r="D469" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.15">
@@ -34658,8 +34670,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150414000);</v>
       </c>
-      <c r="D470" t="s">
-        <v>4</v>
+      <c r="D470" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.15">
@@ -34674,8 +34686,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150415000);</v>
       </c>
-      <c r="D471" t="s">
-        <v>4</v>
+      <c r="D471" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.15">
@@ -34690,8 +34702,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150416000);</v>
       </c>
-      <c r="D472" t="s">
-        <v>4</v>
+      <c r="D472" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.15">
@@ -34706,8 +34718,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150417000);</v>
       </c>
-      <c r="D473" t="s">
-        <v>4</v>
+      <c r="D473" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.15">
@@ -34722,8 +34734,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150418000);</v>
       </c>
-      <c r="D474" t="s">
-        <v>4</v>
+      <c r="D474" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.15">
@@ -34738,8 +34750,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150419000);</v>
       </c>
-      <c r="D475" t="s">
-        <v>4</v>
+      <c r="D475" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.15">
@@ -34754,8 +34766,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150420000);</v>
       </c>
-      <c r="D476" t="s">
-        <v>4</v>
+      <c r="D476" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.15">
@@ -34770,8 +34782,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150421000);</v>
       </c>
-      <c r="D477" t="s">
-        <v>4</v>
+      <c r="D477" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.15">
@@ -34786,8 +34798,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150422000);</v>
       </c>
-      <c r="D478" t="s">
-        <v>4</v>
+      <c r="D478" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.15">
@@ -34802,8 +34814,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150423000);</v>
       </c>
-      <c r="D479" t="s">
-        <v>4</v>
+      <c r="D479" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.15">
@@ -34818,8 +34830,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150424000);</v>
       </c>
-      <c r="D480" t="s">
-        <v>4</v>
+      <c r="D480" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.15">
@@ -34834,8 +34846,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150425000);</v>
       </c>
-      <c r="D481" t="s">
-        <v>4</v>
+      <c r="D481" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.15">
@@ -34850,8 +34862,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150426000);</v>
       </c>
-      <c r="D482" t="s">
-        <v>4</v>
+      <c r="D482" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.15">
@@ -34866,8 +34878,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150427000);</v>
       </c>
-      <c r="D483" t="s">
-        <v>4</v>
+      <c r="D483" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.15">
@@ -34882,8 +34894,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150428000);</v>
       </c>
-      <c r="D484" t="s">
-        <v>4</v>
+      <c r="D484" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.15">
@@ -34898,8 +34910,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150429000);</v>
       </c>
-      <c r="D485" t="s">
-        <v>4</v>
+      <c r="D485" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.15">
@@ -34914,8 +34926,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150430000);</v>
       </c>
-      <c r="D486" t="s">
-        <v>4</v>
+      <c r="D486" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.15">
@@ -34930,8 +34942,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150501000);</v>
       </c>
-      <c r="D487" t="s">
-        <v>4</v>
+      <c r="D487" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.15">
@@ -34946,8 +34958,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150502000);</v>
       </c>
-      <c r="D488" t="s">
-        <v>4</v>
+      <c r="D488" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.15">
@@ -34962,8 +34974,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150503000);</v>
       </c>
-      <c r="D489" t="s">
-        <v>4</v>
+      <c r="D489" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.15">
@@ -34978,8 +34990,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150504000);</v>
       </c>
-      <c r="D490" t="s">
-        <v>4</v>
+      <c r="D490" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.15">
@@ -34994,8 +35006,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150505000);</v>
       </c>
-      <c r="D491" t="s">
-        <v>4</v>
+      <c r="D491" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.15">
@@ -35010,8 +35022,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150506000);</v>
       </c>
-      <c r="D492" t="s">
-        <v>4</v>
+      <c r="D492" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.15">
@@ -35026,8 +35038,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150507000);</v>
       </c>
-      <c r="D493" t="s">
-        <v>4</v>
+      <c r="D493" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.15">
@@ -35042,8 +35054,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150508000);</v>
       </c>
-      <c r="D494" t="s">
-        <v>4</v>
+      <c r="D494" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.15">
@@ -35058,8 +35070,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150509000);</v>
       </c>
-      <c r="D495" t="s">
-        <v>4</v>
+      <c r="D495" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.15">
@@ -35074,8 +35086,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150510000);</v>
       </c>
-      <c r="D496" t="s">
-        <v>4</v>
+      <c r="D496" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.15">
@@ -35090,8 +35102,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150511000);</v>
       </c>
-      <c r="D497" t="s">
-        <v>4</v>
+      <c r="D497" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.15">
@@ -35106,8 +35118,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150512000);</v>
       </c>
-      <c r="D498" t="s">
-        <v>4</v>
+      <c r="D498" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.15">
@@ -35122,8 +35134,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150513000);</v>
       </c>
-      <c r="D499" t="s">
-        <v>4</v>
+      <c r="D499" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.15">
@@ -35138,8 +35150,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150514000);</v>
       </c>
-      <c r="D500" t="s">
-        <v>4</v>
+      <c r="D500" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.15">
@@ -35154,8 +35166,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150515000);</v>
       </c>
-      <c r="D501" t="s">
-        <v>4</v>
+      <c r="D501" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.15">
@@ -35170,8 +35182,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150516000);</v>
       </c>
-      <c r="D502" t="s">
-        <v>4</v>
+      <c r="D502" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.15">
@@ -35186,8 +35198,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150517000);</v>
       </c>
-      <c r="D503" t="s">
-        <v>4</v>
+      <c r="D503" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.15">
@@ -35202,8 +35214,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150518000);</v>
       </c>
-      <c r="D504" t="s">
-        <v>4</v>
+      <c r="D504" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.15">
@@ -35218,8 +35230,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150519000);</v>
       </c>
-      <c r="D505" t="s">
-        <v>4</v>
+      <c r="D505" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.15">
@@ -35234,8 +35246,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150520000);</v>
       </c>
-      <c r="D506" t="s">
-        <v>4</v>
+      <c r="D506" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.15">
@@ -35250,8 +35262,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150521000);</v>
       </c>
-      <c r="D507" t="s">
-        <v>4</v>
+      <c r="D507" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.15">
@@ -35266,8 +35278,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150522000);</v>
       </c>
-      <c r="D508" t="s">
-        <v>4</v>
+      <c r="D508" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.15">
@@ -35282,8 +35294,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150523000);</v>
       </c>
-      <c r="D509" t="s">
-        <v>4</v>
+      <c r="D509" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.15">
@@ -35298,8 +35310,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150524000);</v>
       </c>
-      <c r="D510" t="s">
-        <v>4</v>
+      <c r="D510" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.15">
@@ -35314,8 +35326,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150525000);</v>
       </c>
-      <c r="D511" t="s">
-        <v>4</v>
+      <c r="D511" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.15">
@@ -35330,8 +35342,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150526000);</v>
       </c>
-      <c r="D512" t="s">
-        <v>4</v>
+      <c r="D512" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.15">
@@ -35346,8 +35358,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150527000);</v>
       </c>
-      <c r="D513" t="s">
-        <v>4</v>
+      <c r="D513" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.15">
@@ -35362,8 +35374,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150528000);</v>
       </c>
-      <c r="D514" t="s">
-        <v>4</v>
+      <c r="D514" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.15">
@@ -35378,8 +35390,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150529000);</v>
       </c>
-      <c r="D515" t="s">
-        <v>4</v>
+      <c r="D515" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.15">
@@ -35394,8 +35406,8 @@
         <f t="shared" ref="C516:C579" si="17">CONCATENATE("CALL W_RTL_SLS_TRX_LC_DY_A_AGG(1",B516,"000);")</f>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150530000);</v>
       </c>
-      <c r="D516" t="s">
-        <v>4</v>
+      <c r="D516" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.15">
@@ -35410,8 +35422,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150531000);</v>
       </c>
-      <c r="D517" t="s">
-        <v>4</v>
+      <c r="D517" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.15">
@@ -35426,8 +35438,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150601000);</v>
       </c>
-      <c r="D518" t="s">
-        <v>4</v>
+      <c r="D518" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.15">
@@ -35442,8 +35454,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150602000);</v>
       </c>
-      <c r="D519" t="s">
-        <v>4</v>
+      <c r="D519" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.15">
@@ -35458,8 +35470,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150603000);</v>
       </c>
-      <c r="D520" t="s">
-        <v>4</v>
+      <c r="D520" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.15">
@@ -35474,8 +35486,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150604000);</v>
       </c>
-      <c r="D521" t="s">
-        <v>4</v>
+      <c r="D521" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.15">
@@ -35490,8 +35502,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150605000);</v>
       </c>
-      <c r="D522" t="s">
-        <v>4</v>
+      <c r="D522" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.15">
@@ -35506,8 +35518,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150606000);</v>
       </c>
-      <c r="D523" t="s">
-        <v>4</v>
+      <c r="D523" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.15">
@@ -35522,8 +35534,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150607000);</v>
       </c>
-      <c r="D524" t="s">
-        <v>4</v>
+      <c r="D524" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.15">
@@ -35538,8 +35550,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150608000);</v>
       </c>
-      <c r="D525" t="s">
-        <v>4</v>
+      <c r="D525" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.15">
@@ -35554,8 +35566,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150609000);</v>
       </c>
-      <c r="D526" t="s">
-        <v>4</v>
+      <c r="D526" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.15">
@@ -35570,8 +35582,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150610000);</v>
       </c>
-      <c r="D527" t="s">
-        <v>4</v>
+      <c r="D527" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.15">
@@ -35586,8 +35598,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150611000);</v>
       </c>
-      <c r="D528" t="s">
-        <v>4</v>
+      <c r="D528" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.15">
@@ -35602,8 +35614,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150612000);</v>
       </c>
-      <c r="D529" t="s">
-        <v>4</v>
+      <c r="D529" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.15">
@@ -35618,8 +35630,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150613000);</v>
       </c>
-      <c r="D530" t="s">
-        <v>4</v>
+      <c r="D530" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.15">
@@ -35634,8 +35646,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150614000);</v>
       </c>
-      <c r="D531" t="s">
-        <v>4</v>
+      <c r="D531" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.15">
@@ -35650,8 +35662,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150615000);</v>
       </c>
-      <c r="D532" t="s">
-        <v>4</v>
+      <c r="D532" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.15">
@@ -35666,8 +35678,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150616000);</v>
       </c>
-      <c r="D533" t="s">
-        <v>4</v>
+      <c r="D533" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.15">
@@ -35682,8 +35694,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150617000);</v>
       </c>
-      <c r="D534" t="s">
-        <v>4</v>
+      <c r="D534" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.15">
@@ -35698,8 +35710,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150618000);</v>
       </c>
-      <c r="D535" t="s">
-        <v>4</v>
+      <c r="D535" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.15">
@@ -35714,8 +35726,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150619000);</v>
       </c>
-      <c r="D536" t="s">
-        <v>4</v>
+      <c r="D536" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.15">
@@ -35730,8 +35742,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150620000);</v>
       </c>
-      <c r="D537" t="s">
-        <v>4</v>
+      <c r="D537" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.15">
@@ -35746,8 +35758,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150621000);</v>
       </c>
-      <c r="D538" t="s">
-        <v>4</v>
+      <c r="D538" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.15">
@@ -35762,8 +35774,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150622000);</v>
       </c>
-      <c r="D539" t="s">
-        <v>4</v>
+      <c r="D539" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.15">
@@ -35778,8 +35790,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150623000);</v>
       </c>
-      <c r="D540" t="s">
-        <v>4</v>
+      <c r="D540" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.15">
@@ -35794,8 +35806,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150624000);</v>
       </c>
-      <c r="D541" t="s">
-        <v>4</v>
+      <c r="D541" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.15">
@@ -35810,8 +35822,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150625000);</v>
       </c>
-      <c r="D542" t="s">
-        <v>4</v>
+      <c r="D542" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.15">
@@ -35826,8 +35838,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150626000);</v>
       </c>
-      <c r="D543" t="s">
-        <v>4</v>
+      <c r="D543" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.15">
@@ -35842,8 +35854,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150627000);</v>
       </c>
-      <c r="D544" t="s">
-        <v>4</v>
+      <c r="D544" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.15">
@@ -35858,8 +35870,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150628000);</v>
       </c>
-      <c r="D545" t="s">
-        <v>4</v>
+      <c r="D545" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.15">
@@ -35874,8 +35886,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150629000);</v>
       </c>
-      <c r="D546" t="s">
-        <v>4</v>
+      <c r="D546" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.15">
@@ -35890,8 +35902,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150630000);</v>
       </c>
-      <c r="D547" t="s">
-        <v>4</v>
+      <c r="D547" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.15">
@@ -35906,8 +35918,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150701000);</v>
       </c>
-      <c r="D548" t="s">
-        <v>4</v>
+      <c r="D548" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.15">
@@ -35922,8 +35934,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150702000);</v>
       </c>
-      <c r="D549" t="s">
-        <v>4</v>
+      <c r="D549" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.15">
@@ -35938,8 +35950,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150703000);</v>
       </c>
-      <c r="D550" t="s">
-        <v>4</v>
+      <c r="D550" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.15">
@@ -35954,8 +35966,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150704000);</v>
       </c>
-      <c r="D551" t="s">
-        <v>4</v>
+      <c r="D551" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.15">
@@ -35970,8 +35982,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150705000);</v>
       </c>
-      <c r="D552" t="s">
-        <v>4</v>
+      <c r="D552" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.15">
@@ -35986,8 +35998,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150706000);</v>
       </c>
-      <c r="D553" t="s">
-        <v>4</v>
+      <c r="D553" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.15">
@@ -36002,8 +36014,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150707000);</v>
       </c>
-      <c r="D554" t="s">
-        <v>4</v>
+      <c r="D554" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.15">
@@ -36018,8 +36030,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150708000);</v>
       </c>
-      <c r="D555" t="s">
-        <v>4</v>
+      <c r="D555" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.15">
@@ -36034,8 +36046,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150709000);</v>
       </c>
-      <c r="D556" t="s">
-        <v>4</v>
+      <c r="D556" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.15">
@@ -36050,8 +36062,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150710000);</v>
       </c>
-      <c r="D557" t="s">
-        <v>4</v>
+      <c r="D557" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.15">
@@ -36066,8 +36078,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150711000);</v>
       </c>
-      <c r="D558" t="s">
-        <v>4</v>
+      <c r="D558" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.15">
@@ -36082,8 +36094,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150712000);</v>
       </c>
-      <c r="D559" t="s">
-        <v>4</v>
+      <c r="D559" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.15">
@@ -36098,8 +36110,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150713000);</v>
       </c>
-      <c r="D560" t="s">
-        <v>4</v>
+      <c r="D560" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.15">
@@ -36114,8 +36126,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150714000);</v>
       </c>
-      <c r="D561" t="s">
-        <v>4</v>
+      <c r="D561" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.15">
@@ -36130,8 +36142,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150715000);</v>
       </c>
-      <c r="D562" t="s">
-        <v>4</v>
+      <c r="D562" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.15">
@@ -36146,8 +36158,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150716000);</v>
       </c>
-      <c r="D563" t="s">
-        <v>4</v>
+      <c r="D563" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.15">
@@ -36162,8 +36174,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150717000);</v>
       </c>
-      <c r="D564" t="s">
-        <v>4</v>
+      <c r="D564" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.15">
@@ -36178,8 +36190,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150718000);</v>
       </c>
-      <c r="D565" t="s">
-        <v>4</v>
+      <c r="D565" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.15">
@@ -36194,8 +36206,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150719000);</v>
       </c>
-      <c r="D566" t="s">
-        <v>4</v>
+      <c r="D566" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.15">
@@ -36210,8 +36222,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150720000);</v>
       </c>
-      <c r="D567" t="s">
-        <v>4</v>
+      <c r="D567" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.15">
@@ -36226,8 +36238,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150721000);</v>
       </c>
-      <c r="D568" t="s">
-        <v>4</v>
+      <c r="D568" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.15">
@@ -36242,8 +36254,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150722000);</v>
       </c>
-      <c r="D569" t="s">
-        <v>4</v>
+      <c r="D569" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.15">
@@ -36258,8 +36270,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150723000);</v>
       </c>
-      <c r="D570" t="s">
-        <v>4</v>
+      <c r="D570" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.15">
@@ -36274,8 +36286,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150724000);</v>
       </c>
-      <c r="D571" t="s">
-        <v>4</v>
+      <c r="D571" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.15">
@@ -36290,8 +36302,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150725000);</v>
       </c>
-      <c r="D572" t="s">
-        <v>4</v>
+      <c r="D572" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.15">
@@ -36306,8 +36318,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150726000);</v>
       </c>
-      <c r="D573" t="s">
-        <v>4</v>
+      <c r="D573" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.15">
@@ -36322,8 +36334,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150727000);</v>
       </c>
-      <c r="D574" t="s">
-        <v>4</v>
+      <c r="D574" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.15">
@@ -36338,8 +36350,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150728000);</v>
       </c>
-      <c r="D575" t="s">
-        <v>4</v>
+      <c r="D575" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.15">
@@ -36354,8 +36366,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150729000);</v>
       </c>
-      <c r="D576" t="s">
-        <v>4</v>
+      <c r="D576" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.15">
@@ -36370,8 +36382,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150730000);</v>
       </c>
-      <c r="D577" t="s">
-        <v>4</v>
+      <c r="D577" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.15">
@@ -36386,8 +36398,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150731000);</v>
       </c>
-      <c r="D578" t="s">
-        <v>4</v>
+      <c r="D578" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.15">
@@ -36402,8 +36414,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150801000);</v>
       </c>
-      <c r="D579" t="s">
-        <v>4</v>
+      <c r="D579" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.15">
@@ -36418,8 +36430,8 @@
         <f t="shared" ref="C580:C609" si="19">CONCATENATE("CALL W_RTL_SLS_TRX_LC_DY_A_AGG(1",B580,"000);")</f>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150802000);</v>
       </c>
-      <c r="D580" t="s">
-        <v>4</v>
+      <c r="D580" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.15">
@@ -36434,8 +36446,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150803000);</v>
       </c>
-      <c r="D581" t="s">
-        <v>4</v>
+      <c r="D581" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.15">
@@ -36450,8 +36462,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150804000);</v>
       </c>
-      <c r="D582" t="s">
-        <v>4</v>
+      <c r="D582" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.15">
@@ -36466,8 +36478,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150805000);</v>
       </c>
-      <c r="D583" t="s">
-        <v>4</v>
+      <c r="D583" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.15">
@@ -36482,8 +36494,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150806000);</v>
       </c>
-      <c r="D584" t="s">
-        <v>4</v>
+      <c r="D584" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.15">
@@ -36498,8 +36510,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150807000);</v>
       </c>
-      <c r="D585" t="s">
-        <v>4</v>
+      <c r="D585" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.15">
@@ -36514,8 +36526,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150808000);</v>
       </c>
-      <c r="D586" t="s">
-        <v>4</v>
+      <c r="D586" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.15">
@@ -36530,8 +36542,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150809000);</v>
       </c>
-      <c r="D587" t="s">
-        <v>4</v>
+      <c r="D587" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.15">
@@ -36546,8 +36558,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150810000);</v>
       </c>
-      <c r="D588" t="s">
-        <v>4</v>
+      <c r="D588" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.15">
@@ -36562,8 +36574,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150811000);</v>
       </c>
-      <c r="D589" t="s">
-        <v>4</v>
+      <c r="D589" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.15">
@@ -36578,8 +36590,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150812000);</v>
       </c>
-      <c r="D590" t="s">
-        <v>4</v>
+      <c r="D590" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.15">
@@ -36594,8 +36606,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150813000);</v>
       </c>
-      <c r="D591" t="s">
-        <v>4</v>
+      <c r="D591" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.15">
@@ -36610,8 +36622,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150814000);</v>
       </c>
-      <c r="D592" t="s">
-        <v>4</v>
+      <c r="D592" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.15">
@@ -36626,8 +36638,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150815000);</v>
       </c>
-      <c r="D593" t="s">
-        <v>4</v>
+      <c r="D593" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.15">
@@ -36642,8 +36654,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150816000);</v>
       </c>
-      <c r="D594" t="s">
-        <v>4</v>
+      <c r="D594" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.15">
@@ -36658,8 +36670,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150817000);</v>
       </c>
-      <c r="D595" t="s">
-        <v>4</v>
+      <c r="D595" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.15">
@@ -36674,8 +36686,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150818000);</v>
       </c>
-      <c r="D596" t="s">
-        <v>4</v>
+      <c r="D596" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.15">
@@ -36690,8 +36702,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150819000);</v>
       </c>
-      <c r="D597" t="s">
-        <v>4</v>
+      <c r="D597" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.15">
@@ -36706,8 +36718,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150820000);</v>
       </c>
-      <c r="D598" t="s">
-        <v>4</v>
+      <c r="D598" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.15">
@@ -36722,8 +36734,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150821000);</v>
       </c>
-      <c r="D599" t="s">
-        <v>4</v>
+      <c r="D599" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.15">
@@ -36738,8 +36750,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150822000);</v>
       </c>
-      <c r="D600" t="s">
-        <v>4</v>
+      <c r="D600" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.15">
@@ -36754,8 +36766,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150823000);</v>
       </c>
-      <c r="D601" t="s">
-        <v>4</v>
+      <c r="D601" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.15">
@@ -36770,8 +36782,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150824000);</v>
       </c>
-      <c r="D602" t="s">
-        <v>4</v>
+      <c r="D602" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.15">
@@ -36786,8 +36798,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150825000);</v>
       </c>
-      <c r="D603" t="s">
-        <v>4</v>
+      <c r="D603" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.15">
@@ -36802,8 +36814,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150826000);</v>
       </c>
-      <c r="D604" t="s">
-        <v>4</v>
+      <c r="D604" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.15">
@@ -36818,8 +36830,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150827000);</v>
       </c>
-      <c r="D605" t="s">
-        <v>4</v>
+      <c r="D605" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.15">
@@ -36834,6 +36846,9 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150828000);</v>
       </c>
+      <c r="D606" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A607" s="3">
@@ -36847,6 +36862,9 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150829000);</v>
       </c>
+      <c r="D607" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A608" s="3">
@@ -36859,6 +36877,9 @@
       <c r="C608" s="2" t="str">
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150830000);</v>
+      </c>
+      <c r="D608" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.15">

--- a/Task/2015-06-04siebel上线后会员数据整合/历史会员销售修复记录.xlsx
+++ b/Task/2015-06-04siebel上线后会员数据整合/历史会员销售修复记录.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="20">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,14 +46,6 @@
   </si>
   <si>
     <t>DONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -16924,8 +16916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D790"/>
   <sheetViews>
-    <sheetView topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="F354" sqref="F354"/>
+    <sheetView topLeftCell="A595" workbookViewId="0">
+      <selection activeCell="D601" sqref="D601:D609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -25804,7 +25796,7 @@
         <v>42193</v>
       </c>
       <c r="B555" s="2" t="str">
-        <f t="shared" ref="B555:B602" si="18">TEXT(A555,"yyyymmdd")</f>
+        <f t="shared" ref="B555:B609" si="18">TEXT(A555,"yyyymmdd")</f>
         <v>20150708</v>
       </c>
       <c r="C555" s="2" t="str">
@@ -25888,7 +25880,7 @@
         <v>20150713</v>
       </c>
       <c r="C560" s="2" t="str">
-        <f t="shared" ref="C560:C602" si="19">CONCATENATE("CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(1",B560,"000);")</f>
+        <f t="shared" ref="C560:C609" si="19">CONCATENATE("CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(1",B560,"000);")</f>
         <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150713000);</v>
       </c>
       <c r="D560" s="2" t="s">
@@ -26564,73 +26556,164 @@
         <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150824000);</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A603" s="3"/>
+      <c r="A603" s="3">
+        <v>42241</v>
+      </c>
+      <c r="B603" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>20150825</v>
+      </c>
+      <c r="C603" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150825000);</v>
+      </c>
+      <c r="D603" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A604" s="3"/>
+      <c r="A604" s="3">
+        <v>42242</v>
+      </c>
+      <c r="B604" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>20150826</v>
+      </c>
+      <c r="C604" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150826000);</v>
+      </c>
+      <c r="D604" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A605" s="3"/>
+      <c r="A605" s="3">
+        <v>42243</v>
+      </c>
+      <c r="B605" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>20150827</v>
+      </c>
+      <c r="C605" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150827000);</v>
+      </c>
+      <c r="D605" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A606" s="3"/>
+      <c r="A606" s="3">
+        <v>42244</v>
+      </c>
+      <c r="B606" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>20150828</v>
+      </c>
+      <c r="C606" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150828000);</v>
+      </c>
+      <c r="D606" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A607" s="3"/>
+      <c r="A607" s="3">
+        <v>42245</v>
+      </c>
+      <c r="B607" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>20150829</v>
+      </c>
+      <c r="C607" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150829000);</v>
+      </c>
+      <c r="D607" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A608" s="3"/>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A609" s="3"/>
-    </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A608" s="3">
+        <v>42246</v>
+      </c>
+      <c r="B608" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>20150830</v>
+      </c>
+      <c r="C608" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150830000);</v>
+      </c>
+      <c r="D608" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A609" s="3">
+        <v>42247</v>
+      </c>
+      <c r="B609" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>20150831</v>
+      </c>
+      <c r="C609" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>CALL W_RTL_SLS_TRX_DP_LC_DY_A_AGG(120150831000);</v>
+      </c>
+      <c r="D609" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A610" s="3"/>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A611" s="3"/>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A612" s="3"/>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A613" s="3"/>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A614" s="3"/>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A615" s="3"/>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A616" s="3"/>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A617" s="3"/>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A618" s="3"/>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A619" s="3"/>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A620" s="3"/>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A621" s="3"/>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A622" s="3"/>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A623" s="3"/>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A624" s="3"/>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.15">
@@ -27141,10 +27224,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D609"/>
+  <dimension ref="A1:D610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A590" workbookViewId="0">
-      <selection activeCell="D603" sqref="D603:D608"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -27182,9 +27265,7 @@
         <f>CONCATENATE("CALL W_RTL_SLS_TRX_LC_DY_A_AGG(1",B2,"000);")</f>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140101000);</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
@@ -27198,9 +27279,7 @@
         <f>CONCATENATE("CALL W_RTL_SLS_TRX_LC_DY_A_AGG(1",B3,"000);")</f>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140102000);</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
@@ -27214,9 +27293,7 @@
         <f t="shared" ref="C4:C67" si="1">CONCATENATE("CALL W_RTL_SLS_TRX_LC_DY_A_AGG(1",B4,"000);")</f>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140103000);</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
@@ -27230,9 +27307,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140104000);</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
@@ -27246,9 +27321,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140105000);</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
@@ -27262,9 +27335,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140106000);</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
@@ -27278,9 +27349,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140107000);</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
@@ -27294,9 +27363,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140108000);</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
@@ -27310,9 +27377,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140109000);</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
@@ -27326,9 +27391,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140110000);</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
@@ -27342,9 +27405,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140111000);</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
@@ -27358,9 +27419,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140112000);</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -27374,9 +27433,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140113000);</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
@@ -27390,9 +27447,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140114000);</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
@@ -27406,9 +27461,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140115000);</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
@@ -27422,9 +27475,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140116000);</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
@@ -27438,9 +27489,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140117000);</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
@@ -27454,9 +27503,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140118000);</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
@@ -27470,9 +27517,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140119000);</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
@@ -27486,9 +27531,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140120000);</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
@@ -27502,9 +27545,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140121000);</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
@@ -27518,9 +27559,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140122000);</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
@@ -27534,9 +27573,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140123000);</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
@@ -27550,9 +27587,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140124000);</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
@@ -27566,9 +27601,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140125000);</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
@@ -27582,9 +27615,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140126000);</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
@@ -27598,9 +27629,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140127000);</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
@@ -27614,9 +27643,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140128000);</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
@@ -27630,9 +27657,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140129000);</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
@@ -27646,9 +27671,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140130000);</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
@@ -27662,9 +27685,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140131000);</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
@@ -27678,9 +27699,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140201000);</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
@@ -27694,9 +27713,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140202000);</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
@@ -27710,9 +27727,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140203000);</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
@@ -27726,9 +27741,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140204000);</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
@@ -27742,9 +27755,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140205000);</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
@@ -27758,9 +27769,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140206000);</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
@@ -27774,9 +27783,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140207000);</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
@@ -27790,9 +27797,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140208000);</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
@@ -27806,9 +27811,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140209000);</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
@@ -27822,9 +27825,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140210000);</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
@@ -27838,9 +27839,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140211000);</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
@@ -27854,9 +27853,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140212000);</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
@@ -27870,9 +27867,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140213000);</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
@@ -27886,9 +27881,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140214000);</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
@@ -27902,9 +27895,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140215000);</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
@@ -27918,9 +27909,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140216000);</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
@@ -27934,9 +27923,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140217000);</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
@@ -27950,9 +27937,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140218000);</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
@@ -27966,9 +27951,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140219000);</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
@@ -27982,9 +27965,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140220000);</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
@@ -27998,9 +27979,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140221000);</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
@@ -28014,9 +27993,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140222000);</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
@@ -28030,9 +28007,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140223000);</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
@@ -28046,9 +28021,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140224000);</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
@@ -28062,9 +28035,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140225000);</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
@@ -28078,9 +28049,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140226000);</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
@@ -28094,9 +28063,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140227000);</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
@@ -28110,9 +28077,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140228000);</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
@@ -28126,9 +28091,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140301000);</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
@@ -28142,9 +28105,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140302000);</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
@@ -28158,9 +28119,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140303000);</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
@@ -28174,9 +28133,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140304000);</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
@@ -28190,9 +28147,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140305000);</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
@@ -28206,9 +28161,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140306000);</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
@@ -28222,9 +28175,7 @@
         <f t="shared" si="1"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140307000);</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
@@ -28238,9 +28189,7 @@
         <f t="shared" ref="C68:C131" si="3">CONCATENATE("CALL W_RTL_SLS_TRX_LC_DY_A_AGG(1",B68,"000);")</f>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140308000);</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
@@ -28254,9 +28203,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140309000);</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
@@ -28270,9 +28217,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140310000);</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
@@ -28286,9 +28231,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140311000);</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
@@ -28302,9 +28245,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140312000);</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
@@ -28318,9 +28259,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140313000);</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
@@ -28334,9 +28273,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140314000);</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
@@ -28350,9 +28287,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140315000);</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
@@ -28366,9 +28301,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140316000);</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
@@ -28382,9 +28315,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140317000);</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
@@ -28398,9 +28329,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140318000);</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
@@ -28414,9 +28343,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140319000);</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
@@ -28430,9 +28357,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140320000);</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D80" s="2"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
@@ -28446,9 +28371,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140321000);</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
@@ -28462,9 +28385,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140322000);</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
@@ -28478,9 +28399,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140323000);</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
@@ -28494,9 +28413,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140324000);</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
@@ -28510,9 +28427,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140325000);</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D85" s="2"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
@@ -28526,9 +28441,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140326000);</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
@@ -28542,9 +28455,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140327000);</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D87" s="2"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
@@ -28558,9 +28469,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140328000);</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
@@ -28574,9 +28483,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140329000);</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
@@ -28590,9 +28497,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140330000);</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D90" s="2"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
@@ -28606,9 +28511,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140331000);</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D91" s="2"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
@@ -28622,9 +28525,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140401000);</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
@@ -28638,9 +28539,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140402000);</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
@@ -28654,9 +28553,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140403000);</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
@@ -28670,9 +28567,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140404000);</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D95" s="2"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
@@ -28686,9 +28581,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140405000);</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
@@ -28702,9 +28595,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140406000);</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
@@ -28718,9 +28609,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140407000);</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
@@ -28734,9 +28623,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140408000);</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
@@ -28750,9 +28637,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140409000);</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D100" s="2"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
@@ -28766,9 +28651,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140410000);</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D101" s="2"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
@@ -28782,9 +28665,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140411000);</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D102" s="2"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
@@ -28798,9 +28679,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140412000);</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D103" s="2"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
@@ -28814,9 +28693,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140413000);</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
@@ -28830,9 +28707,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140414000);</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D105" s="2"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
@@ -28846,9 +28721,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140415000);</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
@@ -28862,9 +28735,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140416000);</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
@@ -28878,9 +28749,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140417000);</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D108" s="2"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
@@ -28894,9 +28763,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140418000);</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D109" s="2"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
@@ -28910,9 +28777,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140419000);</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D110" s="2"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
@@ -28926,9 +28791,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140420000);</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D111" s="2"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
@@ -28942,9 +28805,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140421000);</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D112" s="2"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
@@ -28958,9 +28819,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140422000);</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D113" s="2"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
@@ -28974,9 +28833,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140423000);</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D114" s="2"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
@@ -28990,9 +28847,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140424000);</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D115" s="2"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
@@ -29006,9 +28861,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140425000);</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
@@ -29022,9 +28875,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140426000);</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D117" s="2"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
@@ -29038,9 +28889,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140427000);</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D118" s="2"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
@@ -29054,9 +28903,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140428000);</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D119" s="2"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
@@ -29070,9 +28917,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140429000);</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D120" s="2"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
@@ -29086,9 +28931,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140430000);</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D121" s="2"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
@@ -29102,9 +28945,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140501000);</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D122" s="2"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
@@ -29118,9 +28959,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140502000);</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D123" s="2"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
@@ -29134,9 +28973,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140503000);</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D124" s="2"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
@@ -29150,9 +28987,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140504000);</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D125" s="2"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="3">
@@ -29166,9 +29001,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140505000);</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D126" s="2"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="3">
@@ -29182,9 +29015,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140506000);</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D127" s="2"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
@@ -29198,9 +29029,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140507000);</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D128" s="2"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="3">
@@ -29214,9 +29043,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140508000);</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D129" s="2"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="3">
@@ -29230,9 +29057,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140509000);</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D130" s="2"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="3">
@@ -29246,9 +29071,7 @@
         <f t="shared" si="3"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140510000);</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D131" s="2"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="3">
@@ -29262,9 +29085,7 @@
         <f t="shared" ref="C132:C195" si="5">CONCATENATE("CALL W_RTL_SLS_TRX_LC_DY_A_AGG(1",B132,"000);")</f>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140511000);</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D132" s="2"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="3">
@@ -29278,9 +29099,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140512000);</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D133" s="2"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="3">
@@ -29294,9 +29113,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140513000);</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D134" s="2"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="3">
@@ -29310,9 +29127,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140514000);</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D135" s="2"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="3">
@@ -29326,9 +29141,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140515000);</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D136" s="2"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="3">
@@ -29342,9 +29155,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140516000);</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D137" s="2"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="3">
@@ -29358,9 +29169,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140517000);</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D138" s="2"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="3">
@@ -29374,9 +29183,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140518000);</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D139" s="2"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="3">
@@ -29390,9 +29197,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140519000);</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D140" s="2"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="3">
@@ -29406,9 +29211,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140520000);</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="3">
@@ -29422,9 +29225,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140521000);</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D142" s="2"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="3">
@@ -29438,9 +29239,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140522000);</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="3">
@@ -29454,9 +29253,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140523000);</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D144" s="2"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="3">
@@ -29470,9 +29267,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140524000);</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D145" s="2"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
@@ -29486,9 +29281,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140525000);</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D146" s="2"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="3">
@@ -29502,9 +29295,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140526000);</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D147" s="2"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="3">
@@ -29518,9 +29309,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140527000);</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D148" s="2"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="3">
@@ -29534,9 +29323,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140528000);</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D149" s="2"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="3">
@@ -29550,9 +29337,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140529000);</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D150" s="2"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="3">
@@ -29566,9 +29351,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140530000);</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="3">
@@ -29582,9 +29365,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140531000);</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D152" s="2"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="3">
@@ -29598,9 +29379,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140601000);</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D153" s="2"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="3">
@@ -29614,9 +29393,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140602000);</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D154" s="2"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="3">
@@ -29630,9 +29407,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140603000);</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D155" s="2"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="3">
@@ -29646,9 +29421,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140604000);</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D156" s="2"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="3">
@@ -29662,9 +29435,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140605000);</v>
       </c>
-      <c r="D157" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D157" s="2"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="3">
@@ -29678,9 +29449,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140606000);</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D158" s="2"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="3">
@@ -29694,9 +29463,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140607000);</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D159" s="2"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="3">
@@ -29710,9 +29477,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140608000);</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D160" s="2"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="3">
@@ -29726,9 +29491,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140609000);</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D161" s="2"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="3">
@@ -29742,9 +29505,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140610000);</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D162" s="2"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="3">
@@ -29758,9 +29519,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140611000);</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D163" s="2"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="3">
@@ -29774,9 +29533,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140612000);</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D164" s="2"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="3">
@@ -29790,9 +29547,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140613000);</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D165" s="2"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="3">
@@ -29806,9 +29561,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140614000);</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D166" s="2"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="3">
@@ -29822,9 +29575,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140615000);</v>
       </c>
-      <c r="D167" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D167" s="2"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="3">
@@ -29838,9 +29589,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140616000);</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D168" s="2"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="3">
@@ -29854,9 +29603,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140617000);</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D169" s="2"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="3">
@@ -29870,9 +29617,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140618000);</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D170" s="2"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="3">
@@ -29886,9 +29631,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140619000);</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D171" s="2"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="3">
@@ -29902,9 +29645,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140620000);</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D172" s="2"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="3">
@@ -29918,9 +29659,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140621000);</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D173" s="2"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="3">
@@ -29934,9 +29673,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140622000);</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D174" s="2"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="3">
@@ -29950,9 +29687,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140623000);</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D175" s="2"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="3">
@@ -29966,9 +29701,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140624000);</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D176" s="2"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="3">
@@ -29982,9 +29715,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140625000);</v>
       </c>
-      <c r="D177" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D177" s="2"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="3">
@@ -29998,9 +29729,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140626000);</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D178" s="2"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="3">
@@ -30014,9 +29743,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140627000);</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D179" s="2"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="3">
@@ -30030,9 +29757,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140628000);</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D180" s="2"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="3">
@@ -30046,9 +29771,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140629000);</v>
       </c>
-      <c r="D181" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D181" s="2"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="3">
@@ -30062,9 +29785,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140630000);</v>
       </c>
-      <c r="D182" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D182" s="2"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="3">
@@ -30078,9 +29799,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140701000);</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D183" s="2"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="3">
@@ -30094,9 +29813,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140702000);</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D184" s="2"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="3">
@@ -30110,9 +29827,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140703000);</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D185" s="2"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="3">
@@ -30126,9 +29841,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140704000);</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D186" s="2"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="3">
@@ -30142,9 +29855,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140705000);</v>
       </c>
-      <c r="D187" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D187" s="2"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="3">
@@ -30158,9 +29869,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140706000);</v>
       </c>
-      <c r="D188" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D188" s="2"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="3">
@@ -30174,9 +29883,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140707000);</v>
       </c>
-      <c r="D189" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D189" s="2"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="3">
@@ -30190,9 +29897,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140708000);</v>
       </c>
-      <c r="D190" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D190" s="2"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="3">
@@ -30206,9 +29911,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140709000);</v>
       </c>
-      <c r="D191" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D191" s="2"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="3">
@@ -30222,9 +29925,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140710000);</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D192" s="2"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="3">
@@ -30238,9 +29939,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140711000);</v>
       </c>
-      <c r="D193" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D193" s="2"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="3">
@@ -30254,9 +29953,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140712000);</v>
       </c>
-      <c r="D194" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D194" s="2"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="3">
@@ -30270,9 +29967,7 @@
         <f t="shared" si="5"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140713000);</v>
       </c>
-      <c r="D195" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D195" s="2"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="3">
@@ -30286,9 +29981,7 @@
         <f t="shared" ref="C196:C259" si="7">CONCATENATE("CALL W_RTL_SLS_TRX_LC_DY_A_AGG(1",B196,"000);")</f>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140714000);</v>
       </c>
-      <c r="D196" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D196" s="2"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="3">
@@ -30302,9 +29995,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140715000);</v>
       </c>
-      <c r="D197" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D197" s="2"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="3">
@@ -30318,9 +30009,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140716000);</v>
       </c>
-      <c r="D198" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D198" s="2"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="3">
@@ -30334,9 +30023,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140717000);</v>
       </c>
-      <c r="D199" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D199" s="2"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="3">
@@ -30350,9 +30037,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140718000);</v>
       </c>
-      <c r="D200" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D200" s="2"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="3">
@@ -30366,9 +30051,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140719000);</v>
       </c>
-      <c r="D201" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D201" s="2"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="3">
@@ -30382,9 +30065,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140720000);</v>
       </c>
-      <c r="D202" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D202" s="2"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="3">
@@ -30398,9 +30079,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140721000);</v>
       </c>
-      <c r="D203" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D203" s="2"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="3">
@@ -30414,9 +30093,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140722000);</v>
       </c>
-      <c r="D204" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D204" s="2"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="3">
@@ -30430,9 +30107,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140723000);</v>
       </c>
-      <c r="D205" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D205" s="2"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="3">
@@ -30446,9 +30121,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140724000);</v>
       </c>
-      <c r="D206" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D206" s="2"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="3">
@@ -30462,9 +30135,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140725000);</v>
       </c>
-      <c r="D207" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D207" s="2"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="3">
@@ -30478,9 +30149,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140726000);</v>
       </c>
-      <c r="D208" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D208" s="2"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="3">
@@ -30494,9 +30163,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140727000);</v>
       </c>
-      <c r="D209" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D209" s="2"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="3">
@@ -30510,9 +30177,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140728000);</v>
       </c>
-      <c r="D210" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D210" s="2"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="3">
@@ -30526,9 +30191,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140729000);</v>
       </c>
-      <c r="D211" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D211" s="2"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="3">
@@ -30542,9 +30205,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140730000);</v>
       </c>
-      <c r="D212" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D212" s="2"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="3">
@@ -30558,9 +30219,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140731000);</v>
       </c>
-      <c r="D213" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D213" s="2"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="3">
@@ -30574,9 +30233,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140801000);</v>
       </c>
-      <c r="D214" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D214" s="2"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="3">
@@ -30590,9 +30247,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140802000);</v>
       </c>
-      <c r="D215" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D215" s="2"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="3">
@@ -30606,9 +30261,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140803000);</v>
       </c>
-      <c r="D216" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D216" s="2"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="3">
@@ -30622,9 +30275,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140804000);</v>
       </c>
-      <c r="D217" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D217" s="2"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="3">
@@ -30638,9 +30289,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140805000);</v>
       </c>
-      <c r="D218" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D218" s="2"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="3">
@@ -30654,9 +30303,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140806000);</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D219" s="2"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" s="3">
@@ -30670,9 +30317,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140807000);</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D220" s="2"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" s="3">
@@ -30686,9 +30331,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140808000);</v>
       </c>
-      <c r="D221" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D221" s="2"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" s="3">
@@ -30702,9 +30345,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140809000);</v>
       </c>
-      <c r="D222" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D222" s="2"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="3">
@@ -30718,9 +30359,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140810000);</v>
       </c>
-      <c r="D223" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D223" s="2"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="3">
@@ -30734,9 +30373,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140811000);</v>
       </c>
-      <c r="D224" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D224" s="2"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" s="3">
@@ -30750,9 +30387,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140812000);</v>
       </c>
-      <c r="D225" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D225" s="2"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" s="3">
@@ -30766,9 +30401,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140813000);</v>
       </c>
-      <c r="D226" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D226" s="2"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" s="3">
@@ -30782,9 +30415,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140814000);</v>
       </c>
-      <c r="D227" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D227" s="2"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" s="3">
@@ -30798,9 +30429,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140815000);</v>
       </c>
-      <c r="D228" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D228" s="2"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" s="3">
@@ -30814,9 +30443,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140816000);</v>
       </c>
-      <c r="D229" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D229" s="2"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" s="3">
@@ -30830,9 +30457,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140817000);</v>
       </c>
-      <c r="D230" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D230" s="2"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" s="3">
@@ -30846,9 +30471,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140818000);</v>
       </c>
-      <c r="D231" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D231" s="2"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" s="3">
@@ -30862,9 +30485,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140819000);</v>
       </c>
-      <c r="D232" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D232" s="2"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" s="3">
@@ -30878,9 +30499,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140820000);</v>
       </c>
-      <c r="D233" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D233" s="2"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" s="3">
@@ -30894,9 +30513,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140821000);</v>
       </c>
-      <c r="D234" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D234" s="2"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" s="3">
@@ -30910,9 +30527,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140822000);</v>
       </c>
-      <c r="D235" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D235" s="2"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" s="3">
@@ -30926,9 +30541,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140823000);</v>
       </c>
-      <c r="D236" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D236" s="2"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" s="3">
@@ -30942,9 +30555,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140824000);</v>
       </c>
-      <c r="D237" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D237" s="2"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" s="3">
@@ -30958,9 +30569,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140825000);</v>
       </c>
-      <c r="D238" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D238" s="2"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" s="3">
@@ -30974,9 +30583,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140826000);</v>
       </c>
-      <c r="D239" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D239" s="2"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" s="3">
@@ -30990,9 +30597,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140827000);</v>
       </c>
-      <c r="D240" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D240" s="2"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="3">
@@ -31006,9 +30611,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140828000);</v>
       </c>
-      <c r="D241" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D241" s="2"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="3">
@@ -31022,9 +30625,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140829000);</v>
       </c>
-      <c r="D242" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D242" s="2"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="3">
@@ -31038,9 +30639,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140830000);</v>
       </c>
-      <c r="D243" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D243" s="2"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="3">
@@ -31054,9 +30653,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140831000);</v>
       </c>
-      <c r="D244" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D244" s="2"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="3">
@@ -31070,9 +30667,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140901000);</v>
       </c>
-      <c r="D245" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D245" s="2"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="3">
@@ -31086,9 +30681,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140902000);</v>
       </c>
-      <c r="D246" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D246" s="2"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="3">
@@ -31102,9 +30695,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140903000);</v>
       </c>
-      <c r="D247" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D247" s="2"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="3">
@@ -31118,9 +30709,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140904000);</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D248" s="2"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" s="3">
@@ -31134,9 +30723,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140905000);</v>
       </c>
-      <c r="D249" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D249" s="2"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" s="3">
@@ -31150,9 +30737,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140906000);</v>
       </c>
-      <c r="D250" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D250" s="2"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" s="3">
@@ -31166,9 +30751,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140907000);</v>
       </c>
-      <c r="D251" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D251" s="2"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" s="3">
@@ -31182,9 +30765,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140908000);</v>
       </c>
-      <c r="D252" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D252" s="2"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" s="3">
@@ -31198,9 +30779,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140909000);</v>
       </c>
-      <c r="D253" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D253" s="2"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="3">
@@ -31214,9 +30793,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140910000);</v>
       </c>
-      <c r="D254" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D254" s="2"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="3">
@@ -31230,9 +30807,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140911000);</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D255" s="2"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" s="3">
@@ -31246,9 +30821,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140912000);</v>
       </c>
-      <c r="D256" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D256" s="2"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="3">
@@ -31262,9 +30835,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140913000);</v>
       </c>
-      <c r="D257" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D257" s="2"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" s="3">
@@ -31278,9 +30849,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140914000);</v>
       </c>
-      <c r="D258" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D258" s="2"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" s="3">
@@ -31294,9 +30863,7 @@
         <f t="shared" si="7"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140915000);</v>
       </c>
-      <c r="D259" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D259" s="2"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" s="3">
@@ -31310,9 +30877,7 @@
         <f t="shared" ref="C260:C323" si="9">CONCATENATE("CALL W_RTL_SLS_TRX_LC_DY_A_AGG(1",B260,"000);")</f>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140916000);</v>
       </c>
-      <c r="D260" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D260" s="2"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" s="3">
@@ -31326,9 +30891,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140917000);</v>
       </c>
-      <c r="D261" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D261" s="2"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" s="3">
@@ -31342,9 +30905,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140918000);</v>
       </c>
-      <c r="D262" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D262" s="2"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" s="3">
@@ -31358,9 +30919,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140919000);</v>
       </c>
-      <c r="D263" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D263" s="2"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" s="3">
@@ -31374,9 +30933,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140920000);</v>
       </c>
-      <c r="D264" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D264" s="2"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" s="3">
@@ -31390,9 +30947,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140921000);</v>
       </c>
-      <c r="D265" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D265" s="2"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" s="3">
@@ -31406,9 +30961,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140922000);</v>
       </c>
-      <c r="D266" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D266" s="2"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" s="3">
@@ -31422,9 +30975,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140923000);</v>
       </c>
-      <c r="D267" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D267" s="2"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" s="3">
@@ -31438,9 +30989,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140924000);</v>
       </c>
-      <c r="D268" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D268" s="2"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" s="3">
@@ -31454,9 +31003,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140925000);</v>
       </c>
-      <c r="D269" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D269" s="2"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" s="3">
@@ -31470,9 +31017,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140926000);</v>
       </c>
-      <c r="D270" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D270" s="2"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" s="3">
@@ -31486,9 +31031,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140927000);</v>
       </c>
-      <c r="D271" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D271" s="2"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" s="3">
@@ -31502,9 +31045,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140928000);</v>
       </c>
-      <c r="D272" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D272" s="2"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" s="3">
@@ -31518,9 +31059,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140929000);</v>
       </c>
-      <c r="D273" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D273" s="2"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" s="3">
@@ -31534,9 +31073,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120140930000);</v>
       </c>
-      <c r="D274" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D274" s="2"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" s="3">
@@ -31550,9 +31087,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141001000);</v>
       </c>
-      <c r="D275" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D275" s="2"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" s="3">
@@ -31566,9 +31101,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141002000);</v>
       </c>
-      <c r="D276" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D276" s="2"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" s="3">
@@ -31582,9 +31115,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141003000);</v>
       </c>
-      <c r="D277" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D277" s="2"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" s="3">
@@ -31598,9 +31129,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141004000);</v>
       </c>
-      <c r="D278" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D278" s="2"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" s="3">
@@ -31614,9 +31143,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141005000);</v>
       </c>
-      <c r="D279" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D279" s="2"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" s="3">
@@ -31630,9 +31157,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141006000);</v>
       </c>
-      <c r="D280" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D280" s="2"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" s="3">
@@ -31646,9 +31171,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141007000);</v>
       </c>
-      <c r="D281" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D281" s="2"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" s="3">
@@ -31662,9 +31185,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141008000);</v>
       </c>
-      <c r="D282" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D282" s="2"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" s="3">
@@ -31678,9 +31199,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141009000);</v>
       </c>
-      <c r="D283" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D283" s="2"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" s="3">
@@ -31694,9 +31213,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141010000);</v>
       </c>
-      <c r="D284" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D284" s="2"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" s="3">
@@ -31710,9 +31227,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141011000);</v>
       </c>
-      <c r="D285" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D285" s="2"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" s="3">
@@ -31726,9 +31241,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141012000);</v>
       </c>
-      <c r="D286" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D286" s="2"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" s="3">
@@ -31742,9 +31255,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141013000);</v>
       </c>
-      <c r="D287" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D287" s="2"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" s="3">
@@ -31758,9 +31269,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141014000);</v>
       </c>
-      <c r="D288" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D288" s="2"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" s="3">
@@ -31774,9 +31283,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141015000);</v>
       </c>
-      <c r="D289" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D289" s="2"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" s="3">
@@ -31790,9 +31297,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141016000);</v>
       </c>
-      <c r="D290" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D290" s="2"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" s="3">
@@ -31806,9 +31311,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141017000);</v>
       </c>
-      <c r="D291" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D291" s="2"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" s="3">
@@ -31822,9 +31325,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141018000);</v>
       </c>
-      <c r="D292" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D292" s="2"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" s="3">
@@ -31838,9 +31339,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141019000);</v>
       </c>
-      <c r="D293" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D293" s="2"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" s="3">
@@ -31854,9 +31353,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141020000);</v>
       </c>
-      <c r="D294" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D294" s="2"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" s="3">
@@ -31870,9 +31367,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141021000);</v>
       </c>
-      <c r="D295" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D295" s="2"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" s="3">
@@ -31886,9 +31381,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141022000);</v>
       </c>
-      <c r="D296" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D296" s="2"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" s="3">
@@ -31902,9 +31395,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141023000);</v>
       </c>
-      <c r="D297" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D297" s="2"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" s="3">
@@ -31918,9 +31409,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141024000);</v>
       </c>
-      <c r="D298" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D298" s="2"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" s="3">
@@ -31934,9 +31423,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141025000);</v>
       </c>
-      <c r="D299" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D299" s="2"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" s="3">
@@ -31950,9 +31437,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141026000);</v>
       </c>
-      <c r="D300" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D300" s="2"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" s="3">
@@ -31966,9 +31451,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141027000);</v>
       </c>
-      <c r="D301" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D301" s="2"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" s="3">
@@ -31982,9 +31465,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141028000);</v>
       </c>
-      <c r="D302" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D302" s="2"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" s="3">
@@ -31998,9 +31479,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141029000);</v>
       </c>
-      <c r="D303" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D303" s="2"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" s="3">
@@ -32014,9 +31493,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141030000);</v>
       </c>
-      <c r="D304" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D304" s="2"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" s="3">
@@ -32030,9 +31507,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141031000);</v>
       </c>
-      <c r="D305" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D305" s="2"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" s="3">
@@ -32046,9 +31521,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141101000);</v>
       </c>
-      <c r="D306" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D306" s="2"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" s="3">
@@ -32062,9 +31535,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141102000);</v>
       </c>
-      <c r="D307" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D307" s="2"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" s="3">
@@ -32078,9 +31549,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141103000);</v>
       </c>
-      <c r="D308" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D308" s="2"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309" s="3">
@@ -32094,9 +31563,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141104000);</v>
       </c>
-      <c r="D309" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D309" s="2"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310" s="3">
@@ -32110,9 +31577,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141105000);</v>
       </c>
-      <c r="D310" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D310" s="2"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" s="3">
@@ -32126,9 +31591,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141106000);</v>
       </c>
-      <c r="D311" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D311" s="2"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" s="3">
@@ -32142,9 +31605,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141107000);</v>
       </c>
-      <c r="D312" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D312" s="2"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" s="3">
@@ -32158,9 +31619,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141108000);</v>
       </c>
-      <c r="D313" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D313" s="2"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314" s="3">
@@ -32174,9 +31633,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141109000);</v>
       </c>
-      <c r="D314" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D314" s="2"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315" s="3">
@@ -32190,9 +31647,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141110000);</v>
       </c>
-      <c r="D315" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D315" s="2"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" s="3">
@@ -32206,9 +31661,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141111000);</v>
       </c>
-      <c r="D316" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D316" s="2"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" s="3">
@@ -32222,9 +31675,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141112000);</v>
       </c>
-      <c r="D317" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D317" s="2"/>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" s="3">
@@ -32238,9 +31689,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141113000);</v>
       </c>
-      <c r="D318" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D318" s="2"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" s="3">
@@ -32254,9 +31703,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141114000);</v>
       </c>
-      <c r="D319" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D319" s="2"/>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" s="3">
@@ -32270,9 +31717,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141115000);</v>
       </c>
-      <c r="D320" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D320" s="2"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" s="3">
@@ -32286,9 +31731,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141116000);</v>
       </c>
-      <c r="D321" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D321" s="2"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" s="3">
@@ -32302,9 +31745,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141117000);</v>
       </c>
-      <c r="D322" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D322" s="2"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" s="3">
@@ -32318,9 +31759,7 @@
         <f t="shared" si="9"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141118000);</v>
       </c>
-      <c r="D323" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D323" s="2"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" s="3">
@@ -32334,9 +31773,7 @@
         <f t="shared" ref="C324:C387" si="11">CONCATENATE("CALL W_RTL_SLS_TRX_LC_DY_A_AGG(1",B324,"000);")</f>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141119000);</v>
       </c>
-      <c r="D324" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D324" s="2"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" s="3">
@@ -32350,9 +31787,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141120000);</v>
       </c>
-      <c r="D325" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D325" s="2"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326" s="3">
@@ -32366,9 +31801,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141121000);</v>
       </c>
-      <c r="D326" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D326" s="2"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327" s="3">
@@ -32382,9 +31815,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141122000);</v>
       </c>
-      <c r="D327" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D327" s="2"/>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" s="3">
@@ -32398,9 +31829,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141123000);</v>
       </c>
-      <c r="D328" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D328" s="2"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" s="3">
@@ -32414,9 +31843,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141124000);</v>
       </c>
-      <c r="D329" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D329" s="2"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" s="3">
@@ -32430,9 +31857,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141125000);</v>
       </c>
-      <c r="D330" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D330" s="2"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" s="3">
@@ -32446,9 +31871,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141126000);</v>
       </c>
-      <c r="D331" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D331" s="2"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" s="3">
@@ -32462,9 +31885,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141127000);</v>
       </c>
-      <c r="D332" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D332" s="2"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" s="3">
@@ -32478,9 +31899,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141128000);</v>
       </c>
-      <c r="D333" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D333" s="2"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" s="3">
@@ -32494,9 +31913,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141129000);</v>
       </c>
-      <c r="D334" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D334" s="2"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335" s="3">
@@ -32510,9 +31927,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141130000);</v>
       </c>
-      <c r="D335" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D335" s="2"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" s="3">
@@ -32526,9 +31941,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141201000);</v>
       </c>
-      <c r="D336" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D336" s="2"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" s="3">
@@ -32542,9 +31955,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141202000);</v>
       </c>
-      <c r="D337" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D337" s="2"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" s="3">
@@ -32558,9 +31969,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141203000);</v>
       </c>
-      <c r="D338" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D338" s="2"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" s="3">
@@ -32574,9 +31983,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141204000);</v>
       </c>
-      <c r="D339" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D339" s="2"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340" s="3">
@@ -32590,9 +31997,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141205000);</v>
       </c>
-      <c r="D340" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D340" s="2"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341" s="3">
@@ -32606,9 +32011,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141206000);</v>
       </c>
-      <c r="D341" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D341" s="2"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342" s="3">
@@ -32622,9 +32025,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141207000);</v>
       </c>
-      <c r="D342" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D342" s="2"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343" s="3">
@@ -32638,9 +32039,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141208000);</v>
       </c>
-      <c r="D343" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D343" s="2"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344" s="3">
@@ -32654,9 +32053,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141209000);</v>
       </c>
-      <c r="D344" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D344" s="2"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345" s="3">
@@ -32670,9 +32067,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141210000);</v>
       </c>
-      <c r="D345" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D345" s="2"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346" s="3">
@@ -32686,9 +32081,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141211000);</v>
       </c>
-      <c r="D346" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D346" s="2"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347" s="3">
@@ -32702,9 +32095,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141212000);</v>
       </c>
-      <c r="D347" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D347" s="2"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348" s="3">
@@ -32718,9 +32109,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141213000);</v>
       </c>
-      <c r="D348" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D348" s="2"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349" s="3">
@@ -32734,9 +32123,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141214000);</v>
       </c>
-      <c r="D349" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D349" s="2"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350" s="3">
@@ -32750,9 +32137,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141215000);</v>
       </c>
-      <c r="D350" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D350" s="2"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351" s="3">
@@ -32766,9 +32151,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141216000);</v>
       </c>
-      <c r="D351" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D351" s="2"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352" s="3">
@@ -32782,9 +32165,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141217000);</v>
       </c>
-      <c r="D352" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D352" s="2"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353" s="3">
@@ -32798,9 +32179,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141218000);</v>
       </c>
-      <c r="D353" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D353" s="2"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354" s="3">
@@ -32814,9 +32193,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141219000);</v>
       </c>
-      <c r="D354" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D354" s="2"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355" s="3">
@@ -32830,9 +32207,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141220000);</v>
       </c>
-      <c r="D355" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D355" s="2"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356" s="3">
@@ -32846,9 +32221,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141221000);</v>
       </c>
-      <c r="D356" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D356" s="2"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357" s="3">
@@ -32862,9 +32235,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141222000);</v>
       </c>
-      <c r="D357" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D357" s="2"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A358" s="3">
@@ -32878,9 +32249,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141223000);</v>
       </c>
-      <c r="D358" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D358" s="2"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359" s="3">
@@ -32894,9 +32263,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141224000);</v>
       </c>
-      <c r="D359" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D359" s="2"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A360" s="3">
@@ -32910,9 +32277,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141225000);</v>
       </c>
-      <c r="D360" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D360" s="2"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361" s="3">
@@ -32926,9 +32291,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141226000);</v>
       </c>
-      <c r="D361" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D361" s="2"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362" s="3">
@@ -32942,9 +32305,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141227000);</v>
       </c>
-      <c r="D362" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D362" s="2"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A363" s="3">
@@ -32958,9 +32319,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141228000);</v>
       </c>
-      <c r="D363" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D363" s="2"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364" s="3">
@@ -32974,9 +32333,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141229000);</v>
       </c>
-      <c r="D364" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D364" s="2"/>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365" s="3">
@@ -32990,9 +32347,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141230000);</v>
       </c>
-      <c r="D365" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D365" s="2"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366" s="3">
@@ -33006,9 +32361,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120141231000);</v>
       </c>
-      <c r="D366" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D366" s="2"/>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A367" s="3">
@@ -33022,9 +32375,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150101000);</v>
       </c>
-      <c r="D367" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D367" s="2"/>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A368" s="3">
@@ -33038,9 +32389,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150102000);</v>
       </c>
-      <c r="D368" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D368" s="2"/>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A369" s="3">
@@ -33054,9 +32403,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150103000);</v>
       </c>
-      <c r="D369" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D369" s="2"/>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A370" s="3">
@@ -33070,9 +32417,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150104000);</v>
       </c>
-      <c r="D370" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D370" s="2"/>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A371" s="3">
@@ -33086,9 +32431,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150105000);</v>
       </c>
-      <c r="D371" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D371" s="2"/>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A372" s="3">
@@ -33102,9 +32445,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150106000);</v>
       </c>
-      <c r="D372" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D372" s="2"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A373" s="3">
@@ -33118,9 +32459,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150107000);</v>
       </c>
-      <c r="D373" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D373" s="2"/>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A374" s="3">
@@ -33134,9 +32473,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150108000);</v>
       </c>
-      <c r="D374" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D374" s="2"/>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A375" s="3">
@@ -33150,9 +32487,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150109000);</v>
       </c>
-      <c r="D375" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D375" s="2"/>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A376" s="3">
@@ -33166,9 +32501,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150110000);</v>
       </c>
-      <c r="D376" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D376" s="2"/>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A377" s="3">
@@ -33182,9 +32515,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150111000);</v>
       </c>
-      <c r="D377" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D377" s="2"/>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A378" s="3">
@@ -33198,9 +32529,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150112000);</v>
       </c>
-      <c r="D378" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D378" s="2"/>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A379" s="3">
@@ -33214,9 +32543,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150113000);</v>
       </c>
-      <c r="D379" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D379" s="2"/>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A380" s="3">
@@ -33230,9 +32557,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150114000);</v>
       </c>
-      <c r="D380" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D380" s="2"/>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A381" s="3">
@@ -33246,9 +32571,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150115000);</v>
       </c>
-      <c r="D381" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D381" s="2"/>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A382" s="3">
@@ -33262,9 +32585,7 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150116000);</v>
       </c>
-      <c r="D382" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D382" s="2"/>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A383" s="3">
@@ -33278,9 +32599,6 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150117000);</v>
       </c>
-      <c r="D383" s="4" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A384" s="3">
@@ -33294,11 +32612,8 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150118000);</v>
       </c>
-      <c r="D384" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A385" s="3">
         <v>42023</v>
       </c>
@@ -33310,11 +32625,8 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150119000);</v>
       </c>
-      <c r="D385" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A386" s="3">
         <v>42024</v>
       </c>
@@ -33326,11 +32638,8 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150120000);</v>
       </c>
-      <c r="D386" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A387" s="3">
         <v>42025</v>
       </c>
@@ -33342,11 +32651,8 @@
         <f t="shared" si="11"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150121000);</v>
       </c>
-      <c r="D387" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A388" s="3">
         <v>42026</v>
       </c>
@@ -33358,11 +32664,8 @@
         <f t="shared" ref="C388:C451" si="13">CONCATENATE("CALL W_RTL_SLS_TRX_LC_DY_A_AGG(1",B388,"000);")</f>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150122000);</v>
       </c>
-      <c r="D388" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A389" s="3">
         <v>42027</v>
       </c>
@@ -33374,11 +32677,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150123000);</v>
       </c>
-      <c r="D389" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A390" s="3">
         <v>42028</v>
       </c>
@@ -33390,11 +32690,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150124000);</v>
       </c>
-      <c r="D390" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A391" s="3">
         <v>42029</v>
       </c>
@@ -33406,11 +32703,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150125000);</v>
       </c>
-      <c r="D391" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A392" s="3">
         <v>42030</v>
       </c>
@@ -33422,11 +32716,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150126000);</v>
       </c>
-      <c r="D392" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A393" s="3">
         <v>42031</v>
       </c>
@@ -33438,11 +32729,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150127000);</v>
       </c>
-      <c r="D393" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A394" s="3">
         <v>42032</v>
       </c>
@@ -33454,11 +32742,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150128000);</v>
       </c>
-      <c r="D394" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A395" s="3">
         <v>42033</v>
       </c>
@@ -33470,11 +32755,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150129000);</v>
       </c>
-      <c r="D395" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A396" s="3">
         <v>42034</v>
       </c>
@@ -33486,11 +32768,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150130000);</v>
       </c>
-      <c r="D396" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A397" s="3">
         <v>42035</v>
       </c>
@@ -33502,11 +32781,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150131000);</v>
       </c>
-      <c r="D397" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A398" s="3">
         <v>42036</v>
       </c>
@@ -33518,11 +32794,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150201000);</v>
       </c>
-      <c r="D398" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A399" s="3">
         <v>42037</v>
       </c>
@@ -33534,11 +32807,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150202000);</v>
       </c>
-      <c r="D399" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A400" s="3">
         <v>42038</v>
       </c>
@@ -33550,11 +32820,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150203000);</v>
       </c>
-      <c r="D400" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A401" s="3">
         <v>42039</v>
       </c>
@@ -33566,11 +32833,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150204000);</v>
       </c>
-      <c r="D401" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A402" s="3">
         <v>42040</v>
       </c>
@@ -33582,11 +32846,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150205000);</v>
       </c>
-      <c r="D402" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A403" s="3">
         <v>42041</v>
       </c>
@@ -33598,11 +32859,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150206000);</v>
       </c>
-      <c r="D403" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A404" s="3">
         <v>42042</v>
       </c>
@@ -33614,11 +32872,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150207000);</v>
       </c>
-      <c r="D404" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A405" s="3">
         <v>42043</v>
       </c>
@@ -33630,11 +32885,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150208000);</v>
       </c>
-      <c r="D405" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A406" s="3">
         <v>42044</v>
       </c>
@@ -33646,11 +32898,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150209000);</v>
       </c>
-      <c r="D406" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A407" s="3">
         <v>42045</v>
       </c>
@@ -33662,11 +32911,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150210000);</v>
       </c>
-      <c r="D407" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A408" s="3">
         <v>42046</v>
       </c>
@@ -33678,11 +32924,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150211000);</v>
       </c>
-      <c r="D408" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A409" s="3">
         <v>42047</v>
       </c>
@@ -33694,11 +32937,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150212000);</v>
       </c>
-      <c r="D409" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A410" s="3">
         <v>42048</v>
       </c>
@@ -33710,11 +32950,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150213000);</v>
       </c>
-      <c r="D410" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A411" s="3">
         <v>42049</v>
       </c>
@@ -33726,11 +32963,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150214000);</v>
       </c>
-      <c r="D411" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A412" s="3">
         <v>42050</v>
       </c>
@@ -33742,11 +32976,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150215000);</v>
       </c>
-      <c r="D412" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A413" s="3">
         <v>42051</v>
       </c>
@@ -33758,11 +32989,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150216000);</v>
       </c>
-      <c r="D413" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A414" s="3">
         <v>42052</v>
       </c>
@@ -33774,11 +33002,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150217000);</v>
       </c>
-      <c r="D414" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A415" s="3">
         <v>42053</v>
       </c>
@@ -33790,11 +33015,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150218000);</v>
       </c>
-      <c r="D415" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A416" s="3">
         <v>42054</v>
       </c>
@@ -33806,11 +33028,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150219000);</v>
       </c>
-      <c r="D416" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A417" s="3">
         <v>42055</v>
       </c>
@@ -33822,11 +33041,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150220000);</v>
       </c>
-      <c r="D417" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A418" s="3">
         <v>42056</v>
       </c>
@@ -33838,11 +33054,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150221000);</v>
       </c>
-      <c r="D418" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A419" s="3">
         <v>42057</v>
       </c>
@@ -33854,11 +33067,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150222000);</v>
       </c>
-      <c r="D419" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A420" s="3">
         <v>42058</v>
       </c>
@@ -33870,11 +33080,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150223000);</v>
       </c>
-      <c r="D420" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A421" s="3">
         <v>42059</v>
       </c>
@@ -33886,11 +33093,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150224000);</v>
       </c>
-      <c r="D421" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A422" s="3">
         <v>42060</v>
       </c>
@@ -33902,11 +33106,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150225000);</v>
       </c>
-      <c r="D422" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A423" s="3">
         <v>42061</v>
       </c>
@@ -33918,11 +33119,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150226000);</v>
       </c>
-      <c r="D423" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A424" s="3">
         <v>42062</v>
       </c>
@@ -33934,11 +33132,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150227000);</v>
       </c>
-      <c r="D424" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A425" s="3">
         <v>42063</v>
       </c>
@@ -33950,11 +33145,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150228000);</v>
       </c>
-      <c r="D425" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A426" s="3">
         <v>42064</v>
       </c>
@@ -33966,11 +33158,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150301000);</v>
       </c>
-      <c r="D426" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A427" s="3">
         <v>42065</v>
       </c>
@@ -33982,11 +33171,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150302000);</v>
       </c>
-      <c r="D427" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A428" s="3">
         <v>42066</v>
       </c>
@@ -33998,11 +33184,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150303000);</v>
       </c>
-      <c r="D428" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A429" s="3">
         <v>42067</v>
       </c>
@@ -34014,11 +33197,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150304000);</v>
       </c>
-      <c r="D429" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A430" s="3">
         <v>42068</v>
       </c>
@@ -34030,11 +33210,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150305000);</v>
       </c>
-      <c r="D430" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A431" s="3">
         <v>42069</v>
       </c>
@@ -34046,11 +33223,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150306000);</v>
       </c>
-      <c r="D431" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A432" s="3">
         <v>42070</v>
       </c>
@@ -34062,11 +33236,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150307000);</v>
       </c>
-      <c r="D432" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A433" s="3">
         <v>42071</v>
       </c>
@@ -34078,11 +33249,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150308000);</v>
       </c>
-      <c r="D433" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A434" s="3">
         <v>42072</v>
       </c>
@@ -34094,11 +33262,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150309000);</v>
       </c>
-      <c r="D434" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A435" s="3">
         <v>42073</v>
       </c>
@@ -34110,11 +33275,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150310000);</v>
       </c>
-      <c r="D435" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A436" s="3">
         <v>42074</v>
       </c>
@@ -34126,11 +33288,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150311000);</v>
       </c>
-      <c r="D436" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A437" s="3">
         <v>42075</v>
       </c>
@@ -34142,11 +33301,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150312000);</v>
       </c>
-      <c r="D437" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A438" s="3">
         <v>42076</v>
       </c>
@@ -34158,11 +33314,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150313000);</v>
       </c>
-      <c r="D438" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A439" s="3">
         <v>42077</v>
       </c>
@@ -34174,11 +33327,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150314000);</v>
       </c>
-      <c r="D439" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A440" s="3">
         <v>42078</v>
       </c>
@@ -34190,11 +33340,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150315000);</v>
       </c>
-      <c r="D440" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A441" s="3">
         <v>42079</v>
       </c>
@@ -34206,11 +33353,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150316000);</v>
       </c>
-      <c r="D441" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A442" s="3">
         <v>42080</v>
       </c>
@@ -34222,11 +33366,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150317000);</v>
       </c>
-      <c r="D442" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A443" s="3">
         <v>42081</v>
       </c>
@@ -34238,11 +33379,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150318000);</v>
       </c>
-      <c r="D443" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A444" s="3">
         <v>42082</v>
       </c>
@@ -34254,11 +33392,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150319000);</v>
       </c>
-      <c r="D444" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A445" s="3">
         <v>42083</v>
       </c>
@@ -34270,11 +33405,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150320000);</v>
       </c>
-      <c r="D445" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A446" s="3">
         <v>42084</v>
       </c>
@@ -34286,11 +33418,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150321000);</v>
       </c>
-      <c r="D446" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A447" s="3">
         <v>42085</v>
       </c>
@@ -34302,11 +33431,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150322000);</v>
       </c>
-      <c r="D447" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A448" s="3">
         <v>42086</v>
       </c>
@@ -34318,11 +33444,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150323000);</v>
       </c>
-      <c r="D448" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A449" s="3">
         <v>42087</v>
       </c>
@@ -34334,11 +33457,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150324000);</v>
       </c>
-      <c r="D449" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A450" s="3">
         <v>42088</v>
       </c>
@@ -34350,11 +33470,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150325000);</v>
       </c>
-      <c r="D450" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A451" s="3">
         <v>42089</v>
       </c>
@@ -34366,11 +33483,8 @@
         <f t="shared" si="13"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150326000);</v>
       </c>
-      <c r="D451" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A452" s="3">
         <v>42090</v>
       </c>
@@ -34382,11 +33496,8 @@
         <f t="shared" ref="C452:C515" si="15">CONCATENATE("CALL W_RTL_SLS_TRX_LC_DY_A_AGG(1",B452,"000);")</f>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150327000);</v>
       </c>
-      <c r="D452" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A453" s="3">
         <v>42091</v>
       </c>
@@ -34398,11 +33509,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150328000);</v>
       </c>
-      <c r="D453" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A454" s="3">
         <v>42092</v>
       </c>
@@ -34414,11 +33522,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150329000);</v>
       </c>
-      <c r="D454" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A455" s="3">
         <v>42093</v>
       </c>
@@ -34430,11 +33535,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150330000);</v>
       </c>
-      <c r="D455" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A456" s="3">
         <v>42094</v>
       </c>
@@ -34446,11 +33548,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150331000);</v>
       </c>
-      <c r="D456" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A457" s="3">
         <v>42095</v>
       </c>
@@ -34462,11 +33561,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150401000);</v>
       </c>
-      <c r="D457" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A458" s="3">
         <v>42096</v>
       </c>
@@ -34478,11 +33574,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150402000);</v>
       </c>
-      <c r="D458" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A459" s="3">
         <v>42097</v>
       </c>
@@ -34494,11 +33587,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150403000);</v>
       </c>
-      <c r="D459" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A460" s="3">
         <v>42098</v>
       </c>
@@ -34510,11 +33600,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150404000);</v>
       </c>
-      <c r="D460" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A461" s="3">
         <v>42099</v>
       </c>
@@ -34526,11 +33613,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150405000);</v>
       </c>
-      <c r="D461" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A462" s="3">
         <v>42100</v>
       </c>
@@ -34542,11 +33626,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150406000);</v>
       </c>
-      <c r="D462" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A463" s="3">
         <v>42101</v>
       </c>
@@ -34558,11 +33639,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150407000);</v>
       </c>
-      <c r="D463" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A464" s="3">
         <v>42102</v>
       </c>
@@ -34574,11 +33652,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150408000);</v>
       </c>
-      <c r="D464" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A465" s="3">
         <v>42103</v>
       </c>
@@ -34590,11 +33665,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150409000);</v>
       </c>
-      <c r="D465" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A466" s="3">
         <v>42104</v>
       </c>
@@ -34606,11 +33678,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150410000);</v>
       </c>
-      <c r="D466" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A467" s="3">
         <v>42105</v>
       </c>
@@ -34622,11 +33691,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150411000);</v>
       </c>
-      <c r="D467" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A468" s="3">
         <v>42106</v>
       </c>
@@ -34638,11 +33704,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150412000);</v>
       </c>
-      <c r="D468" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A469" s="3">
         <v>42107</v>
       </c>
@@ -34654,11 +33717,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150413000);</v>
       </c>
-      <c r="D469" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A470" s="3">
         <v>42108</v>
       </c>
@@ -34670,11 +33730,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150414000);</v>
       </c>
-      <c r="D470" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A471" s="3">
         <v>42109</v>
       </c>
@@ -34686,11 +33743,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150415000);</v>
       </c>
-      <c r="D471" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A472" s="3">
         <v>42110</v>
       </c>
@@ -34702,11 +33756,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150416000);</v>
       </c>
-      <c r="D472" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A473" s="3">
         <v>42111</v>
       </c>
@@ -34718,11 +33769,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150417000);</v>
       </c>
-      <c r="D473" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A474" s="3">
         <v>42112</v>
       </c>
@@ -34734,11 +33782,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150418000);</v>
       </c>
-      <c r="D474" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A475" s="3">
         <v>42113</v>
       </c>
@@ -34750,11 +33795,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150419000);</v>
       </c>
-      <c r="D475" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A476" s="3">
         <v>42114</v>
       </c>
@@ -34766,11 +33808,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150420000);</v>
       </c>
-      <c r="D476" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A477" s="3">
         <v>42115</v>
       </c>
@@ -34782,11 +33821,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150421000);</v>
       </c>
-      <c r="D477" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A478" s="3">
         <v>42116</v>
       </c>
@@ -34798,11 +33834,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150422000);</v>
       </c>
-      <c r="D478" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A479" s="3">
         <v>42117</v>
       </c>
@@ -34814,11 +33847,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150423000);</v>
       </c>
-      <c r="D479" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A480" s="3">
         <v>42118</v>
       </c>
@@ -34830,11 +33860,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150424000);</v>
       </c>
-      <c r="D480" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A481" s="3">
         <v>42119</v>
       </c>
@@ -34846,11 +33873,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150425000);</v>
       </c>
-      <c r="D481" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A482" s="3">
         <v>42120</v>
       </c>
@@ -34862,11 +33886,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150426000);</v>
       </c>
-      <c r="D482" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A483" s="3">
         <v>42121</v>
       </c>
@@ -34878,11 +33899,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150427000);</v>
       </c>
-      <c r="D483" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A484" s="3">
         <v>42122</v>
       </c>
@@ -34894,11 +33912,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150428000);</v>
       </c>
-      <c r="D484" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A485" s="3">
         <v>42123</v>
       </c>
@@ -34910,11 +33925,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150429000);</v>
       </c>
-      <c r="D485" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A486" s="3">
         <v>42124</v>
       </c>
@@ -34926,11 +33938,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150430000);</v>
       </c>
-      <c r="D486" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A487" s="3">
         <v>42125</v>
       </c>
@@ -34942,11 +33951,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150501000);</v>
       </c>
-      <c r="D487" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A488" s="3">
         <v>42126</v>
       </c>
@@ -34958,11 +33964,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150502000);</v>
       </c>
-      <c r="D488" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A489" s="3">
         <v>42127</v>
       </c>
@@ -34974,11 +33977,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150503000);</v>
       </c>
-      <c r="D489" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A490" s="3">
         <v>42128</v>
       </c>
@@ -34990,11 +33990,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150504000);</v>
       </c>
-      <c r="D490" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A491" s="3">
         <v>42129</v>
       </c>
@@ -35006,11 +34003,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150505000);</v>
       </c>
-      <c r="D491" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A492" s="3">
         <v>42130</v>
       </c>
@@ -35022,11 +34016,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150506000);</v>
       </c>
-      <c r="D492" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A493" s="3">
         <v>42131</v>
       </c>
@@ -35038,11 +34029,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150507000);</v>
       </c>
-      <c r="D493" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A494" s="3">
         <v>42132</v>
       </c>
@@ -35054,11 +34042,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150508000);</v>
       </c>
-      <c r="D494" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A495" s="3">
         <v>42133</v>
       </c>
@@ -35070,11 +34055,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150509000);</v>
       </c>
-      <c r="D495" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A496" s="3">
         <v>42134</v>
       </c>
@@ -35086,11 +34068,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150510000);</v>
       </c>
-      <c r="D496" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A497" s="3">
         <v>42135</v>
       </c>
@@ -35102,11 +34081,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150511000);</v>
       </c>
-      <c r="D497" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A498" s="3">
         <v>42136</v>
       </c>
@@ -35118,11 +34094,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150512000);</v>
       </c>
-      <c r="D498" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A499" s="3">
         <v>42137</v>
       </c>
@@ -35134,11 +34107,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150513000);</v>
       </c>
-      <c r="D499" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A500" s="3">
         <v>42138</v>
       </c>
@@ -35150,11 +34120,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150514000);</v>
       </c>
-      <c r="D500" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A501" s="3">
         <v>42139</v>
       </c>
@@ -35166,11 +34133,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150515000);</v>
       </c>
-      <c r="D501" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A502" s="3">
         <v>42140</v>
       </c>
@@ -35182,11 +34146,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150516000);</v>
       </c>
-      <c r="D502" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A503" s="3">
         <v>42141</v>
       </c>
@@ -35198,11 +34159,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150517000);</v>
       </c>
-      <c r="D503" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A504" s="3">
         <v>42142</v>
       </c>
@@ -35214,11 +34172,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150518000);</v>
       </c>
-      <c r="D504" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A505" s="3">
         <v>42143</v>
       </c>
@@ -35230,11 +34185,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150519000);</v>
       </c>
-      <c r="D505" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A506" s="3">
         <v>42144</v>
       </c>
@@ -35246,11 +34198,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150520000);</v>
       </c>
-      <c r="D506" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A507" s="3">
         <v>42145</v>
       </c>
@@ -35262,11 +34211,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150521000);</v>
       </c>
-      <c r="D507" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A508" s="3">
         <v>42146</v>
       </c>
@@ -35278,11 +34224,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150522000);</v>
       </c>
-      <c r="D508" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A509" s="3">
         <v>42147</v>
       </c>
@@ -35294,11 +34237,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150523000);</v>
       </c>
-      <c r="D509" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A510" s="3">
         <v>42148</v>
       </c>
@@ -35310,11 +34250,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150524000);</v>
       </c>
-      <c r="D510" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A511" s="3">
         <v>42149</v>
       </c>
@@ -35326,11 +34263,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150525000);</v>
       </c>
-      <c r="D511" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A512" s="3">
         <v>42150</v>
       </c>
@@ -35342,11 +34276,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150526000);</v>
       </c>
-      <c r="D512" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A513" s="3">
         <v>42151</v>
       </c>
@@ -35358,11 +34289,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150527000);</v>
       </c>
-      <c r="D513" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A514" s="3">
         <v>42152</v>
       </c>
@@ -35374,11 +34302,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150528000);</v>
       </c>
-      <c r="D514" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A515" s="3">
         <v>42153</v>
       </c>
@@ -35390,11 +34315,8 @@
         <f t="shared" si="15"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150529000);</v>
       </c>
-      <c r="D515" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A516" s="3">
         <v>42154</v>
       </c>
@@ -35406,11 +34328,8 @@
         <f t="shared" ref="C516:C579" si="17">CONCATENATE("CALL W_RTL_SLS_TRX_LC_DY_A_AGG(1",B516,"000);")</f>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150530000);</v>
       </c>
-      <c r="D516" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A517" s="3">
         <v>42155</v>
       </c>
@@ -35422,11 +34341,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150531000);</v>
       </c>
-      <c r="D517" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A518" s="3">
         <v>42156</v>
       </c>
@@ -35438,11 +34354,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150601000);</v>
       </c>
-      <c r="D518" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A519" s="3">
         <v>42157</v>
       </c>
@@ -35454,11 +34367,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150602000);</v>
       </c>
-      <c r="D519" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A520" s="3">
         <v>42158</v>
       </c>
@@ -35470,11 +34380,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150603000);</v>
       </c>
-      <c r="D520" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A521" s="3">
         <v>42159</v>
       </c>
@@ -35486,11 +34393,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150604000);</v>
       </c>
-      <c r="D521" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A522" s="3">
         <v>42160</v>
       </c>
@@ -35502,11 +34406,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150605000);</v>
       </c>
-      <c r="D522" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A523" s="3">
         <v>42161</v>
       </c>
@@ -35518,11 +34419,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150606000);</v>
       </c>
-      <c r="D523" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A524" s="3">
         <v>42162</v>
       </c>
@@ -35534,11 +34432,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150607000);</v>
       </c>
-      <c r="D524" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A525" s="3">
         <v>42163</v>
       </c>
@@ -35550,11 +34445,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150608000);</v>
       </c>
-      <c r="D525" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A526" s="3">
         <v>42164</v>
       </c>
@@ -35566,11 +34458,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150609000);</v>
       </c>
-      <c r="D526" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A527" s="3">
         <v>42165</v>
       </c>
@@ -35582,11 +34471,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150610000);</v>
       </c>
-      <c r="D527" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A528" s="3">
         <v>42166</v>
       </c>
@@ -35598,11 +34484,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150611000);</v>
       </c>
-      <c r="D528" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A529" s="3">
         <v>42167</v>
       </c>
@@ -35614,11 +34497,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150612000);</v>
       </c>
-      <c r="D529" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A530" s="3">
         <v>42168</v>
       </c>
@@ -35630,11 +34510,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150613000);</v>
       </c>
-      <c r="D530" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A531" s="3">
         <v>42169</v>
       </c>
@@ -35646,11 +34523,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150614000);</v>
       </c>
-      <c r="D531" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A532" s="3">
         <v>42170</v>
       </c>
@@ -35662,11 +34536,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150615000);</v>
       </c>
-      <c r="D532" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A533" s="3">
         <v>42171</v>
       </c>
@@ -35678,11 +34549,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150616000);</v>
       </c>
-      <c r="D533" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A534" s="3">
         <v>42172</v>
       </c>
@@ -35694,11 +34562,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150617000);</v>
       </c>
-      <c r="D534" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A535" s="3">
         <v>42173</v>
       </c>
@@ -35710,11 +34575,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150618000);</v>
       </c>
-      <c r="D535" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A536" s="3">
         <v>42174</v>
       </c>
@@ -35726,11 +34588,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150619000);</v>
       </c>
-      <c r="D536" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A537" s="3">
         <v>42175</v>
       </c>
@@ -35742,11 +34601,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150620000);</v>
       </c>
-      <c r="D537" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A538" s="3">
         <v>42176</v>
       </c>
@@ -35758,11 +34614,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150621000);</v>
       </c>
-      <c r="D538" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A539" s="3">
         <v>42177</v>
       </c>
@@ -35774,11 +34627,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150622000);</v>
       </c>
-      <c r="D539" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A540" s="3">
         <v>42178</v>
       </c>
@@ -35790,11 +34640,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150623000);</v>
       </c>
-      <c r="D540" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A541" s="3">
         <v>42179</v>
       </c>
@@ -35806,11 +34653,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150624000);</v>
       </c>
-      <c r="D541" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A542" s="3">
         <v>42180</v>
       </c>
@@ -35822,11 +34666,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150625000);</v>
       </c>
-      <c r="D542" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A543" s="3">
         <v>42181</v>
       </c>
@@ -35838,11 +34679,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150626000);</v>
       </c>
-      <c r="D543" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A544" s="3">
         <v>42182</v>
       </c>
@@ -35854,11 +34692,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150627000);</v>
       </c>
-      <c r="D544" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A545" s="3">
         <v>42183</v>
       </c>
@@ -35870,11 +34705,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150628000);</v>
       </c>
-      <c r="D545" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A546" s="3">
         <v>42184</v>
       </c>
@@ -35886,11 +34718,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150629000);</v>
       </c>
-      <c r="D546" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A547" s="3">
         <v>42185</v>
       </c>
@@ -35902,11 +34731,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150630000);</v>
       </c>
-      <c r="D547" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A548" s="3">
         <v>42186</v>
       </c>
@@ -35918,11 +34744,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150701000);</v>
       </c>
-      <c r="D548" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A549" s="3">
         <v>42187</v>
       </c>
@@ -35934,11 +34757,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150702000);</v>
       </c>
-      <c r="D549" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A550" s="3">
         <v>42188</v>
       </c>
@@ -35950,11 +34770,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150703000);</v>
       </c>
-      <c r="D550" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A551" s="3">
         <v>42189</v>
       </c>
@@ -35966,11 +34783,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150704000);</v>
       </c>
-      <c r="D551" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A552" s="3">
         <v>42190</v>
       </c>
@@ -35982,11 +34796,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150705000);</v>
       </c>
-      <c r="D552" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A553" s="3">
         <v>42191</v>
       </c>
@@ -35998,11 +34809,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150706000);</v>
       </c>
-      <c r="D553" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A554" s="3">
         <v>42192</v>
       </c>
@@ -36014,11 +34822,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150707000);</v>
       </c>
-      <c r="D554" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A555" s="3">
         <v>42193</v>
       </c>
@@ -36030,11 +34835,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150708000);</v>
       </c>
-      <c r="D555" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A556" s="3">
         <v>42194</v>
       </c>
@@ -36046,11 +34848,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150709000);</v>
       </c>
-      <c r="D556" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A557" s="3">
         <v>42195</v>
       </c>
@@ -36062,11 +34861,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150710000);</v>
       </c>
-      <c r="D557" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A558" s="3">
         <v>42196</v>
       </c>
@@ -36078,11 +34874,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150711000);</v>
       </c>
-      <c r="D558" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A559" s="3">
         <v>42197</v>
       </c>
@@ -36094,11 +34887,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150712000);</v>
       </c>
-      <c r="D559" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A560" s="3">
         <v>42198</v>
       </c>
@@ -36110,11 +34900,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150713000);</v>
       </c>
-      <c r="D560" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A561" s="3">
         <v>42199</v>
       </c>
@@ -36126,11 +34913,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150714000);</v>
       </c>
-      <c r="D561" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A562" s="3">
         <v>42200</v>
       </c>
@@ -36142,11 +34926,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150715000);</v>
       </c>
-      <c r="D562" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A563" s="3">
         <v>42201</v>
       </c>
@@ -36158,11 +34939,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150716000);</v>
       </c>
-      <c r="D563" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A564" s="3">
         <v>42202</v>
       </c>
@@ -36174,11 +34952,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150717000);</v>
       </c>
-      <c r="D564" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A565" s="3">
         <v>42203</v>
       </c>
@@ -36190,11 +34965,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150718000);</v>
       </c>
-      <c r="D565" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A566" s="3">
         <v>42204</v>
       </c>
@@ -36206,11 +34978,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150719000);</v>
       </c>
-      <c r="D566" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A567" s="3">
         <v>42205</v>
       </c>
@@ -36222,11 +34991,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150720000);</v>
       </c>
-      <c r="D567" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A568" s="3">
         <v>42206</v>
       </c>
@@ -36238,11 +35004,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150721000);</v>
       </c>
-      <c r="D568" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A569" s="3">
         <v>42207</v>
       </c>
@@ -36254,11 +35017,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150722000);</v>
       </c>
-      <c r="D569" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A570" s="3">
         <v>42208</v>
       </c>
@@ -36270,11 +35030,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150723000);</v>
       </c>
-      <c r="D570" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A571" s="3">
         <v>42209</v>
       </c>
@@ -36286,11 +35043,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150724000);</v>
       </c>
-      <c r="D571" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A572" s="3">
         <v>42210</v>
       </c>
@@ -36302,11 +35056,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150725000);</v>
       </c>
-      <c r="D572" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A573" s="3">
         <v>42211</v>
       </c>
@@ -36318,11 +35069,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150726000);</v>
       </c>
-      <c r="D573" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A574" s="3">
         <v>42212</v>
       </c>
@@ -36334,11 +35082,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150727000);</v>
       </c>
-      <c r="D574" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A575" s="3">
         <v>42213</v>
       </c>
@@ -36350,11 +35095,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150728000);</v>
       </c>
-      <c r="D575" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A576" s="3">
         <v>42214</v>
       </c>
@@ -36366,11 +35108,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150729000);</v>
       </c>
-      <c r="D576" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A577" s="3">
         <v>42215</v>
       </c>
@@ -36382,27 +35121,21 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150730000);</v>
       </c>
-      <c r="D577" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A578" s="3">
         <v>42216</v>
       </c>
       <c r="B578" s="2" t="str">
-        <f t="shared" ref="B578:B609" si="18">TEXT(A578,"yyyymmdd")</f>
+        <f t="shared" ref="B578:B610" si="18">TEXT(A578,"yyyymmdd")</f>
         <v>20150731</v>
       </c>
       <c r="C578" s="2" t="str">
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150731000);</v>
       </c>
-      <c r="D578" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A579" s="3">
         <v>42217</v>
       </c>
@@ -36414,11 +35147,8 @@
         <f t="shared" si="17"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150801000);</v>
       </c>
-      <c r="D579" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A580" s="3">
         <v>42218</v>
       </c>
@@ -36427,14 +35157,11 @@
         <v>20150802</v>
       </c>
       <c r="C580" s="2" t="str">
-        <f t="shared" ref="C580:C609" si="19">CONCATENATE("CALL W_RTL_SLS_TRX_LC_DY_A_AGG(1",B580,"000);")</f>
+        <f t="shared" ref="C580:C610" si="19">CONCATENATE("CALL W_RTL_SLS_TRX_LC_DY_A_AGG(1",B580,"000);")</f>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150802000);</v>
       </c>
-      <c r="D580" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A581" s="3">
         <v>42219</v>
       </c>
@@ -36446,11 +35173,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150803000);</v>
       </c>
-      <c r="D581" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A582" s="3">
         <v>42220</v>
       </c>
@@ -36462,11 +35186,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150804000);</v>
       </c>
-      <c r="D582" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A583" s="3">
         <v>42221</v>
       </c>
@@ -36478,11 +35199,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150805000);</v>
       </c>
-      <c r="D583" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A584" s="3">
         <v>42222</v>
       </c>
@@ -36494,11 +35212,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150806000);</v>
       </c>
-      <c r="D584" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A585" s="3">
         <v>42223</v>
       </c>
@@ -36510,11 +35225,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150807000);</v>
       </c>
-      <c r="D585" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A586" s="3">
         <v>42224</v>
       </c>
@@ -36526,11 +35238,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150808000);</v>
       </c>
-      <c r="D586" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A587" s="3">
         <v>42225</v>
       </c>
@@ -36542,11 +35251,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150809000);</v>
       </c>
-      <c r="D587" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A588" s="3">
         <v>42226</v>
       </c>
@@ -36558,11 +35264,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150810000);</v>
       </c>
-      <c r="D588" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A589" s="3">
         <v>42227</v>
       </c>
@@ -36574,11 +35277,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150811000);</v>
       </c>
-      <c r="D589" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A590" s="3">
         <v>42228</v>
       </c>
@@ -36590,11 +35290,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150812000);</v>
       </c>
-      <c r="D590" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A591" s="3">
         <v>42229</v>
       </c>
@@ -36606,11 +35303,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150813000);</v>
       </c>
-      <c r="D591" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A592" s="3">
         <v>42230</v>
       </c>
@@ -36622,11 +35316,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150814000);</v>
       </c>
-      <c r="D592" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A593" s="3">
         <v>42231</v>
       </c>
@@ -36638,11 +35329,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150815000);</v>
       </c>
-      <c r="D593" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A594" s="3">
         <v>42232</v>
       </c>
@@ -36654,11 +35342,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150816000);</v>
       </c>
-      <c r="D594" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A595" s="3">
         <v>42233</v>
       </c>
@@ -36670,11 +35355,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150817000);</v>
       </c>
-      <c r="D595" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A596" s="3">
         <v>42234</v>
       </c>
@@ -36686,11 +35368,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150818000);</v>
       </c>
-      <c r="D596" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A597" s="3">
         <v>42235</v>
       </c>
@@ -36702,11 +35381,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150819000);</v>
       </c>
-      <c r="D597" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A598" s="3">
         <v>42236</v>
       </c>
@@ -36718,11 +35394,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150820000);</v>
       </c>
-      <c r="D598" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A599" s="3">
         <v>42237</v>
       </c>
@@ -36734,11 +35407,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150821000);</v>
       </c>
-      <c r="D599" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A600" s="3">
         <v>42238</v>
       </c>
@@ -36750,11 +35420,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150822000);</v>
       </c>
-      <c r="D600" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A601" s="3">
         <v>42239</v>
       </c>
@@ -36766,11 +35433,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150823000);</v>
       </c>
-      <c r="D601" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A602" s="3">
         <v>42240</v>
       </c>
@@ -36782,11 +35446,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150824000);</v>
       </c>
-      <c r="D602" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A603" s="3">
         <v>42241</v>
       </c>
@@ -36798,11 +35459,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150825000);</v>
       </c>
-      <c r="D603" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A604" s="3">
         <v>42242</v>
       </c>
@@ -36814,11 +35472,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150826000);</v>
       </c>
-      <c r="D604" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A605" s="3">
         <v>42243</v>
       </c>
@@ -36830,11 +35485,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150827000);</v>
       </c>
-      <c r="D605" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A606" s="3">
         <v>42244</v>
       </c>
@@ -36846,11 +35498,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150828000);</v>
       </c>
-      <c r="D606" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A607" s="3">
         <v>42245</v>
       </c>
@@ -36862,11 +35511,8 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150829000);</v>
       </c>
-      <c r="D607" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A608" s="3">
         <v>42246</v>
       </c>
@@ -36878,9 +35524,6 @@
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150830000);</v>
       </c>
-      <c r="D608" s="4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A609" s="3">
@@ -36893,6 +35536,19 @@
       <c r="C609" s="2" t="str">
         <f t="shared" si="19"/>
         <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150831000);</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A610" s="3">
+        <v>42248</v>
+      </c>
+      <c r="B610" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>20150901</v>
+      </c>
+      <c r="C610" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>CALL W_RTL_SLS_TRX_LC_DY_A_AGG(120150901000);</v>
       </c>
     </row>
   </sheetData>
